--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF777E-4253-476B-B50E-A2103040B3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B5CB8-B42A-44A6-B259-B172A130A0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
@@ -531,15 +531,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,9 +561,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,6 +1107,566 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Produto p/ Quantidade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Produtos!$G$1:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Meteora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qtd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Produtos!$A$4:$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v> Bermuda </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Bermuda </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Bermuda </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Bolsa coringa </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Bolsa de couro </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Boné </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Calça jeans </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Calça jeans </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Calça jeans </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Calça legging </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Calça legging </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Calça legging </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Camiseta Estampada </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Camiseta Estampada </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Camiseta Estampada </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Camiseta Lisa </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Camiseta Lisa  </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Camiseta Lisa  </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> Cinto </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> Jaqueta couro </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> Jaqueta couro </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> Jaqueta couro </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> Jaqueta jeans </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> Jaqueta jeans </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v> Jaqueta jeans </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v> Óculos quadrado </c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v> Óculos redondo </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v> Tênis Atitas </c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v> Tênis Atitas </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v> Tênis Atitas </c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v> Tênis Nika </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v> Tênis Nika </c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v> Tênis Nika </c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> Vestido curto </c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v> Vestido curto </c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v> Vestido curto </c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v> Vestido longo </c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v> Vestido longo </c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v> Vestido longo </c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Totais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Produtos!$G$4:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-750E-4FEB-8A27-61EBE60352E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="354730304"/>
+        <c:axId val="354731744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="354730304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354731744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354731744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354730304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1645,12 +2205,554 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2146,7 +3248,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9A48CCD2-7999-4C84-BCE6-D5F9013F49EE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2155,9 +3257,50 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>77857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>480389</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9783312B-DF01-87EE-B28E-FE5AACD53952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9652000" cy="6016625"/>
+    <xdr:ext cx="9645063" cy="6011155"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -2981,7 +4124,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" activeCellId="1" sqref="A3:A42 G3:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,40 +4204,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="19">
-        <v>399.9</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="E4" s="8">
         <f>D4*$L$4</f>
-        <v>39.99</v>
-      </c>
-      <c r="F4" s="19">
+        <v>6.5900000000000007</v>
+      </c>
+      <c r="F4" s="8">
         <f>D4-E4</f>
-        <v>359.90999999999997</v>
-      </c>
-      <c r="G4" s="23">
-        <v>3</v>
-      </c>
-      <c r="H4" s="19">
+        <v>59.31</v>
+      </c>
+      <c r="G4" s="22">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8">
         <f>D4*G4</f>
-        <v>1199.6999999999998</v>
-      </c>
-      <c r="I4" s="19">
+        <v>790.80000000000007</v>
+      </c>
+      <c r="I4" s="8">
         <f>H4*$L$4</f>
-        <v>119.96999999999998</v>
-      </c>
-      <c r="J4" s="19">
+        <v>79.080000000000013</v>
+      </c>
+      <c r="J4" s="8">
         <f>H4-I4</f>
-        <v>1079.7299999999998</v>
+        <v>711.72</v>
       </c>
       <c r="L4" s="15">
         <v>0.1</v>
@@ -3102,44 +4245,44 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8">
-        <v>349.9</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E5" s="8">
         <f>D5*$L$4</f>
-        <v>34.99</v>
+        <v>7.0900000000000007</v>
       </c>
       <c r="F5" s="8">
         <f>D5-E5</f>
-        <v>314.90999999999997</v>
+        <v>63.81</v>
       </c>
       <c r="G5" s="22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8">
         <f>D5*G5</f>
-        <v>0</v>
+        <v>921.7</v>
       </c>
       <c r="I5" s="8">
         <f>H5*$L$4</f>
-        <v>0</v>
+        <v>92.170000000000016</v>
       </c>
       <c r="J5" s="8">
         <f>H5-I5</f>
-        <v>0</v>
+        <v>829.53</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>8</v>
@@ -3148,146 +4291,146 @@
         <v>19</v>
       </c>
       <c r="D6" s="19">
-        <v>302.89999999999998</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="E6" s="19">
         <f>D6*$L$4</f>
-        <v>30.29</v>
+        <v>6.9900000000000011</v>
       </c>
       <c r="F6" s="19">
         <f>D6-E6</f>
-        <v>272.60999999999996</v>
+        <v>62.910000000000004</v>
       </c>
       <c r="G6" s="23">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H6" s="19">
         <f>D6*G6</f>
-        <v>605.79999999999995</v>
+        <v>1048.5</v>
       </c>
       <c r="I6" s="19">
         <f>H6*$L$4</f>
-        <v>60.58</v>
+        <v>104.85000000000001</v>
       </c>
       <c r="J6" s="19">
         <f>H6-I6</f>
-        <v>545.21999999999991</v>
+        <v>943.65</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8">
-        <v>300</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="A7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="19">
+        <v>145</v>
+      </c>
+      <c r="E7" s="19">
         <f>D7*$L$4</f>
-        <v>30</v>
-      </c>
-      <c r="F7" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="F7" s="19">
         <f>D7-E7</f>
-        <v>270</v>
-      </c>
-      <c r="G7" s="22">
+        <v>130.5</v>
+      </c>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="19">
+        <f>D7*G7</f>
+        <v>290</v>
+      </c>
+      <c r="I7" s="19">
+        <f>H7*$L$4</f>
+        <v>29</v>
+      </c>
+      <c r="J7" s="19">
+        <f>H7-I7</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E8" s="8">
+        <f>D8*$L$4</f>
+        <v>25.99</v>
+      </c>
+      <c r="F8" s="8">
+        <f>D8-E8</f>
+        <v>233.90999999999997</v>
+      </c>
+      <c r="G8" s="22">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
-        <f>D7*G7</f>
-        <v>300</v>
-      </c>
-      <c r="I7" s="8">
-        <f>H7*$L$4</f>
-        <v>30</v>
-      </c>
-      <c r="J7" s="8">
-        <f>H7-I7</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="19">
-        <v>299.89999999999998</v>
-      </c>
-      <c r="E8" s="19">
-        <f>D8*$L$4</f>
-        <v>29.99</v>
-      </c>
-      <c r="F8" s="19">
-        <f>D8-E8</f>
-        <v>269.90999999999997</v>
-      </c>
-      <c r="G8" s="23">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="H8" s="8">
         <f>D8*G8</f>
-        <v>299.89999999999998</v>
-      </c>
-      <c r="I8" s="19">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="I8" s="8">
         <f>H8*$L$4</f>
-        <v>29.99</v>
-      </c>
-      <c r="J8" s="19">
+        <v>25.99</v>
+      </c>
+      <c r="J8" s="8">
         <f>H8-I8</f>
-        <v>269.90999999999997</v>
+        <v>233.90999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8">
-        <v>299.89999999999998</v>
+        <v>39.9</v>
       </c>
       <c r="E9" s="8">
         <f>D9*$L$4</f>
-        <v>29.99</v>
+        <v>3.99</v>
       </c>
       <c r="F9" s="8">
         <f>D9-E9</f>
-        <v>269.90999999999997</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="G9" s="22">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H9" s="8">
         <f>D9*G9</f>
-        <v>299.89999999999998</v>
+        <v>438.9</v>
       </c>
       <c r="I9" s="8">
         <f>H9*$L$4</f>
-        <v>29.99</v>
+        <v>43.89</v>
       </c>
       <c r="J9" s="8">
         <f>H9-I9</f>
-        <v>269.90999999999997</v>
+        <v>395.01</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>8</v>
@@ -3296,183 +4439,183 @@
         <v>19</v>
       </c>
       <c r="D10" s="8">
-        <v>259.89999999999998</v>
+        <v>89.9</v>
       </c>
       <c r="E10" s="8">
         <f>D10*$L$4</f>
-        <v>25.99</v>
+        <v>8.99</v>
       </c>
       <c r="F10" s="8">
         <f>D10-E10</f>
-        <v>233.90999999999997</v>
+        <v>80.910000000000011</v>
       </c>
       <c r="G10" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10" s="8">
         <f>D10*G10</f>
-        <v>519.79999999999995</v>
+        <v>449.5</v>
       </c>
       <c r="I10" s="8">
         <f>H10*$L$4</f>
-        <v>51.98</v>
+        <v>44.95</v>
       </c>
       <c r="J10" s="8">
         <f>H10-I10</f>
-        <v>467.81999999999994</v>
+        <v>404.55</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="22">
-        <v>38</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="A11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="19">
+        <v>92.9</v>
+      </c>
+      <c r="E11" s="19">
         <f>D11*$L$4</f>
-        <v>25.99</v>
-      </c>
-      <c r="F11" s="8">
+        <v>9.2900000000000009</v>
+      </c>
+      <c r="F11" s="19">
         <f>D11-E11</f>
-        <v>233.90999999999997</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+        <v>83.61</v>
+      </c>
+      <c r="G11" s="23">
+        <v>6</v>
+      </c>
+      <c r="H11" s="19">
         <f>D11*G11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
+        <v>557.40000000000009</v>
+      </c>
+      <c r="I11" s="19">
         <f>H11*$L$4</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
+        <v>55.740000000000009</v>
+      </c>
+      <c r="J11" s="19">
         <f>H11-I11</f>
-        <v>0</v>
+        <v>501.66000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="23">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="19">
-        <v>259.89999999999998</v>
+        <v>85.9</v>
       </c>
       <c r="E12" s="19">
         <f>D12*$L$4</f>
-        <v>25.99</v>
+        <v>8.5900000000000016</v>
       </c>
       <c r="F12" s="19">
         <f>D12-E12</f>
-        <v>233.90999999999997</v>
+        <v>77.31</v>
       </c>
       <c r="G12" s="23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H12" s="19">
         <f>D12*G12</f>
-        <v>259.89999999999998</v>
+        <v>687.2</v>
       </c>
       <c r="I12" s="19">
         <f>H12*$L$4</f>
-        <v>25.99</v>
+        <v>68.720000000000013</v>
       </c>
       <c r="J12" s="19">
         <f>H12-I12</f>
-        <v>233.90999999999997</v>
+        <v>618.48</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="A13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="19">
+        <v>48.9</v>
+      </c>
+      <c r="E13" s="19">
         <f>D13*$L$4</f>
-        <v>25.99</v>
-      </c>
-      <c r="F13" s="8">
+        <v>4.8900000000000006</v>
+      </c>
+      <c r="F13" s="19">
         <f>D13-E13</f>
-        <v>233.90999999999997</v>
-      </c>
-      <c r="G13" s="22">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
+        <v>44.01</v>
+      </c>
+      <c r="G13" s="23">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19">
         <f>D13*G13</f>
-        <v>259.89999999999998</v>
-      </c>
-      <c r="I13" s="8">
+        <v>97.8</v>
+      </c>
+      <c r="I13" s="19">
         <f>H13*$L$4</f>
-        <v>25.99</v>
-      </c>
-      <c r="J13" s="8">
+        <v>9.7800000000000011</v>
+      </c>
+      <c r="J13" s="19">
         <f>H13-I13</f>
-        <v>233.90999999999997</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="22">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="8">
-        <v>255</v>
+        <v>46.9</v>
       </c>
       <c r="E14" s="8">
         <f>D14*$L$4</f>
-        <v>25.5</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F14" s="8">
         <f>D14-E14</f>
-        <v>229.5</v>
+        <v>42.21</v>
       </c>
       <c r="G14" s="22">
         <v>3</v>
       </c>
       <c r="H14" s="8">
         <f>D14*G14</f>
-        <v>765</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="I14" s="8">
         <f>H14*$L$4</f>
-        <v>76.5</v>
+        <v>14.07</v>
       </c>
       <c r="J14" s="8">
         <f>H14-I14</f>
-        <v>688.5</v>
+        <v>126.63</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>7</v>
@@ -3481,1029 +4624,1029 @@
         <v>19</v>
       </c>
       <c r="D15" s="19">
-        <v>249.9</v>
+        <v>44.9</v>
       </c>
       <c r="E15" s="19">
         <f>D15*$L$4</f>
-        <v>24.990000000000002</v>
+        <v>4.49</v>
       </c>
       <c r="F15" s="19">
         <f>D15-E15</f>
-        <v>224.91</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="G15" s="23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" s="19">
         <f>D15*G15</f>
-        <v>249.9</v>
+        <v>224.5</v>
       </c>
       <c r="I15" s="19">
         <f>H15*$L$4</f>
-        <v>24.990000000000002</v>
+        <v>22.450000000000003</v>
       </c>
       <c r="J15" s="19">
         <f>H15-I15</f>
-        <v>224.91</v>
+        <v>202.05</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="23">
-        <v>37</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="19">
-        <v>249.9</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="E16" s="8">
         <f>D16*$L$4</f>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="F16" s="19">
+        <v>4.25</v>
+      </c>
+      <c r="F16" s="8">
         <f>D16-E16</f>
-        <v>224.91</v>
-      </c>
-      <c r="G16" s="23">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19">
+        <v>38.25</v>
+      </c>
+      <c r="G16" s="22">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8">
         <f>D16*G16</f>
-        <v>249.9</v>
-      </c>
-      <c r="I16" s="19">
+        <v>255</v>
+      </c>
+      <c r="I16" s="8">
         <f>H16*$L$4</f>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="J16" s="19">
+        <v>25.5</v>
+      </c>
+      <c r="J16" s="8">
         <f>H16-I16</f>
-        <v>224.91</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="23">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="19">
-        <v>249.9</v>
+        <v>39.9</v>
       </c>
       <c r="E17" s="19">
         <f>D17*$L$4</f>
-        <v>24.990000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="F17" s="19">
         <f>D17-E17</f>
-        <v>224.91</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="G17" s="23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H17" s="19">
         <f>D17*G17</f>
-        <v>1249.5</v>
+        <v>399</v>
       </c>
       <c r="I17" s="19">
         <f>H17*$L$4</f>
-        <v>124.95</v>
+        <v>39.900000000000006</v>
       </c>
       <c r="J17" s="19">
         <f>H17-I17</f>
-        <v>1124.55</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="22">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="8">
-        <v>199.9</v>
+        <v>39.9</v>
       </c>
       <c r="E18" s="8">
         <f>D18*$L$4</f>
-        <v>19.990000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="F18" s="8">
         <f>D18-E18</f>
-        <v>179.91</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="G18" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H18" s="8">
         <f>D18*G18</f>
-        <v>0</v>
+        <v>478.79999999999995</v>
       </c>
       <c r="I18" s="8">
         <f>H18*$L$4</f>
-        <v>0</v>
+        <v>47.879999999999995</v>
       </c>
       <c r="J18" s="8">
         <f>H18-I18</f>
-        <v>0</v>
+        <v>430.91999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8">
-        <v>146</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="19">
+        <v>32.9</v>
+      </c>
+      <c r="E19" s="19">
         <f>D19*$L$4</f>
-        <v>14.600000000000001</v>
-      </c>
-      <c r="F19" s="8">
+        <v>3.29</v>
+      </c>
+      <c r="F19" s="19">
         <f>D19-E19</f>
-        <v>131.4</v>
-      </c>
-      <c r="G19" s="22">
+        <v>29.61</v>
+      </c>
+      <c r="G19" s="23">
+        <v>6</v>
+      </c>
+      <c r="H19" s="19">
+        <f>D19*G19</f>
+        <v>197.39999999999998</v>
+      </c>
+      <c r="I19" s="19">
+        <f>H19*$L$4</f>
+        <v>19.739999999999998</v>
+      </c>
+      <c r="J19" s="19">
+        <f>H19-I19</f>
+        <v>177.65999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8">
+        <v>29.9</v>
+      </c>
+      <c r="E20" s="8">
+        <f>D20*$L$4</f>
+        <v>2.99</v>
+      </c>
+      <c r="F20" s="8">
+        <f>D20-E20</f>
+        <v>26.909999999999997</v>
+      </c>
+      <c r="G20" s="22">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8">
+        <f>D20*G20</f>
+        <v>299</v>
+      </c>
+      <c r="I20" s="8">
+        <f>H20*$L$4</f>
+        <v>29.900000000000002</v>
+      </c>
+      <c r="J20" s="8">
+        <f>H20-I20</f>
+        <v>269.10000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="E21" s="7">
+        <f>D21*$L$4</f>
+        <v>2.59</v>
+      </c>
+      <c r="F21" s="7">
+        <f>D21-E21</f>
+        <v>23.31</v>
+      </c>
+      <c r="G21" s="24">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7">
+        <f>D21*G21</f>
+        <v>310.79999999999995</v>
+      </c>
+      <c r="I21" s="7">
+        <f>H21*$L$4</f>
+        <v>31.08</v>
+      </c>
+      <c r="J21" s="7">
+        <f>H21-I21</f>
+        <v>279.71999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19">
+        <v>49.9</v>
+      </c>
+      <c r="E22" s="19">
+        <f>D22*$L$4</f>
+        <v>4.99</v>
+      </c>
+      <c r="F22" s="19">
+        <f>D22-E22</f>
+        <v>44.91</v>
+      </c>
+      <c r="G22" s="23">
+        <v>21</v>
+      </c>
+      <c r="H22" s="19">
+        <f>D22*G22</f>
+        <v>1047.8999999999999</v>
+      </c>
+      <c r="I22" s="19">
+        <f>H22*$L$4</f>
+        <v>104.78999999999999</v>
+      </c>
+      <c r="J22" s="19">
+        <f>H22-I22</f>
+        <v>943.1099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E23" s="8">
+        <f>D23*$L$4</f>
+        <v>29.99</v>
+      </c>
+      <c r="F23" s="8">
+        <f>D23-E23</f>
+        <v>269.90999999999997</v>
+      </c>
+      <c r="G23" s="22">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <f>D23*G23</f>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="I23" s="8">
+        <f>H23*$L$4</f>
+        <v>29.99</v>
+      </c>
+      <c r="J23" s="8">
+        <f>H23-I23</f>
+        <v>269.90999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8">
+        <v>300</v>
+      </c>
+      <c r="E24" s="8">
+        <f>D24*$L$4</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="8">
+        <f>D24-E24</f>
+        <v>270</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <f>D24*G24</f>
+        <v>300</v>
+      </c>
+      <c r="I24" s="8">
+        <f>H24*$L$4</f>
+        <v>30</v>
+      </c>
+      <c r="J24" s="8">
+        <f>H24-I24</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="19">
+        <v>302.89999999999998</v>
+      </c>
+      <c r="E25" s="19">
+        <f>D25*$L$4</f>
+        <v>30.29</v>
+      </c>
+      <c r="F25" s="19">
+        <f>D25-E25</f>
+        <v>272.60999999999996</v>
+      </c>
+      <c r="G25" s="23">
         <v>2</v>
       </c>
-      <c r="H19" s="8">
-        <f>D19*G19</f>
-        <v>292</v>
-      </c>
-      <c r="I19" s="8">
-        <f>H19*$L$4</f>
-        <v>29.200000000000003</v>
-      </c>
-      <c r="J19" s="8">
-        <f>H19-I19</f>
-        <v>262.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="19">
-        <v>145</v>
-      </c>
-      <c r="E20" s="19">
-        <f>D20*$L$4</f>
-        <v>14.5</v>
-      </c>
-      <c r="F20" s="19">
-        <f>D20-E20</f>
-        <v>130.5</v>
-      </c>
-      <c r="G20" s="23">
+      <c r="H25" s="19">
+        <f>D25*G25</f>
+        <v>605.79999999999995</v>
+      </c>
+      <c r="I25" s="19">
+        <f>H25*$L$4</f>
+        <v>60.58</v>
+      </c>
+      <c r="J25" s="19">
+        <f>H25-I25</f>
+        <v>545.21999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="19">
+        <v>249.9</v>
+      </c>
+      <c r="E26" s="19">
+        <f>D26*$L$4</f>
+        <v>24.990000000000002</v>
+      </c>
+      <c r="F26" s="19">
+        <f>D26-E26</f>
+        <v>224.91</v>
+      </c>
+      <c r="G26" s="23">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19">
+        <f>D26*G26</f>
+        <v>249.9</v>
+      </c>
+      <c r="I26" s="19">
+        <f>H26*$L$4</f>
+        <v>24.990000000000002</v>
+      </c>
+      <c r="J26" s="19">
+        <f>H26-I26</f>
+        <v>224.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="19">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E27" s="19">
+        <f>D27*$L$4</f>
+        <v>29.99</v>
+      </c>
+      <c r="F27" s="19">
+        <f>D27-E27</f>
+        <v>269.90999999999997</v>
+      </c>
+      <c r="G27" s="23">
+        <v>1</v>
+      </c>
+      <c r="H27" s="19">
+        <f>D27*G27</f>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="I27" s="19">
+        <f>H27*$L$4</f>
+        <v>29.99</v>
+      </c>
+      <c r="J27" s="19">
+        <f>H27-I27</f>
+        <v>269.90999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="8">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E28" s="8">
+        <f>D28*$L$4</f>
+        <v>25.99</v>
+      </c>
+      <c r="F28" s="8">
+        <f>D28-E28</f>
+        <v>233.90999999999997</v>
+      </c>
+      <c r="G28" s="22">
         <v>2</v>
       </c>
-      <c r="H20" s="19">
-        <f>D20*G20</f>
-        <v>290</v>
-      </c>
-      <c r="I20" s="19">
-        <f>H20*$L$4</f>
-        <v>29</v>
-      </c>
-      <c r="J20" s="19">
-        <f>H20-I20</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="19">
-        <v>142.9</v>
-      </c>
-      <c r="E21" s="19">
-        <f>D21*$L$4</f>
-        <v>14.290000000000001</v>
-      </c>
-      <c r="F21" s="19">
-        <f>D21-E21</f>
-        <v>128.61000000000001</v>
-      </c>
-      <c r="G21" s="23">
-        <v>2</v>
-      </c>
-      <c r="H21" s="19">
-        <f>D21*G21</f>
-        <v>285.8</v>
-      </c>
-      <c r="I21" s="19">
-        <f>H21*$L$4</f>
-        <v>28.580000000000002</v>
-      </c>
-      <c r="J21" s="19">
-        <f>H21-I21</f>
-        <v>257.22000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8">
-        <v>140</v>
-      </c>
-      <c r="E22" s="8">
-        <f>D22*$L$4</f>
-        <v>14</v>
-      </c>
-      <c r="F22" s="8">
-        <f>D22-E22</f>
-        <v>126</v>
-      </c>
-      <c r="G22" s="22">
-        <v>2</v>
-      </c>
-      <c r="H22" s="8">
-        <f>D22*G22</f>
-        <v>280</v>
-      </c>
-      <c r="I22" s="8">
-        <f>H22*$L$4</f>
-        <v>28</v>
-      </c>
-      <c r="J22" s="8">
-        <f>H22-I22</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="19">
-        <v>93.5</v>
-      </c>
-      <c r="E23" s="19">
-        <f>D23*$L$4</f>
-        <v>9.35</v>
-      </c>
-      <c r="F23" s="19">
-        <f>D23-E23</f>
-        <v>84.15</v>
-      </c>
-      <c r="G23" s="23">
-        <v>2</v>
-      </c>
-      <c r="H23" s="19">
-        <f>D23*G23</f>
-        <v>187</v>
-      </c>
-      <c r="I23" s="19">
-        <f>H23*$L$4</f>
-        <v>18.7</v>
-      </c>
-      <c r="J23" s="19">
-        <f>H23-I23</f>
-        <v>168.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="19">
-        <v>92.9</v>
-      </c>
-      <c r="E24" s="19">
-        <f>D24*$L$4</f>
-        <v>9.2900000000000009</v>
-      </c>
-      <c r="F24" s="19">
-        <f>D24-E24</f>
-        <v>83.61</v>
-      </c>
-      <c r="G24" s="23">
-        <v>6</v>
-      </c>
-      <c r="H24" s="19">
-        <f>D24*G24</f>
-        <v>557.40000000000009</v>
-      </c>
-      <c r="I24" s="19">
-        <f>H24*$L$4</f>
-        <v>55.740000000000009</v>
-      </c>
-      <c r="J24" s="19">
-        <f>H24-I24</f>
-        <v>501.66000000000008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8">
-        <v>91.4</v>
-      </c>
-      <c r="E25" s="8">
-        <f>D25*$L$4</f>
-        <v>9.14</v>
-      </c>
-      <c r="F25" s="8">
-        <f>D25-E25</f>
-        <v>82.26</v>
-      </c>
-      <c r="G25" s="22">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <f>D25*G25</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <f>H25*$L$4</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <f>H25-I25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="8">
-        <v>89.9</v>
-      </c>
-      <c r="E26" s="8">
-        <f>D26*$L$4</f>
-        <v>8.99</v>
-      </c>
-      <c r="F26" s="8">
-        <f>D26-E26</f>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="G26" s="22">
-        <v>5</v>
-      </c>
-      <c r="H26" s="8">
-        <f>D26*G26</f>
-        <v>449.5</v>
-      </c>
-      <c r="I26" s="8">
-        <f>H26*$L$4</f>
-        <v>44.95</v>
-      </c>
-      <c r="J26" s="8">
-        <f>H26-I26</f>
-        <v>404.55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="7">
-        <v>89.9</v>
-      </c>
-      <c r="E27" s="7">
-        <f>D27*$L$4</f>
-        <v>8.99</v>
-      </c>
-      <c r="F27" s="7">
-        <f>D27-E27</f>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="G27" s="24">
-        <v>3</v>
-      </c>
-      <c r="H27" s="7">
-        <f>D27*G27</f>
-        <v>269.70000000000005</v>
-      </c>
-      <c r="I27" s="7">
-        <f>H27*$L$4</f>
-        <v>26.970000000000006</v>
-      </c>
-      <c r="J27" s="7">
-        <f>H27-I27</f>
-        <v>242.73000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="19">
-        <v>85.9</v>
-      </c>
-      <c r="E28" s="19">
-        <f>D28*$L$4</f>
-        <v>8.5900000000000016</v>
-      </c>
-      <c r="F28" s="19">
-        <f>D28-E28</f>
-        <v>77.31</v>
-      </c>
-      <c r="G28" s="23">
-        <v>8</v>
-      </c>
-      <c r="H28" s="19">
+      <c r="H28" s="8">
         <f>D28*G28</f>
-        <v>687.2</v>
-      </c>
-      <c r="I28" s="19">
+        <v>519.79999999999995</v>
+      </c>
+      <c r="I28" s="8">
         <f>H28*$L$4</f>
-        <v>68.720000000000013</v>
-      </c>
-      <c r="J28" s="19">
+        <v>51.98</v>
+      </c>
+      <c r="J28" s="8">
         <f>H28-I28</f>
-        <v>618.48</v>
+        <v>467.81999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="8">
-        <v>70.900000000000006</v>
+        <v>349.9</v>
       </c>
       <c r="E29" s="8">
         <f>D29*$L$4</f>
-        <v>7.0900000000000007</v>
+        <v>34.99</v>
       </c>
       <c r="F29" s="8">
         <f>D29-E29</f>
-        <v>63.81</v>
+        <v>314.90999999999997</v>
       </c>
       <c r="G29" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H29" s="8">
         <f>D29*G29</f>
-        <v>921.7</v>
+        <v>0</v>
       </c>
       <c r="I29" s="8">
         <f>H29*$L$4</f>
-        <v>92.170000000000016</v>
+        <v>0</v>
       </c>
       <c r="J29" s="8">
         <f>H29-I29</f>
-        <v>829.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="19">
-        <v>69.900000000000006</v>
+        <v>399.9</v>
       </c>
       <c r="E30" s="19">
         <f>D30*$L$4</f>
-        <v>6.9900000000000011</v>
+        <v>39.99</v>
       </c>
       <c r="F30" s="19">
         <f>D30-E30</f>
-        <v>62.910000000000004</v>
+        <v>359.90999999999997</v>
       </c>
       <c r="G30" s="23">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H30" s="19">
         <f>D30*G30</f>
-        <v>1048.5</v>
+        <v>1199.6999999999998</v>
       </c>
       <c r="I30" s="19">
         <f>H30*$L$4</f>
-        <v>104.85000000000001</v>
+        <v>119.96999999999998</v>
       </c>
       <c r="J30" s="19">
         <f>H30-I30</f>
-        <v>943.65</v>
+        <v>1079.7299999999998</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="8">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="A31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="23">
+        <v>38</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="19">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E31" s="19">
         <f>D31*$L$4</f>
-        <v>6.5900000000000007</v>
-      </c>
-      <c r="F31" s="8">
+        <v>25.99</v>
+      </c>
+      <c r="F31" s="19">
         <f>D31-E31</f>
-        <v>59.31</v>
-      </c>
-      <c r="G31" s="22">
-        <v>12</v>
-      </c>
-      <c r="H31" s="8">
+        <v>233.90999999999997</v>
+      </c>
+      <c r="G31" s="23">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19">
         <f>D31*G31</f>
-        <v>790.80000000000007</v>
-      </c>
-      <c r="I31" s="8">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="I31" s="19">
         <f>H31*$L$4</f>
-        <v>79.080000000000013</v>
-      </c>
-      <c r="J31" s="8">
+        <v>25.99</v>
+      </c>
+      <c r="J31" s="19">
         <f>H31-I31</f>
-        <v>711.72</v>
+        <v>233.90999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="19">
-        <v>49.9</v>
-      </c>
-      <c r="E32" s="19">
+      <c r="A32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="22">
+        <v>37</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="8">
+        <v>255</v>
+      </c>
+      <c r="E32" s="8">
         <f>D32*$L$4</f>
-        <v>4.99</v>
-      </c>
-      <c r="F32" s="19">
+        <v>25.5</v>
+      </c>
+      <c r="F32" s="8">
         <f>D32-E32</f>
-        <v>44.91</v>
-      </c>
-      <c r="G32" s="23">
-        <v>21</v>
-      </c>
-      <c r="H32" s="19">
+        <v>229.5</v>
+      </c>
+      <c r="G32" s="22">
+        <v>3</v>
+      </c>
+      <c r="H32" s="8">
         <f>D32*G32</f>
-        <v>1047.8999999999999</v>
-      </c>
-      <c r="I32" s="19">
+        <v>765</v>
+      </c>
+      <c r="I32" s="8">
         <f>H32*$L$4</f>
-        <v>104.78999999999999</v>
-      </c>
-      <c r="J32" s="19">
+        <v>76.5</v>
+      </c>
+      <c r="J32" s="8">
         <f>H32-I32</f>
-        <v>943.1099999999999</v>
+        <v>688.5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="B33" s="23">
+        <v>36</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33" s="19">
-        <v>48.9</v>
+        <v>249.9</v>
       </c>
       <c r="E33" s="19">
         <f>D33*$L$4</f>
-        <v>4.8900000000000006</v>
+        <v>24.990000000000002</v>
       </c>
       <c r="F33" s="19">
         <f>D33-E33</f>
-        <v>44.01</v>
+        <v>224.91</v>
       </c>
       <c r="G33" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H33" s="19">
         <f>D33*G33</f>
-        <v>97.8</v>
+        <v>1249.5</v>
       </c>
       <c r="I33" s="19">
         <f>H33*$L$4</f>
-        <v>9.7800000000000011</v>
+        <v>124.95</v>
       </c>
       <c r="J33" s="19">
         <f>H33-I33</f>
-        <v>88.02</v>
+        <v>1124.55</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="22">
+        <v>36</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D34" s="8">
-        <v>46.9</v>
+        <v>199.9</v>
       </c>
       <c r="E34" s="8">
         <f>D34*$L$4</f>
-        <v>4.6900000000000004</v>
+        <v>19.990000000000002</v>
       </c>
       <c r="F34" s="8">
         <f>D34-E34</f>
-        <v>42.21</v>
+        <v>179.91</v>
       </c>
       <c r="G34" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" s="8">
         <f>D34*G34</f>
-        <v>140.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8">
         <f>H34*$L$4</f>
-        <v>14.07</v>
+        <v>0</v>
       </c>
       <c r="J34" s="8">
         <f>H34-I34</f>
-        <v>126.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="19">
-        <v>44.9</v>
-      </c>
-      <c r="E35" s="19">
+      <c r="A35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="22">
+        <v>38</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="8">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E35" s="8">
         <f>D35*$L$4</f>
-        <v>4.49</v>
-      </c>
-      <c r="F35" s="19">
+        <v>25.99</v>
+      </c>
+      <c r="F35" s="8">
         <f>D35-E35</f>
-        <v>40.409999999999997</v>
-      </c>
-      <c r="G35" s="23">
-        <v>5</v>
-      </c>
-      <c r="H35" s="19">
+        <v>233.90999999999997</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <f>D35*G35</f>
-        <v>224.5</v>
-      </c>
-      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
         <f>H35*$L$4</f>
-        <v>22.450000000000003</v>
-      </c>
-      <c r="J35" s="19">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
         <f>H35-I35</f>
-        <v>202.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="8">
-        <v>42.5</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="A36" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="23">
+        <v>37</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="19">
+        <v>249.9</v>
+      </c>
+      <c r="E36" s="19">
         <f>D36*$L$4</f>
-        <v>4.25</v>
-      </c>
-      <c r="F36" s="8">
+        <v>24.990000000000002</v>
+      </c>
+      <c r="F36" s="19">
         <f>D36-E36</f>
-        <v>38.25</v>
-      </c>
-      <c r="G36" s="22">
-        <v>6</v>
-      </c>
-      <c r="H36" s="8">
+        <v>224.91</v>
+      </c>
+      <c r="G36" s="23">
+        <v>1</v>
+      </c>
+      <c r="H36" s="19">
         <f>D36*G36</f>
-        <v>255</v>
-      </c>
-      <c r="I36" s="8">
+        <v>249.9</v>
+      </c>
+      <c r="I36" s="19">
         <f>H36*$L$4</f>
-        <v>25.5</v>
-      </c>
-      <c r="J36" s="8">
+        <v>24.990000000000002</v>
+      </c>
+      <c r="J36" s="19">
         <f>H36-I36</f>
-        <v>229.5</v>
+        <v>224.91</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="8">
-        <v>39.9</v>
+        <v>91.4</v>
       </c>
       <c r="E37" s="8">
         <f>D37*$L$4</f>
-        <v>3.99</v>
+        <v>9.14</v>
       </c>
       <c r="F37" s="8">
         <f>D37-E37</f>
-        <v>35.909999999999997</v>
+        <v>82.26</v>
       </c>
       <c r="G37" s="22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H37" s="8">
         <f>D37*G37</f>
-        <v>478.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="I37" s="8">
         <f>H37*$L$4</f>
-        <v>47.879999999999995</v>
+        <v>0</v>
       </c>
       <c r="J37" s="8">
         <f>H37-I37</f>
-        <v>430.91999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="19">
-        <v>39.9</v>
+        <v>93.5</v>
       </c>
       <c r="E38" s="19">
         <f>D38*$L$4</f>
-        <v>3.99</v>
+        <v>9.35</v>
       </c>
       <c r="F38" s="19">
         <f>D38-E38</f>
-        <v>35.909999999999997</v>
+        <v>84.15</v>
       </c>
       <c r="G38" s="23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H38" s="19">
         <f>D38*G38</f>
-        <v>399</v>
+        <v>187</v>
       </c>
       <c r="I38" s="19">
         <f>H38*$L$4</f>
-        <v>39.900000000000006</v>
+        <v>18.7</v>
       </c>
       <c r="J38" s="19">
         <f>H38-I38</f>
-        <v>359.1</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="7">
+        <v>89.9</v>
+      </c>
+      <c r="E39" s="7">
+        <f>D39*$L$4</f>
+        <v>8.99</v>
+      </c>
+      <c r="F39" s="7">
+        <f>D39-E39</f>
+        <v>80.910000000000011</v>
+      </c>
+      <c r="G39" s="24">
+        <v>3</v>
+      </c>
+      <c r="H39" s="7">
+        <f>D39*G39</f>
+        <v>269.70000000000005</v>
+      </c>
+      <c r="I39" s="7">
+        <f>H39*$L$4</f>
+        <v>26.970000000000006</v>
+      </c>
+      <c r="J39" s="7">
+        <f>H39-I39</f>
+        <v>242.73000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="8">
+        <v>140</v>
+      </c>
+      <c r="E40" s="8">
+        <f>D40*$L$4</f>
         <v>14</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="8">
-        <v>39.9</v>
-      </c>
-      <c r="E39" s="8">
-        <f>D39*$L$4</f>
-        <v>3.99</v>
-      </c>
-      <c r="F39" s="8">
-        <f>D39-E39</f>
-        <v>35.909999999999997</v>
-      </c>
-      <c r="G39" s="22">
-        <v>11</v>
-      </c>
-      <c r="H39" s="8">
-        <f>D39*G39</f>
-        <v>438.9</v>
-      </c>
-      <c r="I39" s="8">
-        <f>H39*$L$4</f>
-        <v>43.89</v>
-      </c>
-      <c r="J39" s="8">
-        <f>H39-I39</f>
-        <v>395.01</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="21" t="s">
+      <c r="F40" s="8">
+        <f>D40-E40</f>
+        <v>126</v>
+      </c>
+      <c r="G40" s="22">
+        <v>2</v>
+      </c>
+      <c r="H40" s="8">
+        <f>D40*G40</f>
+        <v>280</v>
+      </c>
+      <c r="I40" s="8">
+        <f>H40*$L$4</f>
+        <v>28</v>
+      </c>
+      <c r="J40" s="8">
+        <f>H40-I40</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="19">
+        <v>142.9</v>
+      </c>
+      <c r="E41" s="19">
+        <f>D41*$L$4</f>
+        <v>14.290000000000001</v>
+      </c>
+      <c r="F41" s="19">
+        <f>D41-E41</f>
+        <v>128.61000000000001</v>
+      </c>
+      <c r="G41" s="23">
+        <v>2</v>
+      </c>
+      <c r="H41" s="19">
+        <f>D41*G41</f>
+        <v>285.8</v>
+      </c>
+      <c r="I41" s="19">
+        <f>H41*$L$4</f>
+        <v>28.580000000000002</v>
+      </c>
+      <c r="J41" s="19">
+        <f>H41-I41</f>
+        <v>257.22000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="19">
-        <v>32.9</v>
-      </c>
-      <c r="E40" s="19">
-        <f>D40*$L$4</f>
-        <v>3.29</v>
-      </c>
-      <c r="F40" s="19">
-        <f>D40-E40</f>
-        <v>29.61</v>
-      </c>
-      <c r="G40" s="23">
-        <v>6</v>
-      </c>
-      <c r="H40" s="19">
-        <f>D40*G40</f>
-        <v>197.39999999999998</v>
-      </c>
-      <c r="I40" s="19">
-        <f>H40*$L$4</f>
-        <v>19.739999999999998</v>
-      </c>
-      <c r="J40" s="19">
-        <f>H40-I40</f>
-        <v>177.65999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="8">
-        <v>29.9</v>
-      </c>
-      <c r="E41" s="8">
-        <f>D41*$L$4</f>
-        <v>2.99</v>
-      </c>
-      <c r="F41" s="8">
-        <f>D41-E41</f>
-        <v>26.909999999999997</v>
-      </c>
-      <c r="G41" s="22">
-        <v>10</v>
-      </c>
-      <c r="H41" s="8">
-        <f>D41*G41</f>
-        <v>299</v>
-      </c>
-      <c r="I41" s="8">
-        <f>H41*$L$4</f>
-        <v>29.900000000000002</v>
-      </c>
-      <c r="J41" s="8">
-        <f>H41-I41</f>
-        <v>269.10000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="7">
-        <v>25.9</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D42" s="8">
+        <v>146</v>
+      </c>
+      <c r="E42" s="8">
         <f>D42*$L$4</f>
-        <v>2.59</v>
-      </c>
-      <c r="F42" s="7">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="F42" s="8">
         <f>D42-E42</f>
-        <v>23.31</v>
-      </c>
-      <c r="G42" s="24">
-        <v>12</v>
-      </c>
-      <c r="H42" s="7">
+        <v>131.4</v>
+      </c>
+      <c r="G42" s="22">
+        <v>2</v>
+      </c>
+      <c r="H42" s="8">
         <f>D42*G42</f>
-        <v>310.79999999999995</v>
-      </c>
-      <c r="I42" s="7">
+        <v>292</v>
+      </c>
+      <c r="I42" s="8">
         <f>H42*$L$4</f>
-        <v>31.08</v>
-      </c>
-      <c r="J42" s="7">
+        <v>29.200000000000003</v>
+      </c>
+      <c r="J42" s="8">
         <f>H42-I42</f>
-        <v>279.71999999999997</v>
+        <v>262.8</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4519,22 +5662,22 @@
       <c r="J43" s="56"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="12">
         <f>SUM(D4:D42)</f>
-        <v>5962.2999999999938</v>
+        <v>5962.2999999999984</v>
       </c>
       <c r="E44" s="12">
         <f>SUM(E4:E42)</f>
-        <v>596.23000000000036</v>
+        <v>596.23</v>
       </c>
       <c r="F44" s="12">
         <f>D44-E44</f>
-        <v>5366.0699999999933</v>
+        <v>5366.0699999999979</v>
       </c>
       <c r="G44" s="25">
         <f>SUM(G4:G42)</f>
@@ -4555,7 +5698,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
-    <sortCondition descending="1" ref="D3:D42"/>
+    <sortCondition ref="A3:A42"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
@@ -4567,6 +5710,7 @@
   <ignoredErrors>
     <ignoredError sqref="F44" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4575,7 +5719,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:J42"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4595,18 +5739,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -4669,26 +5813,26 @@
         <v>25.9</v>
       </c>
       <c r="E4" s="7">
-        <f>D4*$L$4</f>
+        <f t="shared" ref="E4:E42" si="0">D4*$L$4</f>
         <v>2.59</v>
       </c>
       <c r="F4" s="7">
-        <f>D4-E4</f>
+        <f t="shared" ref="F4:F42" si="1">D4-E4</f>
         <v>23.31</v>
       </c>
       <c r="G4" s="24">
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <f>D4*G4</f>
+        <f t="shared" ref="H4:H42" si="2">D4*G4</f>
         <v>310.79999999999995</v>
       </c>
       <c r="I4" s="7">
-        <f>H4*$L$4</f>
+        <f t="shared" ref="I4:I42" si="3">H4*$L$4</f>
         <v>31.08</v>
       </c>
       <c r="J4" s="29">
-        <f>H4-I4</f>
+        <f t="shared" ref="J4:J42" si="4">H4-I4</f>
         <v>279.71999999999997</v>
       </c>
       <c r="L4" s="15">
@@ -4709,26 +5853,26 @@
         <v>29.9</v>
       </c>
       <c r="E5" s="8">
-        <f>D5*$L$4</f>
+        <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
       <c r="F5" s="8">
-        <f>D5-E5</f>
+        <f t="shared" si="1"/>
         <v>26.909999999999997</v>
       </c>
       <c r="G5" s="22">
         <v>10</v>
       </c>
       <c r="H5" s="8">
-        <f>D5*G5</f>
+        <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="I5" s="8">
-        <f>H5*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29.900000000000002</v>
       </c>
       <c r="J5" s="30">
-        <f>H5-I5</f>
+        <f t="shared" si="4"/>
         <v>269.10000000000002</v>
       </c>
     </row>
@@ -4746,26 +5890,26 @@
         <v>32.9</v>
       </c>
       <c r="E6" s="19">
-        <f>D6*$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.29</v>
       </c>
       <c r="F6" s="19">
-        <f>D6-E6</f>
+        <f t="shared" si="1"/>
         <v>29.61</v>
       </c>
       <c r="G6" s="23">
         <v>6</v>
       </c>
       <c r="H6" s="19">
-        <f>D6*G6</f>
+        <f t="shared" si="2"/>
         <v>197.39999999999998</v>
       </c>
       <c r="I6" s="19">
-        <f>H6*$L$4</f>
+        <f t="shared" si="3"/>
         <v>19.739999999999998</v>
       </c>
       <c r="J6" s="31">
-        <f>H6-I6</f>
+        <f t="shared" si="4"/>
         <v>177.65999999999997</v>
       </c>
     </row>
@@ -4783,26 +5927,26 @@
         <v>39.9</v>
       </c>
       <c r="E7" s="8">
-        <f>D7*$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="F7" s="8">
-        <f>D7-E7</f>
+        <f t="shared" si="1"/>
         <v>35.909999999999997</v>
       </c>
       <c r="G7" s="22">
         <v>12</v>
       </c>
       <c r="H7" s="8">
-        <f>D7*G7</f>
+        <f t="shared" si="2"/>
         <v>478.79999999999995</v>
       </c>
       <c r="I7" s="8">
-        <f>H7*$L$4</f>
+        <f t="shared" si="3"/>
         <v>47.879999999999995</v>
       </c>
       <c r="J7" s="30">
-        <f>H7-I7</f>
+        <f t="shared" si="4"/>
         <v>430.91999999999996</v>
       </c>
     </row>
@@ -4820,26 +5964,26 @@
         <v>39.9</v>
       </c>
       <c r="E8" s="19">
-        <f>D8*$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="F8" s="19">
-        <f>D8-E8</f>
+        <f t="shared" si="1"/>
         <v>35.909999999999997</v>
       </c>
       <c r="G8" s="23">
         <v>10</v>
       </c>
       <c r="H8" s="19">
-        <f>D8*G8</f>
+        <f t="shared" si="2"/>
         <v>399</v>
       </c>
       <c r="I8" s="19">
-        <f>H8*$L$4</f>
+        <f t="shared" si="3"/>
         <v>39.900000000000006</v>
       </c>
       <c r="J8" s="31">
-        <f>H8-I8</f>
+        <f t="shared" si="4"/>
         <v>359.1</v>
       </c>
     </row>
@@ -4857,26 +6001,26 @@
         <v>39.9</v>
       </c>
       <c r="E9" s="8">
-        <f>D9*$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="F9" s="8">
-        <f>D9-E9</f>
+        <f t="shared" si="1"/>
         <v>35.909999999999997</v>
       </c>
       <c r="G9" s="22">
         <v>11</v>
       </c>
       <c r="H9" s="8">
-        <f>D9*G9</f>
+        <f t="shared" si="2"/>
         <v>438.9</v>
       </c>
       <c r="I9" s="8">
-        <f>H9*$L$4</f>
+        <f t="shared" si="3"/>
         <v>43.89</v>
       </c>
       <c r="J9" s="30">
-        <f>H9-I9</f>
+        <f t="shared" si="4"/>
         <v>395.01</v>
       </c>
     </row>
@@ -4894,26 +6038,26 @@
         <v>42.5</v>
       </c>
       <c r="E10" s="8">
-        <f>D10*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
       <c r="F10" s="8">
-        <f>D10-E10</f>
+        <f t="shared" si="1"/>
         <v>38.25</v>
       </c>
       <c r="G10" s="22">
         <v>6</v>
       </c>
       <c r="H10" s="8">
-        <f>D10*G10</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="I10" s="8">
-        <f>H10*$L$4</f>
+        <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
       <c r="J10" s="30">
-        <f>H10-I10</f>
+        <f t="shared" si="4"/>
         <v>229.5</v>
       </c>
     </row>
@@ -4931,26 +6075,26 @@
         <v>44.9</v>
       </c>
       <c r="E11" s="19">
-        <f>D11*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.49</v>
       </c>
       <c r="F11" s="19">
-        <f>D11-E11</f>
+        <f t="shared" si="1"/>
         <v>40.409999999999997</v>
       </c>
       <c r="G11" s="23">
         <v>5</v>
       </c>
       <c r="H11" s="19">
-        <f>D11*G11</f>
+        <f t="shared" si="2"/>
         <v>224.5</v>
       </c>
       <c r="I11" s="19">
-        <f>H11*$L$4</f>
+        <f t="shared" si="3"/>
         <v>22.450000000000003</v>
       </c>
       <c r="J11" s="31">
-        <f>H11-I11</f>
+        <f t="shared" si="4"/>
         <v>202.05</v>
       </c>
     </row>
@@ -4968,26 +6112,26 @@
         <v>46.9</v>
       </c>
       <c r="E12" s="8">
-        <f>D12*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="F12" s="8">
-        <f>D12-E12</f>
+        <f t="shared" si="1"/>
         <v>42.21</v>
       </c>
       <c r="G12" s="22">
         <v>3</v>
       </c>
       <c r="H12" s="8">
-        <f>D12*G12</f>
+        <f t="shared" si="2"/>
         <v>140.69999999999999</v>
       </c>
       <c r="I12" s="8">
-        <f>H12*$L$4</f>
+        <f t="shared" si="3"/>
         <v>14.07</v>
       </c>
       <c r="J12" s="30">
-        <f>H12-I12</f>
+        <f t="shared" si="4"/>
         <v>126.63</v>
       </c>
     </row>
@@ -5005,26 +6149,26 @@
         <v>48.9</v>
       </c>
       <c r="E13" s="19">
-        <f>D13*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.8900000000000006</v>
       </c>
       <c r="F13" s="19">
-        <f>D13-E13</f>
+        <f t="shared" si="1"/>
         <v>44.01</v>
       </c>
       <c r="G13" s="23">
         <v>2</v>
       </c>
       <c r="H13" s="19">
-        <f>D13*G13</f>
+        <f t="shared" si="2"/>
         <v>97.8</v>
       </c>
       <c r="I13" s="19">
-        <f>H13*$L$4</f>
+        <f t="shared" si="3"/>
         <v>9.7800000000000011</v>
       </c>
       <c r="J13" s="31">
-        <f>H13-I13</f>
+        <f t="shared" si="4"/>
         <v>88.02</v>
       </c>
     </row>
@@ -5042,26 +6186,26 @@
         <v>49.9</v>
       </c>
       <c r="E14" s="19">
-        <f>D14*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.99</v>
       </c>
       <c r="F14" s="19">
-        <f>D14-E14</f>
+        <f t="shared" si="1"/>
         <v>44.91</v>
       </c>
       <c r="G14" s="23">
         <v>21</v>
       </c>
       <c r="H14" s="19">
-        <f>D14*G14</f>
+        <f t="shared" si="2"/>
         <v>1047.8999999999999</v>
       </c>
       <c r="I14" s="19">
-        <f>H14*$L$4</f>
+        <f t="shared" si="3"/>
         <v>104.78999999999999</v>
       </c>
       <c r="J14" s="31">
-        <f>H14-I14</f>
+        <f t="shared" si="4"/>
         <v>943.1099999999999</v>
       </c>
     </row>
@@ -5079,26 +6223,26 @@
         <v>65.900000000000006</v>
       </c>
       <c r="E15" s="8">
-        <f>D15*$L$4</f>
+        <f t="shared" si="0"/>
         <v>6.5900000000000007</v>
       </c>
       <c r="F15" s="8">
-        <f>D15-E15</f>
+        <f t="shared" si="1"/>
         <v>59.31</v>
       </c>
       <c r="G15" s="22">
         <v>12</v>
       </c>
       <c r="H15" s="8">
-        <f>D15*G15</f>
+        <f t="shared" si="2"/>
         <v>790.80000000000007</v>
       </c>
       <c r="I15" s="8">
-        <f>H15*$L$4</f>
+        <f t="shared" si="3"/>
         <v>79.080000000000013</v>
       </c>
       <c r="J15" s="30">
-        <f>H15-I15</f>
+        <f t="shared" si="4"/>
         <v>711.72</v>
       </c>
     </row>
@@ -5116,26 +6260,26 @@
         <v>69.900000000000006</v>
       </c>
       <c r="E16" s="19">
-        <f>D16*$L$4</f>
+        <f t="shared" si="0"/>
         <v>6.9900000000000011</v>
       </c>
       <c r="F16" s="19">
-        <f>D16-E16</f>
+        <f t="shared" si="1"/>
         <v>62.910000000000004</v>
       </c>
       <c r="G16" s="23">
         <v>15</v>
       </c>
       <c r="H16" s="19">
-        <f>D16*G16</f>
+        <f t="shared" si="2"/>
         <v>1048.5</v>
       </c>
       <c r="I16" s="19">
-        <f>H16*$L$4</f>
+        <f t="shared" si="3"/>
         <v>104.85000000000001</v>
       </c>
       <c r="J16" s="31">
-        <f>H16-I16</f>
+        <f t="shared" si="4"/>
         <v>943.65</v>
       </c>
     </row>
@@ -5153,26 +6297,26 @@
         <v>70.900000000000006</v>
       </c>
       <c r="E17" s="8">
-        <f>D17*$L$4</f>
+        <f t="shared" si="0"/>
         <v>7.0900000000000007</v>
       </c>
       <c r="F17" s="8">
-        <f>D17-E17</f>
+        <f t="shared" si="1"/>
         <v>63.81</v>
       </c>
       <c r="G17" s="22">
         <v>13</v>
       </c>
       <c r="H17" s="8">
-        <f>D17*G17</f>
+        <f t="shared" si="2"/>
         <v>921.7</v>
       </c>
       <c r="I17" s="8">
-        <f>H17*$L$4</f>
+        <f t="shared" si="3"/>
         <v>92.170000000000016</v>
       </c>
       <c r="J17" s="30">
-        <f>H17-I17</f>
+        <f t="shared" si="4"/>
         <v>829.53</v>
       </c>
     </row>
@@ -5190,26 +6334,26 @@
         <v>85.9</v>
       </c>
       <c r="E18" s="19">
-        <f>D18*$L$4</f>
+        <f t="shared" si="0"/>
         <v>8.5900000000000016</v>
       </c>
       <c r="F18" s="19">
-        <f>D18-E18</f>
+        <f t="shared" si="1"/>
         <v>77.31</v>
       </c>
       <c r="G18" s="23">
         <v>8</v>
       </c>
       <c r="H18" s="19">
-        <f>D18*G18</f>
+        <f t="shared" si="2"/>
         <v>687.2</v>
       </c>
       <c r="I18" s="19">
-        <f>H18*$L$4</f>
+        <f t="shared" si="3"/>
         <v>68.720000000000013</v>
       </c>
       <c r="J18" s="31">
-        <f>H18-I18</f>
+        <f t="shared" si="4"/>
         <v>618.48</v>
       </c>
     </row>
@@ -5227,26 +6371,26 @@
         <v>89.9</v>
       </c>
       <c r="E19" s="8">
-        <f>D19*$L$4</f>
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="F19" s="8">
-        <f>D19-E19</f>
+        <f t="shared" si="1"/>
         <v>80.910000000000011</v>
       </c>
       <c r="G19" s="22">
         <v>5</v>
       </c>
       <c r="H19" s="8">
-        <f>D19*G19</f>
+        <f t="shared" si="2"/>
         <v>449.5</v>
       </c>
       <c r="I19" s="8">
-        <f>H19*$L$4</f>
+        <f t="shared" si="3"/>
         <v>44.95</v>
       </c>
       <c r="J19" s="30">
-        <f>H19-I19</f>
+        <f t="shared" si="4"/>
         <v>404.55</v>
       </c>
     </row>
@@ -5264,26 +6408,26 @@
         <v>89.9</v>
       </c>
       <c r="E20" s="7">
-        <f>D20*$L$4</f>
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="F20" s="7">
-        <f>D20-E20</f>
+        <f t="shared" si="1"/>
         <v>80.910000000000011</v>
       </c>
       <c r="G20" s="24">
         <v>3</v>
       </c>
       <c r="H20" s="7">
-        <f>D20*G20</f>
+        <f t="shared" si="2"/>
         <v>269.70000000000005</v>
       </c>
       <c r="I20" s="7">
-        <f>H20*$L$4</f>
+        <f t="shared" si="3"/>
         <v>26.970000000000006</v>
       </c>
       <c r="J20" s="29">
-        <f>H20-I20</f>
+        <f t="shared" si="4"/>
         <v>242.73000000000005</v>
       </c>
     </row>
@@ -5301,26 +6445,26 @@
         <v>91.4</v>
       </c>
       <c r="E21" s="8">
-        <f>D21*$L$4</f>
+        <f t="shared" si="0"/>
         <v>9.14</v>
       </c>
       <c r="F21" s="8">
-        <f>D21-E21</f>
+        <f t="shared" si="1"/>
         <v>82.26</v>
       </c>
       <c r="G21" s="22">
         <v>0</v>
       </c>
       <c r="H21" s="8">
-        <f>D21*G21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <f>H21*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J21" s="30">
-        <f>H21-I21</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5338,26 +6482,26 @@
         <v>92.9</v>
       </c>
       <c r="E22" s="19">
-        <f>D22*$L$4</f>
+        <f t="shared" si="0"/>
         <v>9.2900000000000009</v>
       </c>
       <c r="F22" s="19">
-        <f>D22-E22</f>
+        <f t="shared" si="1"/>
         <v>83.61</v>
       </c>
       <c r="G22" s="23">
         <v>6</v>
       </c>
       <c r="H22" s="19">
-        <f>D22*G22</f>
+        <f t="shared" si="2"/>
         <v>557.40000000000009</v>
       </c>
       <c r="I22" s="19">
-        <f>H22*$L$4</f>
+        <f t="shared" si="3"/>
         <v>55.740000000000009</v>
       </c>
       <c r="J22" s="31">
-        <f>H22-I22</f>
+        <f t="shared" si="4"/>
         <v>501.66000000000008</v>
       </c>
     </row>
@@ -5375,26 +6519,26 @@
         <v>93.5</v>
       </c>
       <c r="E23" s="19">
-        <f>D23*$L$4</f>
+        <f t="shared" si="0"/>
         <v>9.35</v>
       </c>
       <c r="F23" s="19">
-        <f>D23-E23</f>
+        <f t="shared" si="1"/>
         <v>84.15</v>
       </c>
       <c r="G23" s="23">
         <v>2</v>
       </c>
       <c r="H23" s="19">
-        <f>D23*G23</f>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="I23" s="19">
-        <f>H23*$L$4</f>
+        <f t="shared" si="3"/>
         <v>18.7</v>
       </c>
       <c r="J23" s="31">
-        <f>H23-I23</f>
+        <f t="shared" si="4"/>
         <v>168.3</v>
       </c>
     </row>
@@ -5412,26 +6556,26 @@
         <v>140</v>
       </c>
       <c r="E24" s="8">
-        <f>D24*$L$4</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F24" s="8">
-        <f>D24-E24</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="G24" s="22">
         <v>2</v>
       </c>
       <c r="H24" s="8">
-        <f>D24*G24</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="I24" s="8">
-        <f>H24*$L$4</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="J24" s="30">
-        <f>H24-I24</f>
+        <f t="shared" si="4"/>
         <v>252</v>
       </c>
     </row>
@@ -5449,26 +6593,26 @@
         <v>142.9</v>
       </c>
       <c r="E25" s="19">
-        <f>D25*$L$4</f>
+        <f t="shared" si="0"/>
         <v>14.290000000000001</v>
       </c>
       <c r="F25" s="19">
-        <f>D25-E25</f>
+        <f t="shared" si="1"/>
         <v>128.61000000000001</v>
       </c>
       <c r="G25" s="23">
         <v>2</v>
       </c>
       <c r="H25" s="19">
-        <f>D25*G25</f>
+        <f t="shared" si="2"/>
         <v>285.8</v>
       </c>
       <c r="I25" s="19">
-        <f>H25*$L$4</f>
+        <f t="shared" si="3"/>
         <v>28.580000000000002</v>
       </c>
       <c r="J25" s="31">
-        <f>H25-I25</f>
+        <f t="shared" si="4"/>
         <v>257.22000000000003</v>
       </c>
     </row>
@@ -5486,26 +6630,26 @@
         <v>145</v>
       </c>
       <c r="E26" s="19">
-        <f>D26*$L$4</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="F26" s="19">
-        <f>D26-E26</f>
+        <f t="shared" si="1"/>
         <v>130.5</v>
       </c>
       <c r="G26" s="23">
         <v>2</v>
       </c>
       <c r="H26" s="19">
-        <f>D26*G26</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="I26" s="19">
-        <f>H26*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="J26" s="31">
-        <f>H26-I26</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
     </row>
@@ -5523,26 +6667,26 @@
         <v>146</v>
       </c>
       <c r="E27" s="8">
-        <f>D27*$L$4</f>
+        <f t="shared" si="0"/>
         <v>14.600000000000001</v>
       </c>
       <c r="F27" s="8">
-        <f>D27-E27</f>
+        <f t="shared" si="1"/>
         <v>131.4</v>
       </c>
       <c r="G27" s="22">
         <v>2</v>
       </c>
       <c r="H27" s="8">
-        <f>D27*G27</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="I27" s="8">
-        <f>H27*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29.200000000000003</v>
       </c>
       <c r="J27" s="30">
-        <f>H27-I27</f>
+        <f t="shared" si="4"/>
         <v>262.8</v>
       </c>
     </row>
@@ -5560,26 +6704,26 @@
         <v>199.9</v>
       </c>
       <c r="E28" s="8">
-        <f>D28*$L$4</f>
+        <f t="shared" si="0"/>
         <v>19.990000000000002</v>
       </c>
       <c r="F28" s="8">
-        <f>D28-E28</f>
+        <f t="shared" si="1"/>
         <v>179.91</v>
       </c>
       <c r="G28" s="22">
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <f>D28*G28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <f>H28*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J28" s="30">
-        <f>H28-I28</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5597,26 +6741,26 @@
         <v>249.9</v>
       </c>
       <c r="E29" s="19">
-        <f>D29*$L$4</f>
+        <f t="shared" si="0"/>
         <v>24.990000000000002</v>
       </c>
       <c r="F29" s="19">
-        <f>D29-E29</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
       <c r="G29" s="23">
         <v>1</v>
       </c>
       <c r="H29" s="19">
-        <f>D29*G29</f>
+        <f t="shared" si="2"/>
         <v>249.9</v>
       </c>
       <c r="I29" s="19">
-        <f>H29*$L$4</f>
+        <f t="shared" si="3"/>
         <v>24.990000000000002</v>
       </c>
       <c r="J29" s="31">
-        <f>H29-I29</f>
+        <f t="shared" si="4"/>
         <v>224.91</v>
       </c>
     </row>
@@ -5634,26 +6778,26 @@
         <v>249.9</v>
       </c>
       <c r="E30" s="19">
-        <f>D30*$L$4</f>
+        <f t="shared" si="0"/>
         <v>24.990000000000002</v>
       </c>
       <c r="F30" s="19">
-        <f>D30-E30</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
       <c r="G30" s="23">
         <v>1</v>
       </c>
       <c r="H30" s="19">
-        <f>D30*G30</f>
+        <f t="shared" si="2"/>
         <v>249.9</v>
       </c>
       <c r="I30" s="19">
-        <f>H30*$L$4</f>
+        <f t="shared" si="3"/>
         <v>24.990000000000002</v>
       </c>
       <c r="J30" s="31">
-        <f>H30-I30</f>
+        <f t="shared" si="4"/>
         <v>224.91</v>
       </c>
     </row>
@@ -5671,26 +6815,26 @@
         <v>249.9</v>
       </c>
       <c r="E31" s="19">
-        <f>D31*$L$4</f>
+        <f t="shared" si="0"/>
         <v>24.990000000000002</v>
       </c>
       <c r="F31" s="19">
-        <f>D31-E31</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
       <c r="G31" s="23">
         <v>5</v>
       </c>
       <c r="H31" s="19">
-        <f>D31*G31</f>
+        <f t="shared" si="2"/>
         <v>1249.5</v>
       </c>
       <c r="I31" s="19">
-        <f>H31*$L$4</f>
+        <f t="shared" si="3"/>
         <v>124.95</v>
       </c>
       <c r="J31" s="31">
-        <f>H31-I31</f>
+        <f t="shared" si="4"/>
         <v>1124.55</v>
       </c>
     </row>
@@ -5708,26 +6852,26 @@
         <v>255</v>
       </c>
       <c r="E32" s="8">
-        <f>D32*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
       <c r="F32" s="8">
-        <f>D32-E32</f>
+        <f t="shared" si="1"/>
         <v>229.5</v>
       </c>
       <c r="G32" s="22">
         <v>3</v>
       </c>
       <c r="H32" s="8">
-        <f>D32*G32</f>
+        <f t="shared" si="2"/>
         <v>765</v>
       </c>
       <c r="I32" s="8">
-        <f>H32*$L$4</f>
+        <f t="shared" si="3"/>
         <v>76.5</v>
       </c>
       <c r="J32" s="30">
-        <f>H32-I32</f>
+        <f t="shared" si="4"/>
         <v>688.5</v>
       </c>
     </row>
@@ -5745,26 +6889,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E33" s="8">
-        <f>D33*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F33" s="8">
-        <f>D33-E33</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G33" s="22">
         <v>2</v>
       </c>
       <c r="H33" s="8">
-        <f>D33*G33</f>
+        <f t="shared" si="2"/>
         <v>519.79999999999995</v>
       </c>
       <c r="I33" s="8">
-        <f>H33*$L$4</f>
+        <f t="shared" si="3"/>
         <v>51.98</v>
       </c>
       <c r="J33" s="30">
-        <f>H33-I33</f>
+        <f t="shared" si="4"/>
         <v>467.81999999999994</v>
       </c>
     </row>
@@ -5782,26 +6926,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E34" s="8">
-        <f>D34*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F34" s="8">
-        <f>D34-E34</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G34" s="22">
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <f>D34*G34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="8">
-        <f>H34*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J34" s="30">
-        <f>H34-I34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5819,26 +6963,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E35" s="19">
-        <f>D35*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F35" s="19">
-        <f>D35-E35</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G35" s="23">
         <v>1</v>
       </c>
       <c r="H35" s="19">
-        <f>D35*G35</f>
+        <f t="shared" si="2"/>
         <v>259.89999999999998</v>
       </c>
       <c r="I35" s="19">
-        <f>H35*$L$4</f>
+        <f t="shared" si="3"/>
         <v>25.99</v>
       </c>
       <c r="J35" s="31">
-        <f>H35-I35</f>
+        <f t="shared" si="4"/>
         <v>233.90999999999997</v>
       </c>
     </row>
@@ -5856,26 +7000,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E36" s="8">
-        <f>D36*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F36" s="8">
-        <f>D36-E36</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G36" s="22">
         <v>1</v>
       </c>
       <c r="H36" s="8">
-        <f>D36*G36</f>
+        <f t="shared" si="2"/>
         <v>259.89999999999998</v>
       </c>
       <c r="I36" s="8">
-        <f>H36*$L$4</f>
+        <f t="shared" si="3"/>
         <v>25.99</v>
       </c>
       <c r="J36" s="30">
-        <f>H36-I36</f>
+        <f t="shared" si="4"/>
         <v>233.90999999999997</v>
       </c>
     </row>
@@ -5893,26 +7037,26 @@
         <v>299.89999999999998</v>
       </c>
       <c r="E37" s="19">
-        <f>D37*$L$4</f>
+        <f t="shared" si="0"/>
         <v>29.99</v>
       </c>
       <c r="F37" s="19">
-        <f>D37-E37</f>
+        <f t="shared" si="1"/>
         <v>269.90999999999997</v>
       </c>
       <c r="G37" s="23">
         <v>1</v>
       </c>
       <c r="H37" s="19">
-        <f>D37*G37</f>
+        <f t="shared" si="2"/>
         <v>299.89999999999998</v>
       </c>
       <c r="I37" s="19">
-        <f>H37*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29.99</v>
       </c>
       <c r="J37" s="31">
-        <f>H37-I37</f>
+        <f t="shared" si="4"/>
         <v>269.90999999999997</v>
       </c>
     </row>
@@ -5930,26 +7074,26 @@
         <v>299.89999999999998</v>
       </c>
       <c r="E38" s="8">
-        <f>D38*$L$4</f>
+        <f t="shared" si="0"/>
         <v>29.99</v>
       </c>
       <c r="F38" s="8">
-        <f>D38-E38</f>
+        <f t="shared" si="1"/>
         <v>269.90999999999997</v>
       </c>
       <c r="G38" s="22">
         <v>1</v>
       </c>
       <c r="H38" s="8">
-        <f>D38*G38</f>
+        <f t="shared" si="2"/>
         <v>299.89999999999998</v>
       </c>
       <c r="I38" s="8">
-        <f>H38*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29.99</v>
       </c>
       <c r="J38" s="30">
-        <f>H38-I38</f>
+        <f t="shared" si="4"/>
         <v>269.90999999999997</v>
       </c>
     </row>
@@ -5967,26 +7111,26 @@
         <v>300</v>
       </c>
       <c r="E39" s="8">
-        <f>D39*$L$4</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F39" s="8">
-        <f>D39-E39</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="G39" s="22">
         <v>1</v>
       </c>
       <c r="H39" s="8">
-        <f>D39*G39</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="I39" s="8">
-        <f>H39*$L$4</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J39" s="30">
-        <f>H39-I39</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -6004,26 +7148,26 @@
         <v>302.89999999999998</v>
       </c>
       <c r="E40" s="19">
-        <f>D40*$L$4</f>
+        <f t="shared" si="0"/>
         <v>30.29</v>
       </c>
       <c r="F40" s="19">
-        <f>D40-E40</f>
+        <f t="shared" si="1"/>
         <v>272.60999999999996</v>
       </c>
       <c r="G40" s="23">
         <v>2</v>
       </c>
       <c r="H40" s="19">
-        <f>D40*G40</f>
+        <f t="shared" si="2"/>
         <v>605.79999999999995</v>
       </c>
       <c r="I40" s="19">
-        <f>H40*$L$4</f>
+        <f t="shared" si="3"/>
         <v>60.58</v>
       </c>
       <c r="J40" s="31">
-        <f>H40-I40</f>
+        <f t="shared" si="4"/>
         <v>545.21999999999991</v>
       </c>
     </row>
@@ -6041,26 +7185,26 @@
         <v>349.9</v>
       </c>
       <c r="E41" s="8">
-        <f>D41*$L$4</f>
+        <f t="shared" si="0"/>
         <v>34.99</v>
       </c>
       <c r="F41" s="8">
-        <f>D41-E41</f>
+        <f t="shared" si="1"/>
         <v>314.90999999999997</v>
       </c>
       <c r="G41" s="22">
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <f>D41*G41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f>H41*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J41" s="30">
-        <f>H41-I41</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6078,26 +7222,26 @@
         <v>399.9</v>
       </c>
       <c r="E42" s="38">
-        <f>D42*$L$4</f>
+        <f t="shared" si="0"/>
         <v>39.99</v>
       </c>
       <c r="F42" s="38">
-        <f>D42-E42</f>
+        <f t="shared" si="1"/>
         <v>359.90999999999997</v>
       </c>
       <c r="G42" s="39">
         <v>3</v>
       </c>
       <c r="H42" s="38">
-        <f>D42*G42</f>
+        <f t="shared" si="2"/>
         <v>1199.6999999999998</v>
       </c>
       <c r="I42" s="38">
-        <f>H42*$L$4</f>
+        <f t="shared" si="3"/>
         <v>119.96999999999998</v>
       </c>
       <c r="J42" s="40">
-        <f>H42-I42</f>
+        <f t="shared" si="4"/>
         <v>1079.7299999999998</v>
       </c>
     </row>
@@ -6170,28 +7314,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B5CB8-B42A-44A6-B259-B172A130A0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443067D3-5BA0-4E3D-844B-FBC11839A9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
@@ -1107,566 +1107,6 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Produto p/ Quantidade</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Produtos!$G$1:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Meteora</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Qtd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Produtos!$A$4:$A$44</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v> Bermuda </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> Bermuda </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v> Bermuda </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> Bolsa coringa </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> Bolsa de couro </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> Boné </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> Calça jeans </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> Calça jeans </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> Calça jeans </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> Calça legging </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> Calça legging </c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> Calça legging </c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> Camiseta Estampada </c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> Camiseta Estampada </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> Camiseta Estampada </c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v> Camiseta Lisa </c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v> Camiseta Lisa  </c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v> Camiseta Lisa  </c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v> Cinto </c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v> Jaqueta couro </c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v> Jaqueta couro </c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v> Jaqueta couro </c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v> Jaqueta jeans </c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v> Jaqueta jeans </c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v> Jaqueta jeans </c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v> Óculos quadrado </c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v> Óculos redondo </c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v> Tênis Atitas </c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v> Tênis Atitas </c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v> Tênis Atitas </c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v> Tênis Nika </c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v> Tênis Nika </c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v> Tênis Nika </c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v> Vestido curto </c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v> Vestido curto </c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v> Vestido curto </c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v> Vestido longo </c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v> Vestido longo </c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v> Vestido longo </c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Totais</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Produtos!$G$4:$G$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-750E-4FEB-8A27-61EBE60352E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="354730304"/>
-        <c:axId val="354731744"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="354730304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="354731744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="354731744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="354730304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
@@ -2205,554 +1645,12 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3256,47 +2154,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>77857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>480389</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9783312B-DF01-87EE-B28E-FE5AACD53952}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -4123,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" activeCellId="1" sqref="A3:A42 G3:G42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5710,7 +4567,6 @@
   <ignoredErrors>
     <ignoredError sqref="F44" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443067D3-5BA0-4E3D-844B-FBC11839A9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CBD7F-9A7D-4BFB-86A6-9E94A283B875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="52">
   <si>
     <t>Produtos</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Bolsa coringa</t>
+  </si>
+  <si>
+    <t>Desconto 10%</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,101 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2621,30 +2718,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="Tabela6" displayName="Tabela6" ref="A3:J43" totalsRowCount="1" headerRowDxfId="40" totalsRowDxfId="37" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="Tabela6" displayName="Tabela6" ref="A3:J43" totalsRowCount="1" headerRowDxfId="51" totalsRowDxfId="48" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="47">
   <autoFilter ref="A3:J42" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
     <sortCondition ref="D3:D42"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5ADC0821-BE78-4155-839C-96C06CE380CE}" name="Produtos" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{43384F10-6B22-4897-976F-3F386E831F5F}" name="Tamanho" totalsRowDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{ABAC2F85-979D-4665-A1E9-B6C6D01BD2E3}" name="Categoria" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{5A199DB8-DEAF-428B-B0A9-0A4B4BBB79F2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{A2AEBE90-6B04-4052-9CCA-CE496F29DD9E}" name="Valor do Descoto" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="1" xr3:uid="{5ADC0821-BE78-4155-839C-96C06CE380CE}" name="Produtos" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{43384F10-6B22-4897-976F-3F386E831F5F}" name="Tamanho" totalsRowDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{ABAC2F85-979D-4665-A1E9-B6C6D01BD2E3}" name="Categoria" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{5A199DB8-DEAF-428B-B0A9-0A4B4BBB79F2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{A2AEBE90-6B04-4052-9CCA-CE496F29DD9E}" name="Valor do Descoto" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>D4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>D4-E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>D4*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>H4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>H4-I4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2653,27 +2750,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="A3:J23" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F846016E-C621-48F6-A4F2-8B9036CF79B0}" name="Produtos" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="26" totalsRowDxfId="25"/>
     <tableColumn id="3" xr3:uid="{EB51C660-9F00-4E83-BB4A-3464A549E0C4}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]-Tabela2[[#This Row],[Desconto 10% na uni]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]-Tabela2[[#This Row],[Desconto 10% no total]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2980,8 +3077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,7 +3094,7 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -3057,7 +3155,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,266 +3200,266 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8">
-        <v>70.900000000000006</v>
+        <v>39.9</v>
       </c>
       <c r="E5" s="8">
         <f>D5*$L$4</f>
-        <v>7.0900000000000007</v>
+        <v>3.99</v>
       </c>
       <c r="F5" s="8">
         <f>D5-E5</f>
-        <v>63.81</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="G5" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8">
         <f>D5*G5</f>
-        <v>921.7</v>
+        <v>478.79999999999995</v>
       </c>
       <c r="I5" s="8">
         <f>H5*$L$4</f>
-        <v>92.170000000000016</v>
+        <v>47.879999999999995</v>
       </c>
       <c r="J5" s="8">
         <f>H5-I5</f>
-        <v>829.53</v>
+        <v>430.91999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="19">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="D6" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="E6" s="7">
         <f>D6*$L$4</f>
-        <v>6.9900000000000011</v>
-      </c>
-      <c r="F6" s="19">
+        <v>2.59</v>
+      </c>
+      <c r="F6" s="7">
         <f>D6-E6</f>
-        <v>62.910000000000004</v>
-      </c>
-      <c r="G6" s="23">
-        <v>15</v>
-      </c>
-      <c r="H6" s="19">
+        <v>23.31</v>
+      </c>
+      <c r="G6" s="24">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7">
         <f>D6*G6</f>
-        <v>1048.5</v>
-      </c>
-      <c r="I6" s="19">
+        <v>310.79999999999995</v>
+      </c>
+      <c r="I6" s="7">
         <f>H6*$L$4</f>
-        <v>104.85000000000001</v>
-      </c>
-      <c r="J6" s="19">
+        <v>31.08</v>
+      </c>
+      <c r="J6" s="7">
         <f>H6-I6</f>
-        <v>943.65</v>
+        <v>279.71999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="19">
-        <v>145</v>
+        <v>85.9</v>
       </c>
       <c r="E7" s="19">
         <f>D7*$L$4</f>
-        <v>14.5</v>
+        <v>8.5900000000000016</v>
       </c>
       <c r="F7" s="19">
         <f>D7-E7</f>
-        <v>130.5</v>
+        <v>77.31</v>
       </c>
       <c r="G7" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7" s="19">
         <f>D7*G7</f>
-        <v>290</v>
+        <v>687.2</v>
       </c>
       <c r="I7" s="19">
         <f>H7*$L$4</f>
-        <v>29</v>
+        <v>68.720000000000013</v>
       </c>
       <c r="J7" s="19">
         <f>H7-I7</f>
-        <v>261</v>
+        <v>618.48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="A8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19">
+        <v>44.9</v>
+      </c>
+      <c r="E8" s="19">
         <f>D8*$L$4</f>
-        <v>25.99</v>
-      </c>
-      <c r="F8" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="19">
         <f>D8-E8</f>
-        <v>233.90999999999997</v>
-      </c>
-      <c r="G8" s="22">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="G8" s="23">
+        <v>5</v>
+      </c>
+      <c r="H8" s="19">
         <f>D8*G8</f>
-        <v>259.89999999999998</v>
-      </c>
-      <c r="I8" s="8">
+        <v>224.5</v>
+      </c>
+      <c r="I8" s="19">
         <f>H8*$L$4</f>
-        <v>25.99</v>
-      </c>
-      <c r="J8" s="8">
+        <v>22.450000000000003</v>
+      </c>
+      <c r="J8" s="19">
         <f>H8-I8</f>
-        <v>233.90999999999997</v>
+        <v>202.05</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8">
-        <v>39.9</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7">
+        <v>89.9</v>
+      </c>
+      <c r="E9" s="7">
         <f>D9*$L$4</f>
-        <v>3.99</v>
-      </c>
-      <c r="F9" s="8">
+        <v>8.99</v>
+      </c>
+      <c r="F9" s="7">
         <f>D9-E9</f>
-        <v>35.909999999999997</v>
-      </c>
-      <c r="G9" s="22">
-        <v>11</v>
-      </c>
-      <c r="H9" s="8">
+        <v>80.910000000000011</v>
+      </c>
+      <c r="G9" s="24">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7">
         <f>D9*G9</f>
-        <v>438.9</v>
-      </c>
-      <c r="I9" s="8">
+        <v>269.70000000000005</v>
+      </c>
+      <c r="I9" s="7">
         <f>H9*$L$4</f>
-        <v>43.89</v>
-      </c>
-      <c r="J9" s="8">
+        <v>26.970000000000006</v>
+      </c>
+      <c r="J9" s="7">
         <f>H9-I9</f>
-        <v>395.01</v>
+        <v>242.73000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8">
-        <v>89.9</v>
+        <v>140</v>
       </c>
       <c r="E10" s="8">
         <f>D10*$L$4</f>
-        <v>8.99</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8">
         <f>D10-E10</f>
-        <v>80.910000000000011</v>
+        <v>126</v>
       </c>
       <c r="G10" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="8">
         <f>D10*G10</f>
-        <v>449.5</v>
+        <v>280</v>
       </c>
       <c r="I10" s="8">
         <f>H10*$L$4</f>
-        <v>44.95</v>
+        <v>28</v>
       </c>
       <c r="J10" s="8">
         <f>H10-I10</f>
-        <v>404.55</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="19">
-        <v>92.9</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="8">
+        <v>300</v>
+      </c>
+      <c r="E11" s="8">
         <f>D11*$L$4</f>
-        <v>9.2900000000000009</v>
-      </c>
-      <c r="F11" s="19">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8">
         <f>D11-E11</f>
-        <v>83.61</v>
-      </c>
-      <c r="G11" s="23">
-        <v>6</v>
-      </c>
-      <c r="H11" s="19">
+        <v>270</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
         <f>D11*G11</f>
-        <v>557.40000000000009</v>
-      </c>
-      <c r="I11" s="19">
+        <v>300</v>
+      </c>
+      <c r="I11" s="8">
         <f>H11*$L$4</f>
-        <v>55.740000000000009</v>
-      </c>
-      <c r="J11" s="19">
+        <v>30</v>
+      </c>
+      <c r="J11" s="8">
         <f>H11-I11</f>
-        <v>501.66000000000008</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>7</v>
@@ -3370,72 +3468,72 @@
         <v>19</v>
       </c>
       <c r="D12" s="19">
-        <v>85.9</v>
+        <v>249.9</v>
       </c>
       <c r="E12" s="19">
         <f>D12*$L$4</f>
-        <v>8.5900000000000016</v>
+        <v>24.990000000000002</v>
       </c>
       <c r="F12" s="19">
         <f>D12-E12</f>
-        <v>77.31</v>
+        <v>224.91</v>
       </c>
       <c r="G12" s="23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="19">
         <f>D12*G12</f>
-        <v>687.2</v>
+        <v>249.9</v>
       </c>
       <c r="I12" s="19">
         <f>H12*$L$4</f>
-        <v>68.720000000000013</v>
+        <v>24.990000000000002</v>
       </c>
       <c r="J12" s="19">
         <f>H12-I12</f>
-        <v>618.48</v>
+        <v>224.91</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="19">
-        <v>48.9</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="E13" s="19">
         <f>D13*$L$4</f>
-        <v>4.8900000000000006</v>
+        <v>6.9900000000000011</v>
       </c>
       <c r="F13" s="19">
         <f>D13-E13</f>
-        <v>44.01</v>
+        <v>62.910000000000004</v>
       </c>
       <c r="G13" s="23">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H13" s="19">
         <f>D13*G13</f>
-        <v>97.8</v>
+        <v>1048.5</v>
       </c>
       <c r="I13" s="19">
         <f>H13*$L$4</f>
-        <v>9.7800000000000011</v>
+        <v>104.85000000000001</v>
       </c>
       <c r="J13" s="19">
         <f>H13-I13</f>
-        <v>88.02</v>
+        <v>943.65</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>8</v>
@@ -3444,220 +3542,220 @@
         <v>19</v>
       </c>
       <c r="D14" s="8">
-        <v>46.9</v>
+        <v>91.4</v>
       </c>
       <c r="E14" s="8">
         <f>D14*$L$4</f>
-        <v>4.6900000000000004</v>
+        <v>9.14</v>
       </c>
       <c r="F14" s="8">
         <f>D14-E14</f>
-        <v>42.21</v>
+        <v>82.26</v>
       </c>
       <c r="G14" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="8">
         <f>D14*G14</f>
-        <v>140.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" s="8">
         <f>H14*$L$4</f>
-        <v>14.07</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8">
         <f>H14-I14</f>
-        <v>126.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="19">
-        <v>44.9</v>
+        <v>39.9</v>
       </c>
       <c r="E15" s="19">
         <f>D15*$L$4</f>
-        <v>4.49</v>
+        <v>3.99</v>
       </c>
       <c r="F15" s="19">
         <f>D15-E15</f>
-        <v>40.409999999999997</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="G15" s="23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H15" s="19">
         <f>D15*G15</f>
-        <v>224.5</v>
+        <v>399</v>
       </c>
       <c r="I15" s="19">
         <f>H15*$L$4</f>
-        <v>22.450000000000003</v>
+        <v>39.900000000000006</v>
       </c>
       <c r="J15" s="19">
         <f>H15-I15</f>
-        <v>202.05</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="8">
-        <v>42.5</v>
+        <v>29.9</v>
       </c>
       <c r="E16" s="8">
         <f>D16*$L$4</f>
-        <v>4.25</v>
+        <v>2.99</v>
       </c>
       <c r="F16" s="8">
         <f>D16-E16</f>
-        <v>38.25</v>
+        <v>26.909999999999997</v>
       </c>
       <c r="G16" s="22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H16" s="8">
         <f>D16*G16</f>
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="I16" s="8">
         <f>H16*$L$4</f>
-        <v>25.5</v>
+        <v>29.900000000000002</v>
       </c>
       <c r="J16" s="8">
         <f>H16-I16</f>
-        <v>229.5</v>
+        <v>269.10000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="19">
-        <v>39.9</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="D17" s="8">
+        <v>89.9</v>
+      </c>
+      <c r="E17" s="8">
         <f>D17*$L$4</f>
-        <v>3.99</v>
-      </c>
-      <c r="F17" s="19">
+        <v>8.99</v>
+      </c>
+      <c r="F17" s="8">
         <f>D17-E17</f>
-        <v>35.909999999999997</v>
-      </c>
-      <c r="G17" s="23">
-        <v>10</v>
-      </c>
-      <c r="H17" s="19">
+        <v>80.910000000000011</v>
+      </c>
+      <c r="G17" s="22">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8">
         <f>D17*G17</f>
-        <v>399</v>
-      </c>
-      <c r="I17" s="19">
+        <v>449.5</v>
+      </c>
+      <c r="I17" s="8">
         <f>H17*$L$4</f>
-        <v>39.900000000000006</v>
-      </c>
-      <c r="J17" s="19">
+        <v>44.95</v>
+      </c>
+      <c r="J17" s="8">
         <f>H17-I17</f>
-        <v>359.1</v>
+        <v>404.55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="8">
-        <v>39.9</v>
+        <v>46.9</v>
       </c>
       <c r="E18" s="8">
         <f>D18*$L$4</f>
-        <v>3.99</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F18" s="8">
         <f>D18-E18</f>
-        <v>35.909999999999997</v>
+        <v>42.21</v>
       </c>
       <c r="G18" s="22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H18" s="8">
         <f>D18*G18</f>
-        <v>478.79999999999995</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="I18" s="8">
         <f>H18*$L$4</f>
-        <v>47.879999999999995</v>
+        <v>14.07</v>
       </c>
       <c r="J18" s="8">
         <f>H18-I18</f>
-        <v>430.91999999999996</v>
+        <v>126.63</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="19">
-        <v>32.9</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="E19" s="19">
         <f>D19*$L$4</f>
-        <v>3.29</v>
+        <v>30.29</v>
       </c>
       <c r="F19" s="19">
         <f>D19-E19</f>
-        <v>29.61</v>
+        <v>272.60999999999996</v>
       </c>
       <c r="G19" s="23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H19" s="19">
         <f>D19*G19</f>
-        <v>197.39999999999998</v>
+        <v>605.79999999999995</v>
       </c>
       <c r="I19" s="19">
         <f>H19*$L$4</f>
-        <v>19.739999999999998</v>
+        <v>60.58</v>
       </c>
       <c r="J19" s="19">
         <f>H19-I19</f>
-        <v>177.65999999999997</v>
+        <v>545.21999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>8</v>
@@ -3666,257 +3764,257 @@
         <v>19</v>
       </c>
       <c r="D20" s="8">
-        <v>29.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="E20" s="8">
         <f>D20*$L$4</f>
-        <v>2.99</v>
+        <v>25.99</v>
       </c>
       <c r="F20" s="8">
         <f>D20-E20</f>
-        <v>26.909999999999997</v>
+        <v>233.90999999999997</v>
       </c>
       <c r="G20" s="22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H20" s="8">
         <f>D20*G20</f>
-        <v>299</v>
+        <v>519.79999999999995</v>
       </c>
       <c r="I20" s="8">
         <f>H20*$L$4</f>
-        <v>29.900000000000002</v>
+        <v>51.98</v>
       </c>
       <c r="J20" s="8">
         <f>H20-I20</f>
-        <v>269.10000000000002</v>
+        <v>467.81999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="7">
-        <v>25.9</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="19">
+        <v>142.9</v>
+      </c>
+      <c r="E21" s="19">
         <f>D21*$L$4</f>
-        <v>2.59</v>
-      </c>
-      <c r="F21" s="7">
+        <v>14.290000000000001</v>
+      </c>
+      <c r="F21" s="19">
         <f>D21-E21</f>
-        <v>23.31</v>
-      </c>
-      <c r="G21" s="24">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7">
+        <v>128.61000000000001</v>
+      </c>
+      <c r="G21" s="23">
+        <v>2</v>
+      </c>
+      <c r="H21" s="19">
         <f>D21*G21</f>
-        <v>310.79999999999995</v>
-      </c>
-      <c r="I21" s="7">
+        <v>285.8</v>
+      </c>
+      <c r="I21" s="19">
         <f>H21*$L$4</f>
-        <v>31.08</v>
-      </c>
-      <c r="J21" s="7">
+        <v>28.580000000000002</v>
+      </c>
+      <c r="J21" s="19">
         <f>H21-I21</f>
-        <v>279.71999999999997</v>
+        <v>257.22000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="19">
-        <v>49.9</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E22" s="8">
         <f>D22*$L$4</f>
-        <v>4.99</v>
-      </c>
-      <c r="F22" s="19">
+        <v>7.0900000000000007</v>
+      </c>
+      <c r="F22" s="8">
         <f>D22-E22</f>
-        <v>44.91</v>
-      </c>
-      <c r="G22" s="23">
-        <v>21</v>
-      </c>
-      <c r="H22" s="19">
+        <v>63.81</v>
+      </c>
+      <c r="G22" s="22">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8">
         <f>D22*G22</f>
-        <v>1047.8999999999999</v>
-      </c>
-      <c r="I22" s="19">
+        <v>921.7</v>
+      </c>
+      <c r="I22" s="8">
         <f>H22*$L$4</f>
-        <v>104.78999999999999</v>
-      </c>
-      <c r="J22" s="19">
+        <v>92.170000000000016</v>
+      </c>
+      <c r="J22" s="8">
         <f>H22-I22</f>
-        <v>943.1099999999999</v>
+        <v>829.53</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="8">
-        <v>299.89999999999998</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="19">
+        <v>92.9</v>
+      </c>
+      <c r="E23" s="19">
         <f>D23*$L$4</f>
-        <v>29.99</v>
-      </c>
-      <c r="F23" s="8">
+        <v>9.2900000000000009</v>
+      </c>
+      <c r="F23" s="19">
         <f>D23-E23</f>
-        <v>269.90999999999997</v>
-      </c>
-      <c r="G23" s="22">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
+        <v>83.61</v>
+      </c>
+      <c r="G23" s="23">
+        <v>6</v>
+      </c>
+      <c r="H23" s="19">
         <f>D23*G23</f>
-        <v>299.89999999999998</v>
-      </c>
-      <c r="I23" s="8">
+        <v>557.40000000000009</v>
+      </c>
+      <c r="I23" s="19">
         <f>H23*$L$4</f>
-        <v>29.99</v>
-      </c>
-      <c r="J23" s="8">
+        <v>55.740000000000009</v>
+      </c>
+      <c r="J23" s="19">
         <f>H23-I23</f>
-        <v>269.90999999999997</v>
+        <v>501.66000000000008</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="8">
-        <v>300</v>
+        <v>42.5</v>
       </c>
       <c r="E24" s="8">
         <f>D24*$L$4</f>
-        <v>30</v>
+        <v>4.25</v>
       </c>
       <c r="F24" s="8">
         <f>D24-E24</f>
-        <v>270</v>
+        <v>38.25</v>
       </c>
       <c r="G24" s="22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H24" s="8">
         <f>D24*G24</f>
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="I24" s="8">
         <f>H24*$L$4</f>
-        <v>30</v>
+        <v>25.5</v>
       </c>
       <c r="J24" s="8">
         <f>H24-I24</f>
-        <v>270</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="19">
-        <v>302.89999999999998</v>
+        <v>32.9</v>
       </c>
       <c r="E25" s="19">
         <f>D25*$L$4</f>
-        <v>30.29</v>
+        <v>3.29</v>
       </c>
       <c r="F25" s="19">
         <f>D25-E25</f>
-        <v>272.60999999999996</v>
+        <v>29.61</v>
       </c>
       <c r="G25" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H25" s="19">
         <f>D25*G25</f>
-        <v>605.79999999999995</v>
+        <v>197.39999999999998</v>
       </c>
       <c r="I25" s="19">
         <f>H25*$L$4</f>
-        <v>60.58</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="J25" s="19">
         <f>H25-I25</f>
-        <v>545.21999999999991</v>
+        <v>177.65999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="19">
-        <v>249.9</v>
-      </c>
-      <c r="E26" s="19">
+      <c r="D26" s="8">
+        <v>146</v>
+      </c>
+      <c r="E26" s="8">
         <f>D26*$L$4</f>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="F26" s="19">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="F26" s="8">
         <f>D26-E26</f>
-        <v>224.91</v>
-      </c>
-      <c r="G26" s="23">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19">
+        <v>131.4</v>
+      </c>
+      <c r="G26" s="22">
+        <v>2</v>
+      </c>
+      <c r="H26" s="8">
         <f>D26*G26</f>
-        <v>249.9</v>
-      </c>
-      <c r="I26" s="19">
+        <v>292</v>
+      </c>
+      <c r="I26" s="8">
         <f>H26*$L$4</f>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="J26" s="19">
+        <v>29.200000000000003</v>
+      </c>
+      <c r="J26" s="8">
         <f>H26-I26</f>
-        <v>224.91</v>
+        <v>262.8</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>9</v>
@@ -3925,385 +4023,385 @@
         <v>19</v>
       </c>
       <c r="D27" s="19">
-        <v>299.89999999999998</v>
+        <v>93.5</v>
       </c>
       <c r="E27" s="19">
         <f>D27*$L$4</f>
-        <v>29.99</v>
+        <v>9.35</v>
       </c>
       <c r="F27" s="19">
         <f>D27-E27</f>
-        <v>269.90999999999997</v>
+        <v>84.15</v>
       </c>
       <c r="G27" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="19">
         <f>D27*G27</f>
-        <v>299.89999999999998</v>
+        <v>187</v>
       </c>
       <c r="I27" s="19">
         <f>H27*$L$4</f>
-        <v>29.99</v>
+        <v>18.7</v>
       </c>
       <c r="J27" s="19">
         <f>H27-I27</f>
-        <v>269.90999999999997</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="A28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="19">
+        <v>48.9</v>
+      </c>
+      <c r="E28" s="19">
         <f>D28*$L$4</f>
-        <v>25.99</v>
-      </c>
-      <c r="F28" s="8">
+        <v>4.8900000000000006</v>
+      </c>
+      <c r="F28" s="19">
         <f>D28-E28</f>
-        <v>233.90999999999997</v>
-      </c>
-      <c r="G28" s="22">
+        <v>44.01</v>
+      </c>
+      <c r="G28" s="23">
         <v>2</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="19">
         <f>D28*G28</f>
-        <v>519.79999999999995</v>
-      </c>
-      <c r="I28" s="8">
+        <v>97.8</v>
+      </c>
+      <c r="I28" s="19">
         <f>H28*$L$4</f>
-        <v>51.98</v>
-      </c>
-      <c r="J28" s="8">
+        <v>9.7800000000000011</v>
+      </c>
+      <c r="J28" s="19">
         <f>H28-I28</f>
-        <v>467.81999999999994</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="8">
-        <v>349.9</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="E29" s="8">
         <f>D29*$L$4</f>
-        <v>34.99</v>
+        <v>29.99</v>
       </c>
       <c r="F29" s="8">
         <f>D29-E29</f>
-        <v>314.90999999999997</v>
+        <v>269.90999999999997</v>
       </c>
       <c r="G29" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="8">
         <f>D29*G29</f>
-        <v>0</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="I29" s="8">
         <f>H29*$L$4</f>
-        <v>0</v>
+        <v>29.99</v>
       </c>
       <c r="J29" s="8">
         <f>H29-I29</f>
-        <v>0</v>
+        <v>269.90999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="19">
-        <v>399.9</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="E30" s="19">
         <f>D30*$L$4</f>
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="F30" s="19">
         <f>D30-E30</f>
-        <v>359.90999999999997</v>
+        <v>269.90999999999997</v>
       </c>
       <c r="G30" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="19">
         <f>D30*G30</f>
-        <v>1199.6999999999998</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="I30" s="19">
         <f>H30*$L$4</f>
-        <v>119.96999999999998</v>
+        <v>29.99</v>
       </c>
       <c r="J30" s="19">
         <f>H30-I30</f>
-        <v>1079.7299999999998</v>
+        <v>269.90999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="23">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="19">
-        <v>259.89999999999998</v>
+        <v>49.9</v>
       </c>
       <c r="E31" s="19">
         <f>D31*$L$4</f>
-        <v>25.99</v>
+        <v>4.99</v>
       </c>
       <c r="F31" s="19">
         <f>D31-E31</f>
-        <v>233.90999999999997</v>
+        <v>44.91</v>
       </c>
       <c r="G31" s="23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H31" s="19">
         <f>D31*G31</f>
-        <v>259.89999999999998</v>
+        <v>1047.8999999999999</v>
       </c>
       <c r="I31" s="19">
         <f>H31*$L$4</f>
-        <v>25.99</v>
+        <v>104.78999999999999</v>
       </c>
       <c r="J31" s="19">
         <f>H31-I31</f>
-        <v>233.90999999999997</v>
+        <v>943.1099999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="22">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="8">
-        <v>255</v>
+        <v>39.9</v>
       </c>
       <c r="E32" s="8">
         <f>D32*$L$4</f>
-        <v>25.5</v>
+        <v>3.99</v>
       </c>
       <c r="F32" s="8">
         <f>D32-E32</f>
-        <v>229.5</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="G32" s="22">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H32" s="8">
         <f>D32*G32</f>
-        <v>765</v>
+        <v>438.9</v>
       </c>
       <c r="I32" s="8">
         <f>H32*$L$4</f>
-        <v>76.5</v>
+        <v>43.89</v>
       </c>
       <c r="J32" s="8">
         <f>H32-I32</f>
-        <v>688.5</v>
+        <v>395.01</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="23">
-        <v>36</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="19">
-        <v>249.9</v>
-      </c>
-      <c r="E33" s="19">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="8">
+        <v>349.9</v>
+      </c>
+      <c r="E33" s="8">
         <f>D33*$L$4</f>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="F33" s="19">
+        <v>34.99</v>
+      </c>
+      <c r="F33" s="8">
         <f>D33-E33</f>
-        <v>224.91</v>
-      </c>
-      <c r="G33" s="23">
-        <v>5</v>
-      </c>
-      <c r="H33" s="19">
+        <v>314.90999999999997</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
         <f>D33*G33</f>
-        <v>1249.5</v>
-      </c>
-      <c r="I33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
         <f>H33*$L$4</f>
-        <v>124.95</v>
-      </c>
-      <c r="J33" s="19">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
         <f>H33-I33</f>
-        <v>1124.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="22">
-        <v>36</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="8">
-        <v>199.9</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="A34" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="19">
+        <v>399.9</v>
+      </c>
+      <c r="E34" s="19">
         <f>D34*$L$4</f>
-        <v>19.990000000000002</v>
-      </c>
-      <c r="F34" s="8">
+        <v>39.99</v>
+      </c>
+      <c r="F34" s="19">
         <f>D34-E34</f>
-        <v>179.91</v>
-      </c>
-      <c r="G34" s="22">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
+        <v>359.90999999999997</v>
+      </c>
+      <c r="G34" s="23">
+        <v>3</v>
+      </c>
+      <c r="H34" s="19">
         <f>D34*G34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
+        <v>1199.6999999999998</v>
+      </c>
+      <c r="I34" s="19">
         <f>H34*$L$4</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
+        <v>119.96999999999998</v>
+      </c>
+      <c r="J34" s="19">
         <f>H34-I34</f>
-        <v>0</v>
+        <v>1079.7299999999998</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="22">
-        <v>38</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="A35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="19">
+        <v>145</v>
+      </c>
+      <c r="E35" s="19">
+        <f>D35*$L$4</f>
+        <v>14.5</v>
+      </c>
+      <c r="F35" s="19">
+        <f>D35-E35</f>
+        <v>130.5</v>
+      </c>
+      <c r="G35" s="23">
+        <v>2</v>
+      </c>
+      <c r="H35" s="19">
+        <f>D35*G35</f>
+        <v>290</v>
+      </c>
+      <c r="I35" s="19">
+        <f>H35*$L$4</f>
+        <v>29</v>
+      </c>
+      <c r="J35" s="19">
+        <f>H35-I35</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="8">
         <v>259.89999999999998</v>
       </c>
-      <c r="E35" s="8">
-        <f>D35*$L$4</f>
+      <c r="E36" s="8">
+        <f>D36*$L$4</f>
         <v>25.99</v>
       </c>
-      <c r="F35" s="8">
-        <f>D35-E35</f>
+      <c r="F36" s="8">
+        <f>D36-E36</f>
         <v>233.90999999999997</v>
       </c>
-      <c r="G35" s="22">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <f>D35*G35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <f>H35*$L$4</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <f>H35-I35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="23">
-        <v>37</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="19">
-        <v>249.9</v>
-      </c>
-      <c r="E36" s="19">
-        <f>D36*$L$4</f>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="F36" s="19">
-        <f>D36-E36</f>
-        <v>224.91</v>
-      </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>1</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="8">
         <f>D36*G36</f>
-        <v>249.9</v>
-      </c>
-      <c r="I36" s="19">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="I36" s="8">
         <f>H36*$L$4</f>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="J36" s="19">
+        <v>25.99</v>
+      </c>
+      <c r="J36" s="8">
         <f>H36-I36</f>
-        <v>224.91</v>
+        <v>233.90999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="B37" s="22">
+        <v>36</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D37" s="8">
-        <v>91.4</v>
+        <v>199.9</v>
       </c>
       <c r="E37" s="8">
         <f>D37*$L$4</f>
-        <v>9.14</v>
+        <v>19.990000000000002</v>
       </c>
       <c r="F37" s="8">
         <f>D37-E37</f>
-        <v>82.26</v>
+        <v>179.91</v>
       </c>
       <c r="G37" s="22">
         <v>0</v>
@@ -4323,187 +4421,187 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="B38" s="23">
+        <v>36</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D38" s="19">
-        <v>93.5</v>
+        <v>249.9</v>
       </c>
       <c r="E38" s="19">
         <f>D38*$L$4</f>
-        <v>9.35</v>
+        <v>24.990000000000002</v>
       </c>
       <c r="F38" s="19">
         <f>D38-E38</f>
-        <v>84.15</v>
+        <v>224.91</v>
       </c>
       <c r="G38" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H38" s="19">
         <f>D38*G38</f>
-        <v>187</v>
+        <v>1249.5</v>
       </c>
       <c r="I38" s="19">
         <f>H38*$L$4</f>
-        <v>18.7</v>
+        <v>124.95</v>
       </c>
       <c r="J38" s="19">
         <f>H38-I38</f>
-        <v>168.3</v>
+        <v>1124.55</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="7">
-        <v>89.9</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="A39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="22">
+        <v>37</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="8">
+        <v>255</v>
+      </c>
+      <c r="E39" s="8">
         <f>D39*$L$4</f>
-        <v>8.99</v>
-      </c>
-      <c r="F39" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="F39" s="8">
         <f>D39-E39</f>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="G39" s="24">
+        <v>229.5</v>
+      </c>
+      <c r="G39" s="22">
         <v>3</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="8">
         <f>D39*G39</f>
-        <v>269.70000000000005</v>
-      </c>
-      <c r="I39" s="7">
+        <v>765</v>
+      </c>
+      <c r="I39" s="8">
         <f>H39*$L$4</f>
-        <v>26.970000000000006</v>
-      </c>
-      <c r="J39" s="7">
+        <v>76.5</v>
+      </c>
+      <c r="J39" s="8">
         <f>H39-I39</f>
-        <v>242.73000000000005</v>
+        <v>688.5</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="8">
-        <v>140</v>
-      </c>
-      <c r="E40" s="8">
+      <c r="A40" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="23">
+        <v>37</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="19">
+        <v>249.9</v>
+      </c>
+      <c r="E40" s="19">
         <f>D40*$L$4</f>
-        <v>14</v>
-      </c>
-      <c r="F40" s="8">
+        <v>24.990000000000002</v>
+      </c>
+      <c r="F40" s="19">
         <f>D40-E40</f>
-        <v>126</v>
-      </c>
-      <c r="G40" s="22">
-        <v>2</v>
-      </c>
-      <c r="H40" s="8">
+        <v>224.91</v>
+      </c>
+      <c r="G40" s="23">
+        <v>1</v>
+      </c>
+      <c r="H40" s="19">
         <f>D40*G40</f>
-        <v>280</v>
-      </c>
-      <c r="I40" s="8">
+        <v>249.9</v>
+      </c>
+      <c r="I40" s="19">
         <f>H40*$L$4</f>
-        <v>28</v>
-      </c>
-      <c r="J40" s="8">
+        <v>24.990000000000002</v>
+      </c>
+      <c r="J40" s="19">
         <f>H40-I40</f>
-        <v>252</v>
+        <v>224.91</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="19">
-        <v>142.9</v>
-      </c>
-      <c r="E41" s="19">
+      <c r="A41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="22">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="8">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E41" s="8">
         <f>D41*$L$4</f>
-        <v>14.290000000000001</v>
-      </c>
-      <c r="F41" s="19">
+        <v>25.99</v>
+      </c>
+      <c r="F41" s="8">
         <f>D41-E41</f>
-        <v>128.61000000000001</v>
-      </c>
-      <c r="G41" s="23">
-        <v>2</v>
-      </c>
-      <c r="H41" s="19">
+        <v>233.90999999999997</v>
+      </c>
+      <c r="G41" s="22">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
         <f>D41*G41</f>
-        <v>285.8</v>
-      </c>
-      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
         <f>H41*$L$4</f>
-        <v>28.580000000000002</v>
-      </c>
-      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
         <f>H41-I41</f>
-        <v>257.22000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="8">
-        <v>146</v>
-      </c>
-      <c r="E42" s="8">
+      <c r="A42" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="23">
+        <v>38</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="19">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E42" s="19">
         <f>D42*$L$4</f>
-        <v>14.600000000000001</v>
-      </c>
-      <c r="F42" s="8">
+        <v>25.99</v>
+      </c>
+      <c r="F42" s="19">
         <f>D42-E42</f>
-        <v>131.4</v>
-      </c>
-      <c r="G42" s="22">
-        <v>2</v>
-      </c>
-      <c r="H42" s="8">
+        <v>233.90999999999997</v>
+      </c>
+      <c r="G42" s="23">
+        <v>1</v>
+      </c>
+      <c r="H42" s="19">
         <f>D42*G42</f>
-        <v>292</v>
-      </c>
-      <c r="I42" s="8">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="I42" s="19">
         <f>H42*$L$4</f>
-        <v>29.200000000000003</v>
-      </c>
-      <c r="J42" s="8">
+        <v>25.99</v>
+      </c>
+      <c r="J42" s="19">
         <f>H42-I42</f>
-        <v>262.8</v>
+        <v>233.90999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4526,7 +4624,7 @@
       <c r="C44" s="47"/>
       <c r="D44" s="12">
         <f>SUM(D4:D42)</f>
-        <v>5962.2999999999984</v>
+        <v>5962.2999999999993</v>
       </c>
       <c r="E44" s="12">
         <f>SUM(E4:E42)</f>
@@ -4534,7 +4632,7 @@
       </c>
       <c r="F44" s="12">
         <f>D44-E44</f>
-        <v>5366.0699999999979</v>
+        <v>5366.07</v>
       </c>
       <c r="G44" s="25">
         <f>SUM(G4:G42)</f>
@@ -4542,11 +4640,11 @@
       </c>
       <c r="H44" s="12">
         <f>SUM(H4:H42)</f>
-        <v>16208.599999999999</v>
+        <v>16208.599999999997</v>
       </c>
       <c r="I44" s="12">
         <f>H44*$L$4</f>
-        <v>1620.86</v>
+        <v>1620.8599999999997</v>
       </c>
       <c r="J44" s="12">
         <f>H44-I44</f>
@@ -4555,13 +4653,22 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
-    <sortCondition ref="A3:A42"/>
+    <sortCondition ref="C4:C42" customList="Vestuário,Acessórios,Calçado"/>
+    <sortCondition ref="B4:B42" customList="P,M,G,Único"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A43:J43"/>
   </mergeCells>
+  <conditionalFormatting sqref="G4:G42">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -4574,7 +4681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45CD3CF-30C5-4720-AC50-B58EC0224FEB}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,20 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CBD7F-9A7D-4BFB-86A6-9E94A283B875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68019551-9944-4B37-AE34-1FDB3F344245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
-    <sheet name="Produtos Tabela" sheetId="6" r:id="rId2"/>
-    <sheet name="Meu Gráfico" sheetId="5" r:id="rId3"/>
-    <sheet name="Tabela de Produtos" sheetId="3" r:id="rId4"/>
-    <sheet name="P-Gráfico" sheetId="4" r:id="rId5"/>
+    <sheet name="Filtro Avançado" sheetId="7" r:id="rId2"/>
+    <sheet name="Produtos Tabela" sheetId="6" r:id="rId3"/>
+    <sheet name="Meu Gráfico" sheetId="5" r:id="rId4"/>
+    <sheet name="Tabela de Produtos" sheetId="3" r:id="rId5"/>
+    <sheet name="P-Gráfico" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$3:$J$42</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">'Filtro Avançado'!$B$6:$K$6</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'Filtro Avançado'!$E$2:$E$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="53">
   <si>
     <t>Produtos</t>
   </si>
@@ -199,6 +205,9 @@
   </si>
   <si>
     <t>Desconto 10%</t>
+  </si>
+  <si>
+    <t>&lt;12</t>
   </si>
 </sst>
 </file>
@@ -578,71 +587,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -670,6 +615,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2718,30 +2673,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="Tabela6" displayName="Tabela6" ref="A3:J43" totalsRowCount="1" headerRowDxfId="51" totalsRowDxfId="48" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="Tabela6" displayName="Tabela6" ref="A3:J43" totalsRowCount="1" headerRowDxfId="44" totalsRowDxfId="41" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="40">
   <autoFilter ref="A3:J42" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
     <sortCondition ref="D3:D42"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5ADC0821-BE78-4155-839C-96C06CE380CE}" name="Produtos" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{43384F10-6B22-4897-976F-3F386E831F5F}" name="Tamanho" totalsRowDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{ABAC2F85-979D-4665-A1E9-B6C6D01BD2E3}" name="Categoria" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{5A199DB8-DEAF-428B-B0A9-0A4B4BBB79F2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{A2AEBE90-6B04-4052-9CCA-CE496F29DD9E}" name="Valor do Descoto" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="1" xr3:uid="{5ADC0821-BE78-4155-839C-96C06CE380CE}" name="Produtos" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{43384F10-6B22-4897-976F-3F386E831F5F}" name="Tamanho" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{ABAC2F85-979D-4665-A1E9-B6C6D01BD2E3}" name="Categoria" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{5A199DB8-DEAF-428B-B0A9-0A4B4BBB79F2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{A2AEBE90-6B04-4052-9CCA-CE496F29DD9E}" name="Valor do Descoto" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>D4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>D4-E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>D4*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>H4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>H4-I4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2750,27 +2705,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="20">
   <autoFilter ref="A3:J23" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F846016E-C621-48F6-A4F2-8B9036CF79B0}" name="Produtos" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" xr3:uid="{EB51C660-9F00-4E83-BB4A-3464A549E0C4}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]-Tabela2[[#This Row],[Desconto 10% na uni]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]-Tabela2[[#This Row],[Desconto 10% no total]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3077,23 +3032,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3160,39 +3115,39 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8">
-        <v>65.900000000000006</v>
+        <v>42.5</v>
       </c>
       <c r="E4" s="8">
         <f>D4*$L$4</f>
-        <v>6.5900000000000007</v>
+        <v>4.25</v>
       </c>
       <c r="F4" s="8">
         <f>D4-E4</f>
-        <v>59.31</v>
+        <v>38.25</v>
       </c>
       <c r="G4" s="22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H4" s="8">
         <f>D4*G4</f>
-        <v>790.80000000000007</v>
+        <v>255</v>
       </c>
       <c r="I4" s="8">
         <f>H4*$L$4</f>
-        <v>79.080000000000013</v>
+        <v>25.5</v>
       </c>
       <c r="J4" s="8">
         <f>H4-I4</f>
-        <v>711.72</v>
+        <v>229.5</v>
       </c>
       <c r="L4" s="15">
         <v>0.1</v>
@@ -3274,7 +3229,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>7</v>
@@ -3283,104 +3238,104 @@
         <v>19</v>
       </c>
       <c r="D7" s="19">
-        <v>85.9</v>
+        <v>44.9</v>
       </c>
       <c r="E7" s="19">
         <f>D7*$L$4</f>
-        <v>8.5900000000000016</v>
+        <v>4.49</v>
       </c>
       <c r="F7" s="19">
         <f>D7-E7</f>
-        <v>77.31</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="G7" s="23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="19">
         <f>D7*G7</f>
-        <v>687.2</v>
+        <v>224.5</v>
       </c>
       <c r="I7" s="19">
         <f>H7*$L$4</f>
-        <v>68.720000000000013</v>
+        <v>22.450000000000003</v>
       </c>
       <c r="J7" s="19">
         <f>H7-I7</f>
-        <v>618.48</v>
+        <v>202.05</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19">
-        <v>44.9</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="8">
+        <v>46.9</v>
+      </c>
+      <c r="E8" s="8">
         <f>D8*$L$4</f>
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="19">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F8" s="8">
         <f>D8-E8</f>
-        <v>40.409999999999997</v>
-      </c>
-      <c r="G8" s="23">
-        <v>5</v>
-      </c>
-      <c r="H8" s="19">
+        <v>42.21</v>
+      </c>
+      <c r="G8" s="22">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8">
         <f>D8*G8</f>
-        <v>224.5</v>
-      </c>
-      <c r="I8" s="19">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="I8" s="8">
         <f>H8*$L$4</f>
-        <v>22.450000000000003</v>
-      </c>
-      <c r="J8" s="19">
+        <v>14.07</v>
+      </c>
+      <c r="J8" s="8">
         <f>H8-I8</f>
-        <v>202.05</v>
+        <v>126.63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7">
-        <v>89.9</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="19">
+        <v>48.9</v>
+      </c>
+      <c r="E9" s="19">
         <f>D9*$L$4</f>
-        <v>8.99</v>
-      </c>
-      <c r="F9" s="7">
+        <v>4.8900000000000006</v>
+      </c>
+      <c r="F9" s="19">
         <f>D9-E9</f>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="G9" s="24">
-        <v>3</v>
-      </c>
-      <c r="H9" s="7">
+        <v>44.01</v>
+      </c>
+      <c r="G9" s="23">
+        <v>2</v>
+      </c>
+      <c r="H9" s="19">
         <f>D9*G9</f>
-        <v>269.70000000000005</v>
-      </c>
-      <c r="I9" s="7">
+        <v>97.8</v>
+      </c>
+      <c r="I9" s="19">
         <f>H9*$L$4</f>
-        <v>26.970000000000006</v>
-      </c>
-      <c r="J9" s="7">
+        <v>9.7800000000000011</v>
+      </c>
+      <c r="J9" s="19">
         <f>H9-I9</f>
-        <v>242.73000000000005</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3496,76 +3451,76 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="19">
-        <v>69.900000000000006</v>
+        <v>49.9</v>
       </c>
       <c r="E13" s="19">
         <f>D13*$L$4</f>
-        <v>6.9900000000000011</v>
+        <v>4.99</v>
       </c>
       <c r="F13" s="19">
         <f>D13-E13</f>
-        <v>62.910000000000004</v>
+        <v>44.91</v>
       </c>
       <c r="G13" s="23">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H13" s="19">
         <f>D13*G13</f>
-        <v>1048.5</v>
+        <v>1047.8999999999999</v>
       </c>
       <c r="I13" s="19">
         <f>H13*$L$4</f>
-        <v>104.85000000000001</v>
+        <v>104.78999999999999</v>
       </c>
       <c r="J13" s="19">
         <f>H13-I13</f>
-        <v>943.65</v>
+        <v>943.1099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8">
-        <v>91.4</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="E14" s="8">
         <f>D14*$L$4</f>
-        <v>9.14</v>
+        <v>6.5900000000000007</v>
       </c>
       <c r="F14" s="8">
         <f>D14-E14</f>
-        <v>82.26</v>
+        <v>59.31</v>
       </c>
       <c r="G14" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8">
         <f>D14*G14</f>
-        <v>0</v>
+        <v>790.80000000000007</v>
       </c>
       <c r="I14" s="8">
         <f>H14*$L$4</f>
-        <v>0</v>
+        <v>79.080000000000013</v>
       </c>
       <c r="J14" s="8">
         <f>H14-I14</f>
-        <v>0</v>
+        <v>711.72</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3643,77 +3598,77 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="8">
-        <v>89.9</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="19">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E17" s="19">
         <f>D17*$L$4</f>
-        <v>8.99</v>
-      </c>
-      <c r="F17" s="8">
+        <v>6.9900000000000011</v>
+      </c>
+      <c r="F17" s="19">
         <f>D17-E17</f>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="G17" s="22">
-        <v>5</v>
-      </c>
-      <c r="H17" s="8">
+        <v>62.910000000000004</v>
+      </c>
+      <c r="G17" s="23">
+        <v>15</v>
+      </c>
+      <c r="H17" s="19">
         <f>D17*G17</f>
-        <v>449.5</v>
-      </c>
-      <c r="I17" s="8">
+        <v>1048.5</v>
+      </c>
+      <c r="I17" s="19">
         <f>H17*$L$4</f>
-        <v>44.95</v>
-      </c>
-      <c r="J17" s="8">
+        <v>104.85000000000001</v>
+      </c>
+      <c r="J17" s="19">
         <f>H17-I17</f>
-        <v>404.55</v>
+        <v>943.65</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="8">
-        <v>46.9</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E18" s="8">
         <f>D18*$L$4</f>
-        <v>4.6900000000000004</v>
+        <v>7.0900000000000007</v>
       </c>
       <c r="F18" s="8">
         <f>D18-E18</f>
-        <v>42.21</v>
+        <v>63.81</v>
       </c>
       <c r="G18" s="22">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H18" s="8">
         <f>D18*G18</f>
-        <v>140.69999999999999</v>
+        <v>921.7</v>
       </c>
       <c r="I18" s="8">
         <f>H18*$L$4</f>
-        <v>14.07</v>
+        <v>92.170000000000016</v>
       </c>
       <c r="J18" s="8">
         <f>H18-I18</f>
-        <v>126.63</v>
+        <v>829.53</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3828,114 +3783,114 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="19">
+        <v>85.9</v>
+      </c>
+      <c r="E22" s="19">
         <f>D22*$L$4</f>
-        <v>7.0900000000000007</v>
-      </c>
-      <c r="F22" s="8">
+        <v>8.5900000000000016</v>
+      </c>
+      <c r="F22" s="19">
         <f>D22-E22</f>
-        <v>63.81</v>
-      </c>
-      <c r="G22" s="22">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8">
+        <v>77.31</v>
+      </c>
+      <c r="G22" s="23">
+        <v>8</v>
+      </c>
+      <c r="H22" s="19">
         <f>D22*G22</f>
-        <v>921.7</v>
-      </c>
-      <c r="I22" s="8">
+        <v>687.2</v>
+      </c>
+      <c r="I22" s="19">
         <f>H22*$L$4</f>
-        <v>92.170000000000016</v>
-      </c>
-      <c r="J22" s="8">
+        <v>68.720000000000013</v>
+      </c>
+      <c r="J22" s="19">
         <f>H22-I22</f>
-        <v>829.53</v>
+        <v>618.48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7">
+        <v>89.9</v>
+      </c>
+      <c r="E23" s="7">
+        <f>D23*$L$4</f>
+        <v>8.99</v>
+      </c>
+      <c r="F23" s="7">
+        <f>D23-E23</f>
+        <v>80.910000000000011</v>
+      </c>
+      <c r="G23" s="24">
         <v>3</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="19">
-        <v>92.9</v>
-      </c>
-      <c r="E23" s="19">
-        <f>D23*$L$4</f>
-        <v>9.2900000000000009</v>
-      </c>
-      <c r="F23" s="19">
-        <f>D23-E23</f>
-        <v>83.61</v>
-      </c>
-      <c r="G23" s="23">
-        <v>6</v>
-      </c>
-      <c r="H23" s="19">
+      <c r="H23" s="7">
         <f>D23*G23</f>
-        <v>557.40000000000009</v>
-      </c>
-      <c r="I23" s="19">
+        <v>269.70000000000005</v>
+      </c>
+      <c r="I23" s="7">
         <f>H23*$L$4</f>
-        <v>55.740000000000009</v>
-      </c>
-      <c r="J23" s="19">
+        <v>26.970000000000006</v>
+      </c>
+      <c r="J23" s="7">
         <f>H23-I23</f>
-        <v>501.66000000000008</v>
+        <v>242.73000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="8">
-        <v>42.5</v>
+        <v>89.9</v>
       </c>
       <c r="E24" s="8">
         <f>D24*$L$4</f>
-        <v>4.25</v>
+        <v>8.99</v>
       </c>
       <c r="F24" s="8">
         <f>D24-E24</f>
-        <v>38.25</v>
+        <v>80.910000000000011</v>
       </c>
       <c r="G24" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" s="8">
         <f>D24*G24</f>
-        <v>255</v>
+        <v>449.5</v>
       </c>
       <c r="I24" s="8">
         <f>H24*$L$4</f>
-        <v>25.5</v>
+        <v>44.95</v>
       </c>
       <c r="J24" s="8">
         <f>H24-I24</f>
-        <v>229.5</v>
+        <v>404.55</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4013,45 +3968,45 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="19">
-        <v>93.5</v>
-      </c>
-      <c r="E27" s="19">
+      <c r="D27" s="8">
+        <v>91.4</v>
+      </c>
+      <c r="E27" s="8">
         <f>D27*$L$4</f>
-        <v>9.35</v>
-      </c>
-      <c r="F27" s="19">
+        <v>9.14</v>
+      </c>
+      <c r="F27" s="8">
         <f>D27-E27</f>
-        <v>84.15</v>
-      </c>
-      <c r="G27" s="23">
-        <v>2</v>
-      </c>
-      <c r="H27" s="19">
+        <v>82.26</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
         <f>D27*G27</f>
-        <v>187</v>
-      </c>
-      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
         <f>H27*$L$4</f>
-        <v>18.7</v>
-      </c>
-      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
         <f>H27-I27</f>
-        <v>168.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>9</v>
@@ -4060,30 +4015,30 @@
         <v>19</v>
       </c>
       <c r="D28" s="19">
-        <v>48.9</v>
+        <v>92.9</v>
       </c>
       <c r="E28" s="19">
         <f>D28*$L$4</f>
-        <v>4.8900000000000006</v>
+        <v>9.2900000000000009</v>
       </c>
       <c r="F28" s="19">
         <f>D28-E28</f>
-        <v>44.01</v>
+        <v>83.61</v>
       </c>
       <c r="G28" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H28" s="19">
         <f>D28*G28</f>
-        <v>97.8</v>
+        <v>557.40000000000009</v>
       </c>
       <c r="I28" s="19">
         <f>H28*$L$4</f>
-        <v>9.7800000000000011</v>
+        <v>55.740000000000009</v>
       </c>
       <c r="J28" s="19">
         <f>H28-I28</f>
-        <v>88.02</v>
+        <v>501.66000000000008</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4162,39 +4117,39 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="19">
-        <v>49.9</v>
+        <v>93.5</v>
       </c>
       <c r="E31" s="19">
         <f>D31*$L$4</f>
-        <v>4.99</v>
+        <v>9.35</v>
       </c>
       <c r="F31" s="19">
         <f>D31-E31</f>
-        <v>44.91</v>
+        <v>84.15</v>
       </c>
       <c r="G31" s="23">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H31" s="19">
         <f>D31*G31</f>
-        <v>1047.8999999999999</v>
+        <v>187</v>
       </c>
       <c r="I31" s="19">
         <f>H31*$L$4</f>
-        <v>104.78999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="J31" s="19">
         <f>H31-I31</f>
-        <v>943.1099999999999</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4211,26 +4166,26 @@
         <v>39.9</v>
       </c>
       <c r="E32" s="8">
-        <f>D32*$L$4</f>
+        <f t="shared" ref="E4:E42" si="0">D32*$L$4</f>
         <v>3.99</v>
       </c>
       <c r="F32" s="8">
-        <f>D32-E32</f>
+        <f t="shared" ref="F4:F42" si="1">D32-E32</f>
         <v>35.909999999999997</v>
       </c>
       <c r="G32" s="22">
         <v>11</v>
       </c>
       <c r="H32" s="8">
-        <f>D32*G32</f>
+        <f t="shared" ref="H4:H42" si="2">D32*G32</f>
         <v>438.9</v>
       </c>
       <c r="I32" s="8">
-        <f>H32*$L$4</f>
+        <f t="shared" ref="I4:I42" si="3">H32*$L$4</f>
         <v>43.89</v>
       </c>
       <c r="J32" s="8">
-        <f>H32-I32</f>
+        <f t="shared" ref="J4:J42" si="4">H32-I32</f>
         <v>395.01</v>
       </c>
     </row>
@@ -4248,26 +4203,26 @@
         <v>349.9</v>
       </c>
       <c r="E33" s="8">
-        <f>D33*$L$4</f>
+        <f t="shared" si="0"/>
         <v>34.99</v>
       </c>
       <c r="F33" s="8">
-        <f>D33-E33</f>
+        <f t="shared" si="1"/>
         <v>314.90999999999997</v>
       </c>
       <c r="G33" s="22">
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <f>D33*G33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <f>H33*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J33" s="8">
-        <f>H33-I33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4285,26 +4240,26 @@
         <v>399.9</v>
       </c>
       <c r="E34" s="19">
-        <f>D34*$L$4</f>
+        <f t="shared" si="0"/>
         <v>39.99</v>
       </c>
       <c r="F34" s="19">
-        <f>D34-E34</f>
+        <f t="shared" si="1"/>
         <v>359.90999999999997</v>
       </c>
       <c r="G34" s="23">
         <v>3</v>
       </c>
       <c r="H34" s="19">
-        <f>D34*G34</f>
+        <f t="shared" si="2"/>
         <v>1199.6999999999998</v>
       </c>
       <c r="I34" s="19">
-        <f>H34*$L$4</f>
+        <f t="shared" si="3"/>
         <v>119.96999999999998</v>
       </c>
       <c r="J34" s="19">
-        <f>H34-I34</f>
+        <f t="shared" si="4"/>
         <v>1079.7299999999998</v>
       </c>
     </row>
@@ -4322,26 +4277,26 @@
         <v>145</v>
       </c>
       <c r="E35" s="19">
-        <f>D35*$L$4</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="F35" s="19">
-        <f>D35-E35</f>
+        <f t="shared" si="1"/>
         <v>130.5</v>
       </c>
       <c r="G35" s="23">
         <v>2</v>
       </c>
       <c r="H35" s="19">
-        <f>D35*G35</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="I35" s="19">
-        <f>H35*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="J35" s="19">
-        <f>H35-I35</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
     </row>
@@ -4359,26 +4314,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E36" s="8">
-        <f>D36*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F36" s="8">
-        <f>D36-E36</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G36" s="22">
         <v>1</v>
       </c>
       <c r="H36" s="8">
-        <f>D36*G36</f>
+        <f t="shared" si="2"/>
         <v>259.89999999999998</v>
       </c>
       <c r="I36" s="8">
-        <f>H36*$L$4</f>
+        <f t="shared" si="3"/>
         <v>25.99</v>
       </c>
       <c r="J36" s="8">
-        <f>H36-I36</f>
+        <f t="shared" si="4"/>
         <v>233.90999999999997</v>
       </c>
     </row>
@@ -4396,26 +4351,26 @@
         <v>199.9</v>
       </c>
       <c r="E37" s="8">
-        <f>D37*$L$4</f>
+        <f t="shared" si="0"/>
         <v>19.990000000000002</v>
       </c>
       <c r="F37" s="8">
-        <f>D37-E37</f>
+        <f t="shared" si="1"/>
         <v>179.91</v>
       </c>
       <c r="G37" s="22">
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f>D37*G37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <f>H37*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <f>H37-I37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4433,26 +4388,26 @@
         <v>249.9</v>
       </c>
       <c r="E38" s="19">
-        <f>D38*$L$4</f>
+        <f t="shared" si="0"/>
         <v>24.990000000000002</v>
       </c>
       <c r="F38" s="19">
-        <f>D38-E38</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
       <c r="G38" s="23">
         <v>5</v>
       </c>
       <c r="H38" s="19">
-        <f>D38*G38</f>
+        <f t="shared" si="2"/>
         <v>1249.5</v>
       </c>
       <c r="I38" s="19">
-        <f>H38*$L$4</f>
+        <f t="shared" si="3"/>
         <v>124.95</v>
       </c>
       <c r="J38" s="19">
-        <f>H38-I38</f>
+        <f t="shared" si="4"/>
         <v>1124.55</v>
       </c>
     </row>
@@ -4470,26 +4425,26 @@
         <v>255</v>
       </c>
       <c r="E39" s="8">
-        <f>D39*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
       <c r="F39" s="8">
-        <f>D39-E39</f>
+        <f t="shared" si="1"/>
         <v>229.5</v>
       </c>
       <c r="G39" s="22">
         <v>3</v>
       </c>
       <c r="H39" s="8">
-        <f>D39*G39</f>
+        <f t="shared" si="2"/>
         <v>765</v>
       </c>
       <c r="I39" s="8">
-        <f>H39*$L$4</f>
+        <f t="shared" si="3"/>
         <v>76.5</v>
       </c>
       <c r="J39" s="8">
-        <f>H39-I39</f>
+        <f t="shared" si="4"/>
         <v>688.5</v>
       </c>
     </row>
@@ -4507,26 +4462,26 @@
         <v>249.9</v>
       </c>
       <c r="E40" s="19">
-        <f>D40*$L$4</f>
+        <f t="shared" si="0"/>
         <v>24.990000000000002</v>
       </c>
       <c r="F40" s="19">
-        <f>D40-E40</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
       <c r="G40" s="23">
         <v>1</v>
       </c>
       <c r="H40" s="19">
-        <f>D40*G40</f>
+        <f t="shared" si="2"/>
         <v>249.9</v>
       </c>
       <c r="I40" s="19">
-        <f>H40*$L$4</f>
+        <f t="shared" si="3"/>
         <v>24.990000000000002</v>
       </c>
       <c r="J40" s="19">
-        <f>H40-I40</f>
+        <f t="shared" si="4"/>
         <v>224.91</v>
       </c>
     </row>
@@ -4544,26 +4499,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E41" s="8">
-        <f>D41*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F41" s="8">
-        <f>D41-E41</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G41" s="22">
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <f>D41*G41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f>H41*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <f>H41-I41</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4581,26 +4536,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E42" s="19">
-        <f>D42*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F42" s="19">
-        <f>D42-E42</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G42" s="23">
         <v>1</v>
       </c>
       <c r="H42" s="19">
-        <f>D42*G42</f>
+        <f t="shared" si="2"/>
         <v>259.89999999999998</v>
       </c>
       <c r="I42" s="19">
-        <f>H42*$L$4</f>
+        <f t="shared" si="3"/>
         <v>25.99</v>
       </c>
       <c r="J42" s="19">
-        <f>H42-I42</f>
+        <f t="shared" si="4"/>
         <v>233.90999999999997</v>
       </c>
     </row>
@@ -4628,11 +4583,11 @@
       </c>
       <c r="E44" s="12">
         <f>SUM(E4:E42)</f>
-        <v>596.23</v>
+        <v>596.23000000000013</v>
       </c>
       <c r="F44" s="12">
         <f>D44-E44</f>
-        <v>5366.07</v>
+        <v>5366.0699999999988</v>
       </c>
       <c r="G44" s="25">
         <f>SUM(G4:G42)</f>
@@ -4652,6 +4607,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:J42" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
     <sortCondition ref="C4:C42" customList="Vestuário,Acessórios,Calçado"/>
     <sortCondition ref="B4:B42" customList="P,M,G,Único"/>
@@ -4662,11 +4618,11 @@
     <mergeCell ref="A43:J43"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4678,11 +4634,316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6B6464-060A-4320-B211-2B8B1FC6B4FA}">
+  <dimension ref="B2:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19">
+        <v>49.9</v>
+      </c>
+      <c r="F7" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="G7" s="19">
+        <v>44.91</v>
+      </c>
+      <c r="H7" s="23">
+        <v>21</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1047.8999999999999</v>
+      </c>
+      <c r="J7" s="19">
+        <v>104.78999999999999</v>
+      </c>
+      <c r="K7" s="19">
+        <v>943.1099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8">
+        <v>39.9</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="G8" s="8">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="H8" s="22">
+        <v>11</v>
+      </c>
+      <c r="I8" s="8">
+        <v>438.9</v>
+      </c>
+      <c r="J8" s="8">
+        <v>43.89</v>
+      </c>
+      <c r="K8" s="8">
+        <v>395.01</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>349.9</v>
+      </c>
+      <c r="F9" s="8">
+        <v>34.99</v>
+      </c>
+      <c r="G9" s="8">
+        <v>314.90999999999997</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="19">
+        <v>399.9</v>
+      </c>
+      <c r="F10" s="19">
+        <v>39.99</v>
+      </c>
+      <c r="G10" s="19">
+        <v>359.90999999999997</v>
+      </c>
+      <c r="H10" s="23">
+        <v>3</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1199.6999999999998</v>
+      </c>
+      <c r="J10" s="19">
+        <v>119.96999999999998</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1079.7299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19">
+        <v>145</v>
+      </c>
+      <c r="F11" s="19">
+        <v>14.5</v>
+      </c>
+      <c r="G11" s="19">
+        <v>130.5</v>
+      </c>
+      <c r="H11" s="23">
+        <v>2</v>
+      </c>
+      <c r="I11" s="19">
+        <v>290</v>
+      </c>
+      <c r="J11" s="19">
+        <v>29</v>
+      </c>
+      <c r="K11" s="19">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="F12" s="8">
+        <v>25.99</v>
+      </c>
+      <c r="G12" s="8">
+        <v>233.90999999999997</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="J12" s="8">
+        <v>25.99</v>
+      </c>
+      <c r="K12" s="8">
+        <v>233.90999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45CD3CF-30C5-4720-AC50-B58EC0224FEB}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6255,12 +6516,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB63E97-4BA3-43AE-A327-DB12941483B2}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7127,12 +7388,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FCF699-F2AA-44BE-9D2C-5CD3C169F985}">
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,26 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68019551-9944-4B37-AE34-1FDB3F344245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6F688D-A6CB-42B5-AC7F-0471616FE2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
-    <sheet name="Filtro Avançado" sheetId="7" r:id="rId2"/>
-    <sheet name="Produtos Tabela" sheetId="6" r:id="rId3"/>
-    <sheet name="Meu Gráfico" sheetId="5" r:id="rId4"/>
-    <sheet name="Tabela de Produtos" sheetId="3" r:id="rId5"/>
-    <sheet name="P-Gráfico" sheetId="4" r:id="rId6"/>
+    <sheet name="Lista de Indicadores" sheetId="8" r:id="rId2"/>
+    <sheet name="Filtro Avançado" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Produtos Tabela" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$3:$J$42</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">'Filtro Avançado'!$B$6:$K$6</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'Filtro Avançado'!$E$2:$E$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'Filtro Avançado'!$B$6:$K$6</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'Filtro Avançado'!$E$2:$E$3</definedName>
+    <definedName name="Int_Nome_Produtos">Produtos!$A$4:$A$42</definedName>
+    <definedName name="Int_Quantidade">Produtos!$G$4:$G$42</definedName>
+    <definedName name="Nome_Produtos">Produtos!$A$4:$A$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="59">
   <si>
     <t>Produtos</t>
   </si>
@@ -209,6 +213,24 @@
   <si>
     <t>&lt;12</t>
   </si>
+  <si>
+    <t>Meus Números</t>
+  </si>
+  <si>
+    <t>Contagem de Produtos</t>
+  </si>
+  <si>
+    <t>Contar só aquelas que tem uma determindada condição</t>
+  </si>
+  <si>
+    <t>Soma de Qtd em Estoque</t>
+  </si>
+  <si>
+    <t>Tênis*</t>
+  </si>
+  <si>
+    <t>( * ) -&gt; Pega todos</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +277,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +329,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -442,12 +484,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +717,41 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3033,8 +3204,8 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D1:D1048576"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,861 +3286,861 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8">
-        <v>42.5</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="E4" s="8">
         <f>D4*$L$4</f>
-        <v>4.25</v>
+        <v>6.5900000000000007</v>
       </c>
       <c r="F4" s="8">
         <f>D4-E4</f>
-        <v>38.25</v>
+        <v>59.31</v>
       </c>
       <c r="G4" s="22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H4" s="8">
         <f>D4*G4</f>
-        <v>255</v>
+        <v>790.80000000000007</v>
       </c>
       <c r="I4" s="8">
         <f>H4*$L$4</f>
-        <v>25.5</v>
+        <v>79.080000000000013</v>
       </c>
       <c r="J4" s="8">
         <f>H4-I4</f>
-        <v>229.5</v>
+        <v>711.72</v>
       </c>
       <c r="L4" s="15">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8">
-        <v>39.9</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="19">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E5" s="19">
         <f>D5*$L$4</f>
-        <v>3.99</v>
-      </c>
-      <c r="F5" s="8">
+        <v>6.9900000000000011</v>
+      </c>
+      <c r="F5" s="19">
         <f>D5-E5</f>
-        <v>35.909999999999997</v>
-      </c>
-      <c r="G5" s="22">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8">
+        <v>62.910000000000004</v>
+      </c>
+      <c r="G5" s="23">
+        <v>15</v>
+      </c>
+      <c r="H5" s="19">
         <f>D5*G5</f>
-        <v>478.79999999999995</v>
-      </c>
-      <c r="I5" s="8">
+        <v>1048.5</v>
+      </c>
+      <c r="I5" s="19">
         <f>H5*$L$4</f>
-        <v>47.879999999999995</v>
-      </c>
-      <c r="J5" s="8">
+        <v>104.85000000000001</v>
+      </c>
+      <c r="J5" s="19">
         <f>H5-I5</f>
-        <v>430.91999999999996</v>
+        <v>943.65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
-        <v>25.9</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="8">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E6" s="8">
         <f>D6*$L$4</f>
-        <v>2.59</v>
-      </c>
-      <c r="F6" s="7">
+        <v>7.0900000000000007</v>
+      </c>
+      <c r="F6" s="8">
         <f>D6-E6</f>
-        <v>23.31</v>
-      </c>
-      <c r="G6" s="24">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7">
+        <v>63.81</v>
+      </c>
+      <c r="G6" s="22">
+        <v>13</v>
+      </c>
+      <c r="H6" s="8">
         <f>D6*G6</f>
-        <v>310.79999999999995</v>
-      </c>
-      <c r="I6" s="7">
+        <v>921.7</v>
+      </c>
+      <c r="I6" s="8">
         <f>H6*$L$4</f>
-        <v>31.08</v>
-      </c>
-      <c r="J6" s="7">
+        <v>92.170000000000016</v>
+      </c>
+      <c r="J6" s="8">
         <f>H6-I6</f>
-        <v>279.71999999999997</v>
+        <v>829.53</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="19">
-        <v>44.9</v>
+        <v>145</v>
       </c>
       <c r="E7" s="19">
         <f>D7*$L$4</f>
-        <v>4.49</v>
+        <v>14.5</v>
       </c>
       <c r="F7" s="19">
         <f>D7-E7</f>
-        <v>40.409999999999997</v>
+        <v>130.5</v>
       </c>
       <c r="G7" s="23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="19">
         <f>D7*G7</f>
-        <v>224.5</v>
+        <v>290</v>
       </c>
       <c r="I7" s="19">
         <f>H7*$L$4</f>
-        <v>22.450000000000003</v>
+        <v>29</v>
       </c>
       <c r="J7" s="19">
         <f>H7-I7</f>
-        <v>202.05</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8">
-        <v>46.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="E8" s="8">
         <f>D8*$L$4</f>
-        <v>4.6900000000000004</v>
+        <v>25.99</v>
       </c>
       <c r="F8" s="8">
         <f>D8-E8</f>
-        <v>42.21</v>
+        <v>233.90999999999997</v>
       </c>
       <c r="G8" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>D8*G8</f>
-        <v>140.69999999999999</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="I8" s="8">
         <f>H8*$L$4</f>
-        <v>14.07</v>
+        <v>25.99</v>
       </c>
       <c r="J8" s="8">
         <f>H8-I8</f>
-        <v>126.63</v>
+        <v>233.90999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8">
+        <v>39.9</v>
+      </c>
+      <c r="E9" s="8">
+        <f>D9*$L$4</f>
+        <v>3.99</v>
+      </c>
+      <c r="F9" s="8">
+        <f>D9-E9</f>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="G9" s="22">
+        <v>11</v>
+      </c>
+      <c r="H9" s="8">
+        <f>D9*G9</f>
+        <v>438.9</v>
+      </c>
+      <c r="I9" s="8">
+        <f>H9*$L$4</f>
+        <v>43.89</v>
+      </c>
+      <c r="J9" s="8">
+        <f>H9-I9</f>
+        <v>395.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="19">
-        <v>48.9</v>
-      </c>
-      <c r="E9" s="19">
-        <f>D9*$L$4</f>
-        <v>4.8900000000000006</v>
-      </c>
-      <c r="F9" s="19">
-        <f>D9-E9</f>
-        <v>44.01</v>
-      </c>
-      <c r="G9" s="23">
-        <v>2</v>
-      </c>
-      <c r="H9" s="19">
-        <f>D9*G9</f>
-        <v>97.8</v>
-      </c>
-      <c r="I9" s="19">
-        <f>H9*$L$4</f>
-        <v>9.7800000000000011</v>
-      </c>
-      <c r="J9" s="19">
-        <f>H9-I9</f>
-        <v>88.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8">
-        <v>140</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="19">
+        <v>85.9</v>
+      </c>
+      <c r="E10" s="19">
         <f>D10*$L$4</f>
-        <v>14</v>
-      </c>
-      <c r="F10" s="8">
+        <v>8.5900000000000016</v>
+      </c>
+      <c r="F10" s="19">
         <f>D10-E10</f>
-        <v>126</v>
-      </c>
-      <c r="G10" s="22">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8">
+        <v>77.31</v>
+      </c>
+      <c r="G10" s="23">
+        <v>8</v>
+      </c>
+      <c r="H10" s="19">
         <f>D10*G10</f>
-        <v>280</v>
-      </c>
-      <c r="I10" s="8">
+        <v>687.2</v>
+      </c>
+      <c r="I10" s="19">
         <f>H10*$L$4</f>
-        <v>28</v>
-      </c>
-      <c r="J10" s="8">
+        <v>68.720000000000013</v>
+      </c>
+      <c r="J10" s="19">
         <f>H10-I10</f>
-        <v>252</v>
+        <v>618.48</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8">
-        <v>300</v>
+        <v>89.9</v>
       </c>
       <c r="E11" s="8">
         <f>D11*$L$4</f>
-        <v>30</v>
+        <v>8.99</v>
       </c>
       <c r="F11" s="8">
         <f>D11-E11</f>
-        <v>270</v>
+        <v>80.910000000000011</v>
       </c>
       <c r="G11" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" s="8">
         <f>D11*G11</f>
-        <v>300</v>
+        <v>449.5</v>
       </c>
       <c r="I11" s="8">
         <f>H11*$L$4</f>
-        <v>30</v>
+        <v>44.95</v>
       </c>
       <c r="J11" s="8">
         <f>H11-I11</f>
-        <v>270</v>
+        <v>404.55</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="19">
-        <v>249.9</v>
+        <v>92.9</v>
       </c>
       <c r="E12" s="19">
         <f>D12*$L$4</f>
-        <v>24.990000000000002</v>
+        <v>9.2900000000000009</v>
       </c>
       <c r="F12" s="19">
         <f>D12-E12</f>
-        <v>224.91</v>
+        <v>83.61</v>
       </c>
       <c r="G12" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H12" s="19">
         <f>D12*G12</f>
-        <v>249.9</v>
+        <v>557.40000000000009</v>
       </c>
       <c r="I12" s="19">
         <f>H12*$L$4</f>
-        <v>24.990000000000002</v>
+        <v>55.740000000000009</v>
       </c>
       <c r="J12" s="19">
         <f>H12-I12</f>
-        <v>224.91</v>
+        <v>501.66000000000008</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="19">
-        <v>49.9</v>
+        <v>44.9</v>
       </c>
       <c r="E13" s="19">
         <f>D13*$L$4</f>
-        <v>4.99</v>
+        <v>4.49</v>
       </c>
       <c r="F13" s="19">
         <f>D13-E13</f>
-        <v>44.91</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="G13" s="23">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H13" s="19">
         <f>D13*G13</f>
-        <v>1047.8999999999999</v>
+        <v>224.5</v>
       </c>
       <c r="I13" s="19">
         <f>H13*$L$4</f>
-        <v>104.78999999999999</v>
+        <v>22.450000000000003</v>
       </c>
       <c r="J13" s="19">
         <f>H13-I13</f>
-        <v>943.1099999999999</v>
+        <v>202.05</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8">
-        <v>65.900000000000006</v>
+        <v>46.9</v>
       </c>
       <c r="E14" s="8">
         <f>D14*$L$4</f>
-        <v>6.5900000000000007</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F14" s="8">
         <f>D14-E14</f>
-        <v>59.31</v>
+        <v>42.21</v>
       </c>
       <c r="G14" s="22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H14" s="8">
         <f>D14*G14</f>
-        <v>790.80000000000007</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="I14" s="8">
         <f>H14*$L$4</f>
-        <v>79.080000000000013</v>
+        <v>14.07</v>
       </c>
       <c r="J14" s="8">
         <f>H14-I14</f>
-        <v>711.72</v>
+        <v>126.63</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="19">
-        <v>39.9</v>
+        <v>48.9</v>
       </c>
       <c r="E15" s="19">
         <f>D15*$L$4</f>
-        <v>3.99</v>
+        <v>4.8900000000000006</v>
       </c>
       <c r="F15" s="19">
         <f>D15-E15</f>
-        <v>35.909999999999997</v>
+        <v>44.01</v>
       </c>
       <c r="G15" s="23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H15" s="19">
         <f>D15*G15</f>
-        <v>399</v>
+        <v>97.8</v>
       </c>
       <c r="I15" s="19">
         <f>H15*$L$4</f>
-        <v>39.900000000000006</v>
+        <v>9.7800000000000011</v>
       </c>
       <c r="J15" s="19">
         <f>H15-I15</f>
-        <v>359.1</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="8">
-        <v>29.9</v>
+        <v>42.5</v>
       </c>
       <c r="E16" s="8">
         <f>D16*$L$4</f>
-        <v>2.99</v>
+        <v>4.25</v>
       </c>
       <c r="F16" s="8">
         <f>D16-E16</f>
-        <v>26.909999999999997</v>
+        <v>38.25</v>
       </c>
       <c r="G16" s="22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H16" s="8">
         <f>D16*G16</f>
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I16" s="8">
         <f>H16*$L$4</f>
-        <v>29.900000000000002</v>
+        <v>25.5</v>
       </c>
       <c r="J16" s="8">
         <f>H16-I16</f>
-        <v>269.10000000000002</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8">
+        <v>39.9</v>
+      </c>
+      <c r="E17" s="8">
+        <f>D17*$L$4</f>
+        <v>3.99</v>
+      </c>
+      <c r="F17" s="8">
+        <f>D17-E17</f>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="G17" s="22">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8">
+        <f>D17*G17</f>
+        <v>478.79999999999995</v>
+      </c>
+      <c r="I17" s="8">
+        <f>H17*$L$4</f>
+        <v>47.879999999999995</v>
+      </c>
+      <c r="J17" s="8">
+        <f>H17-I17</f>
+        <v>430.91999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="19">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="E17" s="19">
-        <f>D17*$L$4</f>
-        <v>6.9900000000000011</v>
-      </c>
-      <c r="F17" s="19">
-        <f>D17-E17</f>
-        <v>62.910000000000004</v>
-      </c>
-      <c r="G17" s="23">
-        <v>15</v>
-      </c>
-      <c r="H17" s="19">
-        <f>D17*G17</f>
-        <v>1048.5</v>
-      </c>
-      <c r="I17" s="19">
-        <f>H17*$L$4</f>
-        <v>104.85000000000001</v>
-      </c>
-      <c r="J17" s="19">
-        <f>H17-I17</f>
-        <v>943.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="19">
+        <v>39.9</v>
+      </c>
+      <c r="E18" s="19">
         <f>D18*$L$4</f>
-        <v>7.0900000000000007</v>
-      </c>
-      <c r="F18" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="F18" s="19">
         <f>D18-E18</f>
-        <v>63.81</v>
-      </c>
-      <c r="G18" s="22">
-        <v>13</v>
-      </c>
-      <c r="H18" s="8">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="G18" s="23">
+        <v>10</v>
+      </c>
+      <c r="H18" s="19">
         <f>D18*G18</f>
-        <v>921.7</v>
-      </c>
-      <c r="I18" s="8">
+        <v>399</v>
+      </c>
+      <c r="I18" s="19">
         <f>H18*$L$4</f>
-        <v>92.170000000000016</v>
-      </c>
-      <c r="J18" s="8">
+        <v>39.900000000000006</v>
+      </c>
+      <c r="J18" s="19">
         <f>H18-I18</f>
-        <v>829.53</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="19">
-        <v>302.89999999999998</v>
+        <v>32.9</v>
       </c>
       <c r="E19" s="19">
         <f>D19*$L$4</f>
-        <v>30.29</v>
+        <v>3.29</v>
       </c>
       <c r="F19" s="19">
         <f>D19-E19</f>
-        <v>272.60999999999996</v>
+        <v>29.61</v>
       </c>
       <c r="G19" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" s="19">
         <f>D19*G19</f>
-        <v>605.79999999999995</v>
+        <v>197.39999999999998</v>
       </c>
       <c r="I19" s="19">
         <f>H19*$L$4</f>
-        <v>60.58</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="J19" s="19">
         <f>H19-I19</f>
-        <v>545.21999999999991</v>
+        <v>177.65999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="E20" s="7">
+        <f>D20*$L$4</f>
+        <v>2.59</v>
+      </c>
+      <c r="F20" s="7">
+        <f>D20-E20</f>
+        <v>23.31</v>
+      </c>
+      <c r="G20" s="24">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7">
+        <f>D20*G20</f>
+        <v>310.79999999999995</v>
+      </c>
+      <c r="I20" s="7">
+        <f>H20*$L$4</f>
+        <v>31.08</v>
+      </c>
+      <c r="J20" s="7">
+        <f>H20-I20</f>
+        <v>279.71999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E20" s="8">
-        <f>D20*$L$4</f>
-        <v>25.99</v>
-      </c>
-      <c r="F20" s="8">
-        <f>D20-E20</f>
-        <v>233.90999999999997</v>
-      </c>
-      <c r="G20" s="22">
-        <v>2</v>
-      </c>
-      <c r="H20" s="8">
-        <f>D20*G20</f>
-        <v>519.79999999999995</v>
-      </c>
-      <c r="I20" s="8">
-        <f>H20*$L$4</f>
-        <v>51.98</v>
-      </c>
-      <c r="J20" s="8">
-        <f>H20-I20</f>
-        <v>467.81999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="19">
-        <v>142.9</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="D21" s="8">
+        <v>29.9</v>
+      </c>
+      <c r="E21" s="8">
         <f>D21*$L$4</f>
-        <v>14.290000000000001</v>
-      </c>
-      <c r="F21" s="19">
+        <v>2.99</v>
+      </c>
+      <c r="F21" s="8">
         <f>D21-E21</f>
-        <v>128.61000000000001</v>
-      </c>
-      <c r="G21" s="23">
-        <v>2</v>
-      </c>
-      <c r="H21" s="19">
+        <v>26.909999999999997</v>
+      </c>
+      <c r="G21" s="22">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8">
         <f>D21*G21</f>
-        <v>285.8</v>
-      </c>
-      <c r="I21" s="19">
+        <v>299</v>
+      </c>
+      <c r="I21" s="8">
         <f>H21*$L$4</f>
-        <v>28.580000000000002</v>
-      </c>
-      <c r="J21" s="19">
+        <v>29.900000000000002</v>
+      </c>
+      <c r="J21" s="8">
         <f>H21-I21</f>
-        <v>257.22000000000003</v>
+        <v>269.10000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="19">
-        <v>85.9</v>
+        <v>49.9</v>
       </c>
       <c r="E22" s="19">
         <f>D22*$L$4</f>
-        <v>8.5900000000000016</v>
+        <v>4.99</v>
       </c>
       <c r="F22" s="19">
         <f>D22-E22</f>
-        <v>77.31</v>
+        <v>44.91</v>
       </c>
       <c r="G22" s="23">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H22" s="19">
         <f>D22*G22</f>
-        <v>687.2</v>
+        <v>1047.8999999999999</v>
       </c>
       <c r="I22" s="19">
         <f>H22*$L$4</f>
-        <v>68.720000000000013</v>
+        <v>104.78999999999999</v>
       </c>
       <c r="J22" s="19">
         <f>H22-I22</f>
-        <v>618.48</v>
+        <v>943.1099999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="7">
-        <v>89.9</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="8">
+        <v>300</v>
+      </c>
+      <c r="E23" s="8">
         <f>D23*$L$4</f>
-        <v>8.99</v>
-      </c>
-      <c r="F23" s="7">
+        <v>30</v>
+      </c>
+      <c r="F23" s="8">
         <f>D23-E23</f>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="G23" s="24">
-        <v>3</v>
-      </c>
-      <c r="H23" s="7">
+        <v>270</v>
+      </c>
+      <c r="G23" s="22">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
         <f>D23*G23</f>
-        <v>269.70000000000005</v>
-      </c>
-      <c r="I23" s="7">
+        <v>300</v>
+      </c>
+      <c r="I23" s="8">
         <f>H23*$L$4</f>
-        <v>26.970000000000006</v>
-      </c>
-      <c r="J23" s="7">
+        <v>30</v>
+      </c>
+      <c r="J23" s="8">
         <f>H23-I23</f>
-        <v>242.73000000000005</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="8">
-        <v>89.9</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="19">
+        <v>302.89999999999998</v>
+      </c>
+      <c r="E24" s="19">
         <f>D24*$L$4</f>
-        <v>8.99</v>
-      </c>
-      <c r="F24" s="8">
+        <v>30.29</v>
+      </c>
+      <c r="F24" s="19">
         <f>D24-E24</f>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="G24" s="22">
-        <v>5</v>
-      </c>
-      <c r="H24" s="8">
+        <v>272.60999999999996</v>
+      </c>
+      <c r="G24" s="23">
+        <v>2</v>
+      </c>
+      <c r="H24" s="19">
         <f>D24*G24</f>
-        <v>449.5</v>
-      </c>
-      <c r="I24" s="8">
+        <v>605.79999999999995</v>
+      </c>
+      <c r="I24" s="19">
         <f>H24*$L$4</f>
-        <v>44.95</v>
-      </c>
-      <c r="J24" s="8">
+        <v>60.58</v>
+      </c>
+      <c r="J24" s="19">
         <f>H24-I24</f>
-        <v>404.55</v>
+        <v>545.21999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="19">
-        <v>32.9</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="D25" s="8">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E25" s="8">
         <f>D25*$L$4</f>
-        <v>3.29</v>
-      </c>
-      <c r="F25" s="19">
+        <v>29.99</v>
+      </c>
+      <c r="F25" s="8">
         <f>D25-E25</f>
-        <v>29.61</v>
-      </c>
-      <c r="G25" s="23">
-        <v>6</v>
-      </c>
-      <c r="H25" s="19">
+        <v>269.90999999999997</v>
+      </c>
+      <c r="G25" s="22">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8">
         <f>D25*G25</f>
-        <v>197.39999999999998</v>
-      </c>
-      <c r="I25" s="19">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="I25" s="8">
         <f>H25*$L$4</f>
-        <v>19.739999999999998</v>
-      </c>
-      <c r="J25" s="19">
+        <v>29.99</v>
+      </c>
+      <c r="J25" s="8">
         <f>H25-I25</f>
-        <v>177.65999999999997</v>
+        <v>269.90999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="8">
-        <v>146</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="D26" s="19">
+        <v>249.9</v>
+      </c>
+      <c r="E26" s="19">
         <f>D26*$L$4</f>
-        <v>14.600000000000001</v>
-      </c>
-      <c r="F26" s="8">
+        <v>24.990000000000002</v>
+      </c>
+      <c r="F26" s="19">
         <f>D26-E26</f>
-        <v>131.4</v>
-      </c>
-      <c r="G26" s="22">
-        <v>2</v>
-      </c>
-      <c r="H26" s="8">
+        <v>224.91</v>
+      </c>
+      <c r="G26" s="23">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19">
         <f>D26*G26</f>
-        <v>292</v>
-      </c>
-      <c r="I26" s="8">
+        <v>249.9</v>
+      </c>
+      <c r="I26" s="19">
         <f>H26*$L$4</f>
-        <v>29.200000000000003</v>
-      </c>
-      <c r="J26" s="8">
+        <v>24.990000000000002</v>
+      </c>
+      <c r="J26" s="19">
         <f>H26-I26</f>
-        <v>262.8</v>
+        <v>224.91</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>8</v>
@@ -3978,35 +4149,35 @@
         <v>19</v>
       </c>
       <c r="D27" s="8">
-        <v>91.4</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="E27" s="8">
         <f>D27*$L$4</f>
-        <v>9.14</v>
+        <v>25.99</v>
       </c>
       <c r="F27" s="8">
         <f>D27-E27</f>
-        <v>82.26</v>
+        <v>233.90999999999997</v>
       </c>
       <c r="G27" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="8">
         <f>D27*G27</f>
-        <v>0</v>
+        <v>519.79999999999995</v>
       </c>
       <c r="I27" s="8">
         <f>H27*$L$4</f>
-        <v>0</v>
+        <v>51.98</v>
       </c>
       <c r="J27" s="8">
         <f>H27-I27</f>
-        <v>0</v>
+        <v>467.81999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>9</v>
@@ -4015,548 +4186,548 @@
         <v>19</v>
       </c>
       <c r="D28" s="19">
-        <v>92.9</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="E28" s="19">
         <f>D28*$L$4</f>
-        <v>9.2900000000000009</v>
+        <v>29.99</v>
       </c>
       <c r="F28" s="19">
         <f>D28-E28</f>
-        <v>83.61</v>
+        <v>269.90999999999997</v>
       </c>
       <c r="G28" s="23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H28" s="19">
         <f>D28*G28</f>
-        <v>557.40000000000009</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="I28" s="19">
         <f>H28*$L$4</f>
-        <v>55.740000000000009</v>
+        <v>29.99</v>
       </c>
       <c r="J28" s="19">
         <f>H28-I28</f>
-        <v>501.66000000000008</v>
+        <v>269.90999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="8">
-        <v>299.89999999999998</v>
+        <v>349.9</v>
       </c>
       <c r="E29" s="8">
         <f>D29*$L$4</f>
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="F29" s="8">
         <f>D29-E29</f>
-        <v>269.90999999999997</v>
+        <v>314.90999999999997</v>
       </c>
       <c r="G29" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="8">
         <f>D29*G29</f>
-        <v>299.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="I29" s="8">
         <f>H29*$L$4</f>
-        <v>29.99</v>
+        <v>0</v>
       </c>
       <c r="J29" s="8">
         <f>H29-I29</f>
-        <v>269.90999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="19">
-        <v>299.89999999999998</v>
+        <v>399.9</v>
       </c>
       <c r="E30" s="19">
         <f>D30*$L$4</f>
-        <v>29.99</v>
+        <v>39.99</v>
       </c>
       <c r="F30" s="19">
         <f>D30-E30</f>
-        <v>269.90999999999997</v>
+        <v>359.90999999999997</v>
       </c>
       <c r="G30" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="19">
         <f>D30*G30</f>
-        <v>299.89999999999998</v>
+        <v>1199.6999999999998</v>
       </c>
       <c r="I30" s="19">
         <f>H30*$L$4</f>
-        <v>29.99</v>
+        <v>119.96999999999998</v>
       </c>
       <c r="J30" s="19">
         <f>H30-I30</f>
-        <v>269.90999999999997</v>
+        <v>1079.7299999999998</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="B31" s="23">
+        <v>36</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D31" s="19">
-        <v>93.5</v>
+        <v>249.9</v>
       </c>
       <c r="E31" s="19">
         <f>D31*$L$4</f>
-        <v>9.35</v>
+        <v>24.990000000000002</v>
       </c>
       <c r="F31" s="19">
         <f>D31-E31</f>
-        <v>84.15</v>
+        <v>224.91</v>
       </c>
       <c r="G31" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H31" s="19">
         <f>D31*G31</f>
-        <v>187</v>
+        <v>1249.5</v>
       </c>
       <c r="I31" s="19">
         <f>H31*$L$4</f>
-        <v>18.7</v>
+        <v>124.95</v>
       </c>
       <c r="J31" s="19">
         <f>H31-I31</f>
-        <v>168.3</v>
+        <v>1124.55</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="B32" s="22">
+        <v>37</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="8">
-        <v>39.9</v>
+        <v>255</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" ref="E4:E42" si="0">D32*$L$4</f>
-        <v>3.99</v>
+        <f>D32*$L$4</f>
+        <v>25.5</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" ref="F4:F42" si="1">D32-E32</f>
-        <v>35.909999999999997</v>
+        <f>D32-E32</f>
+        <v>229.5</v>
       </c>
       <c r="G32" s="22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" ref="H4:H42" si="2">D32*G32</f>
-        <v>438.9</v>
+        <f>D32*G32</f>
+        <v>765</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" ref="I4:I42" si="3">H32*$L$4</f>
-        <v>43.89</v>
+        <f>H32*$L$4</f>
+        <v>76.5</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" ref="J4:J42" si="4">H32-I32</f>
-        <v>395.01</v>
+        <f>H32-I32</f>
+        <v>688.5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="8">
-        <v>349.9</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="0"/>
-        <v>34.99</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="1"/>
-        <v>314.90999999999997</v>
-      </c>
-      <c r="G33" s="22">
+      <c r="A33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="23">
+        <v>38</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="19">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E33" s="19">
+        <f>D33*$L$4</f>
+        <v>25.99</v>
+      </c>
+      <c r="F33" s="19">
+        <f>D33-E33</f>
+        <v>233.90999999999997</v>
+      </c>
+      <c r="G33" s="23">
+        <v>1</v>
+      </c>
+      <c r="H33" s="19">
+        <f>D33*G33</f>
+        <v>259.89999999999998</v>
+      </c>
+      <c r="I33" s="19">
+        <f>H33*$L$4</f>
+        <v>25.99</v>
+      </c>
+      <c r="J33" s="19">
+        <f>H33-I33</f>
+        <v>233.90999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="22">
+        <v>36</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="8">
+        <v>199.9</v>
+      </c>
+      <c r="E34" s="8">
+        <f>D34*$L$4</f>
+        <v>19.990000000000002</v>
+      </c>
+      <c r="F34" s="8">
+        <f>D34-E34</f>
+        <v>179.91</v>
+      </c>
+      <c r="G34" s="22">
         <v>0</v>
       </c>
-      <c r="H33" s="8">
-        <f t="shared" si="2"/>
+      <c r="H34" s="8">
+        <f>D34*G34</f>
         <v>0</v>
       </c>
-      <c r="I33" s="8">
-        <f t="shared" si="3"/>
+      <c r="I34" s="8">
+        <f>H34*$L$4</f>
         <v>0</v>
       </c>
-      <c r="J33" s="8">
-        <f t="shared" si="4"/>
+      <c r="J34" s="8">
+        <f>H34-I34</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="19">
-        <v>399.9</v>
-      </c>
-      <c r="E34" s="19">
-        <f t="shared" si="0"/>
-        <v>39.99</v>
-      </c>
-      <c r="F34" s="19">
-        <f t="shared" si="1"/>
-        <v>359.90999999999997</v>
-      </c>
-      <c r="G34" s="23">
-        <v>3</v>
-      </c>
-      <c r="H34" s="19">
-        <f t="shared" si="2"/>
-        <v>1199.6999999999998</v>
-      </c>
-      <c r="I34" s="19">
-        <f t="shared" si="3"/>
-        <v>119.96999999999998</v>
-      </c>
-      <c r="J34" s="19">
-        <f t="shared" si="4"/>
-        <v>1079.7299999999998</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="B35" s="23">
+        <v>37</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" s="19">
-        <v>145</v>
+        <v>249.9</v>
       </c>
       <c r="E35" s="19">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
+        <f>D35*$L$4</f>
+        <v>24.990000000000002</v>
       </c>
       <c r="F35" s="19">
-        <f t="shared" si="1"/>
-        <v>130.5</v>
+        <f>D35-E35</f>
+        <v>224.91</v>
       </c>
       <c r="G35" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="2"/>
-        <v>290</v>
+        <f>D35*G35</f>
+        <v>249.9</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <f>H35*$L$4</f>
+        <v>24.990000000000002</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" si="4"/>
-        <v>261</v>
+        <f>H35-I35</f>
+        <v>224.91</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="B36" s="22">
+        <v>38</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" s="8">
         <v>259.89999999999998</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="0"/>
+        <f>D36*$L$4</f>
         <v>25.99</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="1"/>
+        <f>D36-E36</f>
         <v>233.90999999999997</v>
       </c>
       <c r="G36" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="2"/>
-        <v>259.89999999999998</v>
+        <f>D36*G36</f>
+        <v>0</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="3"/>
-        <v>25.99</v>
+        <f>H36*$L$4</f>
+        <v>0</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="4"/>
-        <v>233.90999999999997</v>
+        <f>H36-I36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="22">
-        <v>36</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="8">
-        <v>199.9</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="0"/>
-        <v>19.990000000000002</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="1"/>
-        <v>179.91</v>
-      </c>
-      <c r="G37" s="22">
+      <c r="A37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="7">
+        <v>89.9</v>
+      </c>
+      <c r="E37" s="7">
+        <f>D37*$L$4</f>
+        <v>8.99</v>
+      </c>
+      <c r="F37" s="7">
+        <f>D37-E37</f>
+        <v>80.910000000000011</v>
+      </c>
+      <c r="G37" s="24">
+        <v>3</v>
+      </c>
+      <c r="H37" s="7">
+        <f>D37*G37</f>
+        <v>269.70000000000005</v>
+      </c>
+      <c r="I37" s="7">
+        <f>H37*$L$4</f>
+        <v>26.970000000000006</v>
+      </c>
+      <c r="J37" s="7">
+        <f>H37-I37</f>
+        <v>242.73000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="8">
+        <v>91.4</v>
+      </c>
+      <c r="E38" s="8">
+        <f>D38*$L$4</f>
+        <v>9.14</v>
+      </c>
+      <c r="F38" s="8">
+        <f>D38-E38</f>
+        <v>82.26</v>
+      </c>
+      <c r="G38" s="22">
         <v>0</v>
       </c>
-      <c r="H37" s="8">
-        <f t="shared" si="2"/>
+      <c r="H38" s="8">
+        <f>D38*G38</f>
         <v>0</v>
       </c>
-      <c r="I37" s="8">
-        <f t="shared" si="3"/>
+      <c r="I38" s="8">
+        <f>H38*$L$4</f>
         <v>0</v>
       </c>
-      <c r="J37" s="8">
-        <f t="shared" si="4"/>
+      <c r="J38" s="8">
+        <f>H38-I38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="23">
-        <v>36</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="19">
-        <v>249.9</v>
-      </c>
-      <c r="E38" s="19">
-        <f t="shared" si="0"/>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="F38" s="19">
-        <f t="shared" si="1"/>
-        <v>224.91</v>
-      </c>
-      <c r="G38" s="23">
-        <v>5</v>
-      </c>
-      <c r="H38" s="19">
-        <f t="shared" si="2"/>
-        <v>1249.5</v>
-      </c>
-      <c r="I38" s="19">
-        <f t="shared" si="3"/>
-        <v>124.95</v>
-      </c>
-      <c r="J38" s="19">
-        <f t="shared" si="4"/>
-        <v>1124.55</v>
-      </c>
-    </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="22">
-        <v>37</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="8">
-        <v>255</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="0"/>
-        <v>25.5</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="1"/>
-        <v>229.5</v>
-      </c>
-      <c r="G39" s="22">
-        <v>3</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="2"/>
-        <v>765</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" si="3"/>
-        <v>76.5</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="4"/>
-        <v>688.5</v>
+      <c r="A39" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="19">
+        <v>93.5</v>
+      </c>
+      <c r="E39" s="19">
+        <f>D39*$L$4</f>
+        <v>9.35</v>
+      </c>
+      <c r="F39" s="19">
+        <f>D39-E39</f>
+        <v>84.15</v>
+      </c>
+      <c r="G39" s="23">
+        <v>2</v>
+      </c>
+      <c r="H39" s="19">
+        <f>D39*G39</f>
+        <v>187</v>
+      </c>
+      <c r="I39" s="19">
+        <f>H39*$L$4</f>
+        <v>18.7</v>
+      </c>
+      <c r="J39" s="19">
+        <f>H39-I39</f>
+        <v>168.3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="23">
-        <v>37</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="19">
-        <v>249.9</v>
-      </c>
-      <c r="E40" s="19">
-        <f t="shared" si="0"/>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="F40" s="19">
-        <f t="shared" si="1"/>
-        <v>224.91</v>
-      </c>
-      <c r="G40" s="23">
-        <v>1</v>
-      </c>
-      <c r="H40" s="19">
-        <f t="shared" si="2"/>
-        <v>249.9</v>
-      </c>
-      <c r="I40" s="19">
-        <f t="shared" si="3"/>
-        <v>24.990000000000002</v>
-      </c>
-      <c r="J40" s="19">
-        <f t="shared" si="4"/>
-        <v>224.91</v>
+      <c r="A40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="8">
+        <v>140</v>
+      </c>
+      <c r="E40" s="8">
+        <f>D40*$L$4</f>
+        <v>14</v>
+      </c>
+      <c r="F40" s="8">
+        <f>D40-E40</f>
+        <v>126</v>
+      </c>
+      <c r="G40" s="22">
+        <v>2</v>
+      </c>
+      <c r="H40" s="8">
+        <f>D40*G40</f>
+        <v>280</v>
+      </c>
+      <c r="I40" s="8">
+        <f>H40*$L$4</f>
+        <v>28</v>
+      </c>
+      <c r="J40" s="8">
+        <f>H40-I40</f>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="22">
-        <v>38</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="0"/>
-        <v>25.99</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="1"/>
-        <v>233.90999999999997</v>
-      </c>
-      <c r="G41" s="22">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="A41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="19">
+        <v>142.9</v>
+      </c>
+      <c r="E41" s="19">
+        <f>D41*$L$4</f>
+        <v>14.290000000000001</v>
+      </c>
+      <c r="F41" s="19">
+        <f>D41-E41</f>
+        <v>128.61000000000001</v>
+      </c>
+      <c r="G41" s="23">
+        <v>2</v>
+      </c>
+      <c r="H41" s="19">
+        <f>D41*G41</f>
+        <v>285.8</v>
+      </c>
+      <c r="I41" s="19">
+        <f>H41*$L$4</f>
+        <v>28.580000000000002</v>
+      </c>
+      <c r="J41" s="19">
+        <f>H41-I41</f>
+        <v>257.22000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="23">
-        <v>38</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="19">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E42" s="19">
-        <f t="shared" si="0"/>
-        <v>25.99</v>
-      </c>
-      <c r="F42" s="19">
-        <f t="shared" si="1"/>
-        <v>233.90999999999997</v>
-      </c>
-      <c r="G42" s="23">
-        <v>1</v>
-      </c>
-      <c r="H42" s="19">
-        <f t="shared" si="2"/>
-        <v>259.89999999999998</v>
-      </c>
-      <c r="I42" s="19">
-        <f t="shared" si="3"/>
-        <v>25.99</v>
-      </c>
-      <c r="J42" s="19">
-        <f t="shared" si="4"/>
-        <v>233.90999999999997</v>
+      <c r="A42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="8">
+        <v>146</v>
+      </c>
+      <c r="E42" s="8">
+        <f>D42*$L$4</f>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="F42" s="8">
+        <f>D42-E42</f>
+        <v>131.4</v>
+      </c>
+      <c r="G42" s="22">
+        <v>2</v>
+      </c>
+      <c r="H42" s="8">
+        <f>D42*G42</f>
+        <v>292</v>
+      </c>
+      <c r="I42" s="8">
+        <f>H42*$L$4</f>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="J42" s="8">
+        <f>H42-I42</f>
+        <v>262.8</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4579,15 +4750,15 @@
       <c r="C44" s="47"/>
       <c r="D44" s="12">
         <f>SUM(D4:D42)</f>
-        <v>5962.2999999999993</v>
+        <v>5962.2999999999984</v>
       </c>
       <c r="E44" s="12">
         <f>SUM(E4:E42)</f>
-        <v>596.23000000000013</v>
+        <v>596.23</v>
       </c>
       <c r="F44" s="12">
         <f>D44-E44</f>
-        <v>5366.0699999999988</v>
+        <v>5366.0699999999979</v>
       </c>
       <c r="G44" s="25">
         <f>SUM(G4:G42)</f>
@@ -4595,7 +4766,7 @@
       </c>
       <c r="H44" s="12">
         <f>SUM(H4:H42)</f>
-        <v>16208.599999999997</v>
+        <v>16208.599999999995</v>
       </c>
       <c r="I44" s="12">
         <f>H44*$L$4</f>
@@ -4603,11 +4774,15 @@
       </c>
       <c r="J44" s="12">
         <f>H44-I44</f>
-        <v>14587.739999999998</v>
+        <v>14587.739999999994</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J42" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}"/>
+  <autoFilter ref="A3:J42" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
+      <sortCondition ref="A3:A42"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
     <sortCondition ref="C4:C42" customList="Vestuário,Acessórios,Calçado"/>
     <sortCondition ref="B4:B42" customList="P,M,G,Único"/>
@@ -4634,11 +4809,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C0E92-991A-462E-8787-E4D9C612A80E}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D2" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="70"/>
+    </row>
+    <row r="3" spans="1:6" s="61" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:6" s="62" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="67">
+        <f>COUNTIF(Produtos!G4:G42,"&gt;0")</f>
+        <v>35</v>
+      </c>
+      <c r="C4" s="64">
+        <f>SUM(Produtos!G4:G42)</f>
+        <v>192</v>
+      </c>
+      <c r="D4" s="64">
+        <f>COUNTIF(Int_Nome_Produtos,D2)</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="64">
+        <f>SUMIF(Int_Nome_Produtos,D2,Int_Quantidade)</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="64"/>
+    </row>
+    <row r="5" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="65">
+        <f>Produtos!G44</f>
+        <v>192</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6B6464-060A-4320-B211-2B8B1FC6B4FA}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4938,12 +5195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45CD3CF-30C5-4720-AC50-B58EC0224FEB}">
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6516,12 +6773,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB63E97-4BA3-43AE-A327-DB12941483B2}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7388,12 +7645,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FCF699-F2AA-44BE-9D2C-5CD3C169F985}">
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6F688D-A6CB-42B5-AC7F-0471616FE2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01216CA5-596E-4136-A524-8B1DA43FDFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="58">
   <si>
     <t>Produtos</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Soma de Qtd em Estoque</t>
   </si>
   <si>
-    <t>Tênis*</t>
-  </si>
-  <si>
     <t>( * ) -&gt; Pega todos</t>
   </si>
 </sst>
@@ -239,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +284,22 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -579,11 +592,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,6 +701,26 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,6 +748,12 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,45 +763,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{5AB88DA2-1741-4E2D-B0E8-5223CA164138}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Titulo Meteora" xfId="2" xr:uid="{BEE78EB7-AC5E-4F74-92AD-4A7505DF0739}"/>
   </cellStyles>
   <dxfs count="45">
     <dxf>
@@ -3203,9 +3221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:J36"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,30 +3242,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3298,26 +3316,26 @@
         <v>65.900000000000006</v>
       </c>
       <c r="E4" s="8">
-        <f>D4*$L$4</f>
+        <f t="shared" ref="E4:E42" si="0">D4*$L$4</f>
         <v>6.5900000000000007</v>
       </c>
       <c r="F4" s="8">
-        <f>D4-E4</f>
+        <f t="shared" ref="F4:F42" si="1">D4-E4</f>
         <v>59.31</v>
       </c>
       <c r="G4" s="22">
         <v>12</v>
       </c>
       <c r="H4" s="8">
-        <f>D4*G4</f>
+        <f t="shared" ref="H4:H42" si="2">D4*G4</f>
         <v>790.80000000000007</v>
       </c>
       <c r="I4" s="8">
-        <f>H4*$L$4</f>
+        <f t="shared" ref="I4:I42" si="3">H4*$L$4</f>
         <v>79.080000000000013</v>
       </c>
       <c r="J4" s="8">
-        <f>H4-I4</f>
+        <f t="shared" ref="J4:J42" si="4">H4-I4</f>
         <v>711.72</v>
       </c>
       <c r="L4" s="15">
@@ -3338,26 +3356,26 @@
         <v>69.900000000000006</v>
       </c>
       <c r="E5" s="19">
-        <f>D5*$L$4</f>
+        <f t="shared" si="0"/>
         <v>6.9900000000000011</v>
       </c>
       <c r="F5" s="19">
-        <f>D5-E5</f>
+        <f t="shared" si="1"/>
         <v>62.910000000000004</v>
       </c>
       <c r="G5" s="23">
         <v>15</v>
       </c>
       <c r="H5" s="19">
-        <f>D5*G5</f>
+        <f t="shared" si="2"/>
         <v>1048.5</v>
       </c>
       <c r="I5" s="19">
-        <f>H5*$L$4</f>
+        <f t="shared" si="3"/>
         <v>104.85000000000001</v>
       </c>
       <c r="J5" s="19">
-        <f>H5-I5</f>
+        <f t="shared" si="4"/>
         <v>943.65</v>
       </c>
     </row>
@@ -3375,26 +3393,26 @@
         <v>70.900000000000006</v>
       </c>
       <c r="E6" s="8">
-        <f>D6*$L$4</f>
+        <f t="shared" si="0"/>
         <v>7.0900000000000007</v>
       </c>
       <c r="F6" s="8">
-        <f>D6-E6</f>
+        <f t="shared" si="1"/>
         <v>63.81</v>
       </c>
       <c r="G6" s="22">
         <v>13</v>
       </c>
       <c r="H6" s="8">
-        <f>D6*G6</f>
+        <f t="shared" si="2"/>
         <v>921.7</v>
       </c>
       <c r="I6" s="8">
-        <f>H6*$L$4</f>
+        <f t="shared" si="3"/>
         <v>92.170000000000016</v>
       </c>
       <c r="J6" s="8">
-        <f>H6-I6</f>
+        <f t="shared" si="4"/>
         <v>829.53</v>
       </c>
     </row>
@@ -3412,26 +3430,26 @@
         <v>145</v>
       </c>
       <c r="E7" s="19">
-        <f>D7*$L$4</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="F7" s="19">
-        <f>D7-E7</f>
+        <f t="shared" si="1"/>
         <v>130.5</v>
       </c>
       <c r="G7" s="23">
         <v>2</v>
       </c>
       <c r="H7" s="19">
-        <f>D7*G7</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="I7" s="19">
-        <f>H7*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="J7" s="19">
-        <f>H7-I7</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
     </row>
@@ -3449,26 +3467,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E8" s="8">
-        <f>D8*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F8" s="8">
-        <f>D8-E8</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G8" s="22">
         <v>1</v>
       </c>
       <c r="H8" s="8">
-        <f>D8*G8</f>
+        <f t="shared" si="2"/>
         <v>259.89999999999998</v>
       </c>
       <c r="I8" s="8">
-        <f>H8*$L$4</f>
+        <f t="shared" si="3"/>
         <v>25.99</v>
       </c>
       <c r="J8" s="8">
-        <f>H8-I8</f>
+        <f t="shared" si="4"/>
         <v>233.90999999999997</v>
       </c>
     </row>
@@ -3486,26 +3504,26 @@
         <v>39.9</v>
       </c>
       <c r="E9" s="8">
-        <f>D9*$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="F9" s="8">
-        <f>D9-E9</f>
+        <f t="shared" si="1"/>
         <v>35.909999999999997</v>
       </c>
       <c r="G9" s="22">
         <v>11</v>
       </c>
       <c r="H9" s="8">
-        <f>D9*G9</f>
+        <f t="shared" si="2"/>
         <v>438.9</v>
       </c>
       <c r="I9" s="8">
-        <f>H9*$L$4</f>
+        <f t="shared" si="3"/>
         <v>43.89</v>
       </c>
       <c r="J9" s="8">
-        <f>H9-I9</f>
+        <f t="shared" si="4"/>
         <v>395.01</v>
       </c>
     </row>
@@ -3523,26 +3541,26 @@
         <v>85.9</v>
       </c>
       <c r="E10" s="19">
-        <f>D10*$L$4</f>
+        <f t="shared" si="0"/>
         <v>8.5900000000000016</v>
       </c>
       <c r="F10" s="19">
-        <f>D10-E10</f>
+        <f t="shared" si="1"/>
         <v>77.31</v>
       </c>
       <c r="G10" s="23">
         <v>8</v>
       </c>
       <c r="H10" s="19">
-        <f>D10*G10</f>
+        <f t="shared" si="2"/>
         <v>687.2</v>
       </c>
       <c r="I10" s="19">
-        <f>H10*$L$4</f>
+        <f t="shared" si="3"/>
         <v>68.720000000000013</v>
       </c>
       <c r="J10" s="19">
-        <f>H10-I10</f>
+        <f t="shared" si="4"/>
         <v>618.48</v>
       </c>
     </row>
@@ -3560,26 +3578,26 @@
         <v>89.9</v>
       </c>
       <c r="E11" s="8">
-        <f>D11*$L$4</f>
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="F11" s="8">
-        <f>D11-E11</f>
+        <f t="shared" si="1"/>
         <v>80.910000000000011</v>
       </c>
       <c r="G11" s="22">
         <v>5</v>
       </c>
       <c r="H11" s="8">
-        <f>D11*G11</f>
+        <f t="shared" si="2"/>
         <v>449.5</v>
       </c>
       <c r="I11" s="8">
-        <f>H11*$L$4</f>
+        <f t="shared" si="3"/>
         <v>44.95</v>
       </c>
       <c r="J11" s="8">
-        <f>H11-I11</f>
+        <f t="shared" si="4"/>
         <v>404.55</v>
       </c>
     </row>
@@ -3597,26 +3615,26 @@
         <v>92.9</v>
       </c>
       <c r="E12" s="19">
-        <f>D12*$L$4</f>
+        <f t="shared" si="0"/>
         <v>9.2900000000000009</v>
       </c>
       <c r="F12" s="19">
-        <f>D12-E12</f>
+        <f t="shared" si="1"/>
         <v>83.61</v>
       </c>
       <c r="G12" s="23">
         <v>6</v>
       </c>
       <c r="H12" s="19">
-        <f>D12*G12</f>
+        <f t="shared" si="2"/>
         <v>557.40000000000009</v>
       </c>
       <c r="I12" s="19">
-        <f>H12*$L$4</f>
+        <f t="shared" si="3"/>
         <v>55.740000000000009</v>
       </c>
       <c r="J12" s="19">
-        <f>H12-I12</f>
+        <f t="shared" si="4"/>
         <v>501.66000000000008</v>
       </c>
     </row>
@@ -3634,26 +3652,26 @@
         <v>44.9</v>
       </c>
       <c r="E13" s="19">
-        <f>D13*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.49</v>
       </c>
       <c r="F13" s="19">
-        <f>D13-E13</f>
+        <f t="shared" si="1"/>
         <v>40.409999999999997</v>
       </c>
       <c r="G13" s="23">
         <v>5</v>
       </c>
       <c r="H13" s="19">
-        <f>D13*G13</f>
+        <f t="shared" si="2"/>
         <v>224.5</v>
       </c>
       <c r="I13" s="19">
-        <f>H13*$L$4</f>
+        <f t="shared" si="3"/>
         <v>22.450000000000003</v>
       </c>
       <c r="J13" s="19">
-        <f>H13-I13</f>
+        <f t="shared" si="4"/>
         <v>202.05</v>
       </c>
     </row>
@@ -3671,26 +3689,26 @@
         <v>46.9</v>
       </c>
       <c r="E14" s="8">
-        <f>D14*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="F14" s="8">
-        <f>D14-E14</f>
+        <f t="shared" si="1"/>
         <v>42.21</v>
       </c>
       <c r="G14" s="22">
         <v>3</v>
       </c>
       <c r="H14" s="8">
-        <f>D14*G14</f>
+        <f t="shared" si="2"/>
         <v>140.69999999999999</v>
       </c>
       <c r="I14" s="8">
-        <f>H14*$L$4</f>
+        <f t="shared" si="3"/>
         <v>14.07</v>
       </c>
       <c r="J14" s="8">
-        <f>H14-I14</f>
+        <f t="shared" si="4"/>
         <v>126.63</v>
       </c>
     </row>
@@ -3708,26 +3726,26 @@
         <v>48.9</v>
       </c>
       <c r="E15" s="19">
-        <f>D15*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.8900000000000006</v>
       </c>
       <c r="F15" s="19">
-        <f>D15-E15</f>
+        <f t="shared" si="1"/>
         <v>44.01</v>
       </c>
       <c r="G15" s="23">
         <v>2</v>
       </c>
       <c r="H15" s="19">
-        <f>D15*G15</f>
+        <f t="shared" si="2"/>
         <v>97.8</v>
       </c>
       <c r="I15" s="19">
-        <f>H15*$L$4</f>
+        <f t="shared" si="3"/>
         <v>9.7800000000000011</v>
       </c>
       <c r="J15" s="19">
-        <f>H15-I15</f>
+        <f t="shared" si="4"/>
         <v>88.02</v>
       </c>
     </row>
@@ -3745,26 +3763,26 @@
         <v>42.5</v>
       </c>
       <c r="E16" s="8">
-        <f>D16*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
       <c r="F16" s="8">
-        <f>D16-E16</f>
+        <f t="shared" si="1"/>
         <v>38.25</v>
       </c>
       <c r="G16" s="22">
         <v>6</v>
       </c>
       <c r="H16" s="8">
-        <f>D16*G16</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="I16" s="8">
-        <f>H16*$L$4</f>
+        <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
       <c r="J16" s="8">
-        <f>H16-I16</f>
+        <f t="shared" si="4"/>
         <v>229.5</v>
       </c>
     </row>
@@ -3782,26 +3800,26 @@
         <v>39.9</v>
       </c>
       <c r="E17" s="8">
-        <f>D17*$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="F17" s="8">
-        <f>D17-E17</f>
+        <f t="shared" si="1"/>
         <v>35.909999999999997</v>
       </c>
       <c r="G17" s="22">
         <v>12</v>
       </c>
       <c r="H17" s="8">
-        <f>D17*G17</f>
+        <f t="shared" si="2"/>
         <v>478.79999999999995</v>
       </c>
       <c r="I17" s="8">
-        <f>H17*$L$4</f>
+        <f t="shared" si="3"/>
         <v>47.879999999999995</v>
       </c>
       <c r="J17" s="8">
-        <f>H17-I17</f>
+        <f t="shared" si="4"/>
         <v>430.91999999999996</v>
       </c>
     </row>
@@ -3819,26 +3837,26 @@
         <v>39.9</v>
       </c>
       <c r="E18" s="19">
-        <f>D18*$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="F18" s="19">
-        <f>D18-E18</f>
+        <f t="shared" si="1"/>
         <v>35.909999999999997</v>
       </c>
       <c r="G18" s="23">
         <v>10</v>
       </c>
       <c r="H18" s="19">
-        <f>D18*G18</f>
+        <f t="shared" si="2"/>
         <v>399</v>
       </c>
       <c r="I18" s="19">
-        <f>H18*$L$4</f>
+        <f t="shared" si="3"/>
         <v>39.900000000000006</v>
       </c>
       <c r="J18" s="19">
-        <f>H18-I18</f>
+        <f t="shared" si="4"/>
         <v>359.1</v>
       </c>
     </row>
@@ -3856,26 +3874,26 @@
         <v>32.9</v>
       </c>
       <c r="E19" s="19">
-        <f>D19*$L$4</f>
+        <f t="shared" si="0"/>
         <v>3.29</v>
       </c>
       <c r="F19" s="19">
-        <f>D19-E19</f>
+        <f t="shared" si="1"/>
         <v>29.61</v>
       </c>
       <c r="G19" s="23">
         <v>6</v>
       </c>
       <c r="H19" s="19">
-        <f>D19*G19</f>
+        <f t="shared" si="2"/>
         <v>197.39999999999998</v>
       </c>
       <c r="I19" s="19">
-        <f>H19*$L$4</f>
+        <f t="shared" si="3"/>
         <v>19.739999999999998</v>
       </c>
       <c r="J19" s="19">
-        <f>H19-I19</f>
+        <f t="shared" si="4"/>
         <v>177.65999999999997</v>
       </c>
     </row>
@@ -3893,26 +3911,26 @@
         <v>25.9</v>
       </c>
       <c r="E20" s="7">
-        <f>D20*$L$4</f>
+        <f t="shared" si="0"/>
         <v>2.59</v>
       </c>
       <c r="F20" s="7">
-        <f>D20-E20</f>
+        <f t="shared" si="1"/>
         <v>23.31</v>
       </c>
       <c r="G20" s="24">
         <v>12</v>
       </c>
       <c r="H20" s="7">
-        <f>D20*G20</f>
+        <f t="shared" si="2"/>
         <v>310.79999999999995</v>
       </c>
       <c r="I20" s="7">
-        <f>H20*$L$4</f>
+        <f t="shared" si="3"/>
         <v>31.08</v>
       </c>
       <c r="J20" s="7">
-        <f>H20-I20</f>
+        <f t="shared" si="4"/>
         <v>279.71999999999997</v>
       </c>
     </row>
@@ -3930,26 +3948,26 @@
         <v>29.9</v>
       </c>
       <c r="E21" s="8">
-        <f>D21*$L$4</f>
+        <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
       <c r="F21" s="8">
-        <f>D21-E21</f>
+        <f t="shared" si="1"/>
         <v>26.909999999999997</v>
       </c>
       <c r="G21" s="22">
         <v>10</v>
       </c>
       <c r="H21" s="8">
-        <f>D21*G21</f>
+        <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="I21" s="8">
-        <f>H21*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29.900000000000002</v>
       </c>
       <c r="J21" s="8">
-        <f>H21-I21</f>
+        <f t="shared" si="4"/>
         <v>269.10000000000002</v>
       </c>
     </row>
@@ -3967,26 +3985,26 @@
         <v>49.9</v>
       </c>
       <c r="E22" s="19">
-        <f>D22*$L$4</f>
+        <f t="shared" si="0"/>
         <v>4.99</v>
       </c>
       <c r="F22" s="19">
-        <f>D22-E22</f>
+        <f t="shared" si="1"/>
         <v>44.91</v>
       </c>
       <c r="G22" s="23">
         <v>21</v>
       </c>
       <c r="H22" s="19">
-        <f>D22*G22</f>
+        <f t="shared" si="2"/>
         <v>1047.8999999999999</v>
       </c>
       <c r="I22" s="19">
-        <f>H22*$L$4</f>
+        <f t="shared" si="3"/>
         <v>104.78999999999999</v>
       </c>
       <c r="J22" s="19">
-        <f>H22-I22</f>
+        <f t="shared" si="4"/>
         <v>943.1099999999999</v>
       </c>
     </row>
@@ -4004,26 +4022,26 @@
         <v>300</v>
       </c>
       <c r="E23" s="8">
-        <f>D23*$L$4</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F23" s="8">
-        <f>D23-E23</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
       </c>
       <c r="H23" s="8">
-        <f>D23*G23</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="I23" s="8">
-        <f>H23*$L$4</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J23" s="8">
-        <f>H23-I23</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -4041,26 +4059,26 @@
         <v>302.89999999999998</v>
       </c>
       <c r="E24" s="19">
-        <f>D24*$L$4</f>
+        <f t="shared" si="0"/>
         <v>30.29</v>
       </c>
       <c r="F24" s="19">
-        <f>D24-E24</f>
+        <f t="shared" si="1"/>
         <v>272.60999999999996</v>
       </c>
       <c r="G24" s="23">
         <v>2</v>
       </c>
       <c r="H24" s="19">
-        <f>D24*G24</f>
+        <f t="shared" si="2"/>
         <v>605.79999999999995</v>
       </c>
       <c r="I24" s="19">
-        <f>H24*$L$4</f>
+        <f t="shared" si="3"/>
         <v>60.58</v>
       </c>
       <c r="J24" s="19">
-        <f>H24-I24</f>
+        <f t="shared" si="4"/>
         <v>545.21999999999991</v>
       </c>
     </row>
@@ -4078,26 +4096,26 @@
         <v>299.89999999999998</v>
       </c>
       <c r="E25" s="8">
-        <f>D25*$L$4</f>
+        <f t="shared" si="0"/>
         <v>29.99</v>
       </c>
       <c r="F25" s="8">
-        <f>D25-E25</f>
+        <f t="shared" si="1"/>
         <v>269.90999999999997</v>
       </c>
       <c r="G25" s="22">
         <v>1</v>
       </c>
       <c r="H25" s="8">
-        <f>D25*G25</f>
+        <f t="shared" si="2"/>
         <v>299.89999999999998</v>
       </c>
       <c r="I25" s="8">
-        <f>H25*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29.99</v>
       </c>
       <c r="J25" s="8">
-        <f>H25-I25</f>
+        <f t="shared" si="4"/>
         <v>269.90999999999997</v>
       </c>
     </row>
@@ -4115,26 +4133,26 @@
         <v>249.9</v>
       </c>
       <c r="E26" s="19">
-        <f>D26*$L$4</f>
+        <f t="shared" si="0"/>
         <v>24.990000000000002</v>
       </c>
       <c r="F26" s="19">
-        <f>D26-E26</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
       <c r="G26" s="23">
         <v>1</v>
       </c>
       <c r="H26" s="19">
-        <f>D26*G26</f>
+        <f t="shared" si="2"/>
         <v>249.9</v>
       </c>
       <c r="I26" s="19">
-        <f>H26*$L$4</f>
+        <f t="shared" si="3"/>
         <v>24.990000000000002</v>
       </c>
       <c r="J26" s="19">
-        <f>H26-I26</f>
+        <f t="shared" si="4"/>
         <v>224.91</v>
       </c>
     </row>
@@ -4152,26 +4170,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E27" s="8">
-        <f>D27*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F27" s="8">
-        <f>D27-E27</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G27" s="22">
         <v>2</v>
       </c>
       <c r="H27" s="8">
-        <f>D27*G27</f>
+        <f t="shared" si="2"/>
         <v>519.79999999999995</v>
       </c>
       <c r="I27" s="8">
-        <f>H27*$L$4</f>
+        <f t="shared" si="3"/>
         <v>51.98</v>
       </c>
       <c r="J27" s="8">
-        <f>H27-I27</f>
+        <f t="shared" si="4"/>
         <v>467.81999999999994</v>
       </c>
     </row>
@@ -4189,26 +4207,26 @@
         <v>299.89999999999998</v>
       </c>
       <c r="E28" s="19">
-        <f>D28*$L$4</f>
+        <f t="shared" si="0"/>
         <v>29.99</v>
       </c>
       <c r="F28" s="19">
-        <f>D28-E28</f>
+        <f t="shared" si="1"/>
         <v>269.90999999999997</v>
       </c>
       <c r="G28" s="23">
         <v>1</v>
       </c>
       <c r="H28" s="19">
-        <f>D28*G28</f>
+        <f t="shared" si="2"/>
         <v>299.89999999999998</v>
       </c>
       <c r="I28" s="19">
-        <f>H28*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29.99</v>
       </c>
       <c r="J28" s="19">
-        <f>H28-I28</f>
+        <f t="shared" si="4"/>
         <v>269.90999999999997</v>
       </c>
     </row>
@@ -4226,26 +4244,26 @@
         <v>349.9</v>
       </c>
       <c r="E29" s="8">
-        <f>D29*$L$4</f>
+        <f t="shared" si="0"/>
         <v>34.99</v>
       </c>
       <c r="F29" s="8">
-        <f>D29-E29</f>
+        <f t="shared" si="1"/>
         <v>314.90999999999997</v>
       </c>
       <c r="G29" s="22">
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <f>D29*G29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f>H29*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J29" s="8">
-        <f>H29-I29</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4263,26 +4281,26 @@
         <v>399.9</v>
       </c>
       <c r="E30" s="19">
-        <f>D30*$L$4</f>
+        <f t="shared" si="0"/>
         <v>39.99</v>
       </c>
       <c r="F30" s="19">
-        <f>D30-E30</f>
+        <f t="shared" si="1"/>
         <v>359.90999999999997</v>
       </c>
       <c r="G30" s="23">
         <v>3</v>
       </c>
       <c r="H30" s="19">
-        <f>D30*G30</f>
+        <f t="shared" si="2"/>
         <v>1199.6999999999998</v>
       </c>
       <c r="I30" s="19">
-        <f>H30*$L$4</f>
+        <f t="shared" si="3"/>
         <v>119.96999999999998</v>
       </c>
       <c r="J30" s="19">
-        <f>H30-I30</f>
+        <f t="shared" si="4"/>
         <v>1079.7299999999998</v>
       </c>
     </row>
@@ -4300,26 +4318,26 @@
         <v>249.9</v>
       </c>
       <c r="E31" s="19">
-        <f>D31*$L$4</f>
+        <f t="shared" si="0"/>
         <v>24.990000000000002</v>
       </c>
       <c r="F31" s="19">
-        <f>D31-E31</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
       <c r="G31" s="23">
         <v>5</v>
       </c>
       <c r="H31" s="19">
-        <f>D31*G31</f>
+        <f t="shared" si="2"/>
         <v>1249.5</v>
       </c>
       <c r="I31" s="19">
-        <f>H31*$L$4</f>
+        <f t="shared" si="3"/>
         <v>124.95</v>
       </c>
       <c r="J31" s="19">
-        <f>H31-I31</f>
+        <f t="shared" si="4"/>
         <v>1124.55</v>
       </c>
     </row>
@@ -4337,26 +4355,26 @@
         <v>255</v>
       </c>
       <c r="E32" s="8">
-        <f>D32*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
       <c r="F32" s="8">
-        <f>D32-E32</f>
+        <f t="shared" si="1"/>
         <v>229.5</v>
       </c>
       <c r="G32" s="22">
         <v>3</v>
       </c>
       <c r="H32" s="8">
-        <f>D32*G32</f>
+        <f t="shared" si="2"/>
         <v>765</v>
       </c>
       <c r="I32" s="8">
-        <f>H32*$L$4</f>
+        <f t="shared" si="3"/>
         <v>76.5</v>
       </c>
       <c r="J32" s="8">
-        <f>H32-I32</f>
+        <f t="shared" si="4"/>
         <v>688.5</v>
       </c>
     </row>
@@ -4374,26 +4392,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E33" s="19">
-        <f>D33*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F33" s="19">
-        <f>D33-E33</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G33" s="23">
         <v>1</v>
       </c>
       <c r="H33" s="19">
-        <f>D33*G33</f>
+        <f t="shared" si="2"/>
         <v>259.89999999999998</v>
       </c>
       <c r="I33" s="19">
-        <f>H33*$L$4</f>
+        <f t="shared" si="3"/>
         <v>25.99</v>
       </c>
       <c r="J33" s="19">
-        <f>H33-I33</f>
+        <f t="shared" si="4"/>
         <v>233.90999999999997</v>
       </c>
     </row>
@@ -4411,26 +4429,26 @@
         <v>199.9</v>
       </c>
       <c r="E34" s="8">
-        <f>D34*$L$4</f>
+        <f t="shared" si="0"/>
         <v>19.990000000000002</v>
       </c>
       <c r="F34" s="8">
-        <f>D34-E34</f>
+        <f t="shared" si="1"/>
         <v>179.91</v>
       </c>
       <c r="G34" s="22">
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <f>D34*G34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="8">
-        <f>H34*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J34" s="8">
-        <f>H34-I34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4448,26 +4466,26 @@
         <v>249.9</v>
       </c>
       <c r="E35" s="19">
-        <f>D35*$L$4</f>
+        <f t="shared" si="0"/>
         <v>24.990000000000002</v>
       </c>
       <c r="F35" s="19">
-        <f>D35-E35</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
       <c r="G35" s="23">
         <v>1</v>
       </c>
       <c r="H35" s="19">
-        <f>D35*G35</f>
+        <f t="shared" si="2"/>
         <v>249.9</v>
       </c>
       <c r="I35" s="19">
-        <f>H35*$L$4</f>
+        <f t="shared" si="3"/>
         <v>24.990000000000002</v>
       </c>
       <c r="J35" s="19">
-        <f>H35-I35</f>
+        <f t="shared" si="4"/>
         <v>224.91</v>
       </c>
     </row>
@@ -4485,26 +4503,26 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E36" s="8">
-        <f>D36*$L$4</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="F36" s="8">
-        <f>D36-E36</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
       <c r="G36" s="22">
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <f>D36*G36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="8">
-        <f>H36*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="8">
-        <f>H36-I36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4522,26 +4540,26 @@
         <v>89.9</v>
       </c>
       <c r="E37" s="7">
-        <f>D37*$L$4</f>
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="F37" s="7">
-        <f>D37-E37</f>
+        <f t="shared" si="1"/>
         <v>80.910000000000011</v>
       </c>
       <c r="G37" s="24">
         <v>3</v>
       </c>
       <c r="H37" s="7">
-        <f>D37*G37</f>
+        <f t="shared" si="2"/>
         <v>269.70000000000005</v>
       </c>
       <c r="I37" s="7">
-        <f>H37*$L$4</f>
+        <f t="shared" si="3"/>
         <v>26.970000000000006</v>
       </c>
       <c r="J37" s="7">
-        <f>H37-I37</f>
+        <f t="shared" si="4"/>
         <v>242.73000000000005</v>
       </c>
     </row>
@@ -4559,26 +4577,26 @@
         <v>91.4</v>
       </c>
       <c r="E38" s="8">
-        <f>D38*$L$4</f>
+        <f t="shared" si="0"/>
         <v>9.14</v>
       </c>
       <c r="F38" s="8">
-        <f>D38-E38</f>
+        <f t="shared" si="1"/>
         <v>82.26</v>
       </c>
       <c r="G38" s="22">
         <v>0</v>
       </c>
       <c r="H38" s="8">
-        <f>D38*G38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="8">
-        <f>H38*$L$4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J38" s="8">
-        <f>H38-I38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4596,26 +4614,26 @@
         <v>93.5</v>
       </c>
       <c r="E39" s="19">
-        <f>D39*$L$4</f>
+        <f t="shared" si="0"/>
         <v>9.35</v>
       </c>
       <c r="F39" s="19">
-        <f>D39-E39</f>
+        <f t="shared" si="1"/>
         <v>84.15</v>
       </c>
       <c r="G39" s="23">
         <v>2</v>
       </c>
       <c r="H39" s="19">
-        <f>D39*G39</f>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="I39" s="19">
-        <f>H39*$L$4</f>
+        <f t="shared" si="3"/>
         <v>18.7</v>
       </c>
       <c r="J39" s="19">
-        <f>H39-I39</f>
+        <f t="shared" si="4"/>
         <v>168.3</v>
       </c>
     </row>
@@ -4633,26 +4651,26 @@
         <v>140</v>
       </c>
       <c r="E40" s="8">
-        <f>D40*$L$4</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F40" s="8">
-        <f>D40-E40</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="G40" s="22">
         <v>2</v>
       </c>
       <c r="H40" s="8">
-        <f>D40*G40</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="I40" s="8">
-        <f>H40*$L$4</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="J40" s="8">
-        <f>H40-I40</f>
+        <f t="shared" si="4"/>
         <v>252</v>
       </c>
     </row>
@@ -4670,26 +4688,26 @@
         <v>142.9</v>
       </c>
       <c r="E41" s="19">
-        <f>D41*$L$4</f>
+        <f t="shared" si="0"/>
         <v>14.290000000000001</v>
       </c>
       <c r="F41" s="19">
-        <f>D41-E41</f>
+        <f t="shared" si="1"/>
         <v>128.61000000000001</v>
       </c>
       <c r="G41" s="23">
         <v>2</v>
       </c>
       <c r="H41" s="19">
-        <f>D41*G41</f>
+        <f t="shared" si="2"/>
         <v>285.8</v>
       </c>
       <c r="I41" s="19">
-        <f>H41*$L$4</f>
+        <f t="shared" si="3"/>
         <v>28.580000000000002</v>
       </c>
       <c r="J41" s="19">
-        <f>H41-I41</f>
+        <f t="shared" si="4"/>
         <v>257.22000000000003</v>
       </c>
     </row>
@@ -4707,40 +4725,40 @@
         <v>146</v>
       </c>
       <c r="E42" s="8">
-        <f>D42*$L$4</f>
+        <f t="shared" si="0"/>
         <v>14.600000000000001</v>
       </c>
       <c r="F42" s="8">
-        <f>D42-E42</f>
+        <f t="shared" si="1"/>
         <v>131.4</v>
       </c>
       <c r="G42" s="22">
         <v>2</v>
       </c>
       <c r="H42" s="8">
-        <f>D42*G42</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="I42" s="8">
-        <f>H42*$L$4</f>
+        <f t="shared" si="3"/>
         <v>29.200000000000003</v>
       </c>
       <c r="J42" s="8">
-        <f>H42-I42</f>
+        <f t="shared" si="4"/>
         <v>262.8</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="56"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="64"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
@@ -4813,7 +4831,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4824,68 +4842,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="48" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D2" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="70"/>
-    </row>
-    <row r="3" spans="1:6" s="61" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="D2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="66"/>
+    </row>
+    <row r="3" spans="1:6" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="63"/>
-    </row>
-    <row r="4" spans="1:6" s="62" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67">
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="1:6" s="50" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="54">
         <f>COUNTIF(Produtos!G4:G42,"&gt;0")</f>
         <v>35</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="52">
         <f>SUM(Produtos!G4:G42)</f>
         <v>192</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="52">
         <f>COUNTIF(Int_Nome_Produtos,D2)</f>
-        <v>6</v>
-      </c>
-      <c r="E4" s="64">
+        <v>3</v>
+      </c>
+      <c r="E4" s="52">
         <f>SUMIF(Int_Nome_Produtos,D2,Int_Quantidade)</f>
         <v>10</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="53">
         <f>Produtos!G44</f>
         <v>192</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Erro de Digitação" error="Este produto não está listado na mensagem original" promptTitle="Menssagem de entrada" prompt="Teste_x000a_" sqref="D2:E2" xr:uid="{F61CB419-CDA2-4BAD-8AD4-C7E98B66AED1}">
+      <formula1>Int_Nome_Produtos</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5220,18 +5243,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -6795,28 +6818,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01216CA5-596E-4136-A524-8B1DA43FDFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB10969-318C-44BF-8A84-44C1DD0B2E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Lista de Indicadores" sheetId="8" r:id="rId2"/>
     <sheet name="Filtro Avançado" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Produtos Tabela" sheetId="6" state="hidden" r:id="rId4"/>
-    <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId6"/>
-    <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Produtos Tabela" sheetId="6" r:id="rId4"/>
+    <sheet name="Lista de Indicadores (Tabela)" sheetId="9" r:id="rId5"/>
+    <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$3:$J$42</definedName>
@@ -31,7 +32,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="60">
   <si>
     <t>Produtos</t>
   </si>
@@ -228,15 +229,22 @@
   <si>
     <t>( * ) -&gt; Pega todos</t>
   </si>
+  <si>
+    <t>Todos os Produtos</t>
+  </si>
+  <si>
+    <t>Média de Qtd em Estoque</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +312,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -344,12 +360,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -514,15 +530,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -538,17 +545,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -591,6 +587,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -602,7 +644,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,19 +750,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,12 +777,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,11 +786,50 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -777,6 +839,26 @@
     <cellStyle name="Titulo Meteora" xfId="2" xr:uid="{BEE78EB7-AC5E-4F74-92AD-4A7505DF0739}"/>
   </cellStyles>
   <dxfs count="45">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1000,25 +1082,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2862,7 +2925,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="Tabela6" displayName="Tabela6" ref="A3:J43" totalsRowCount="1" headerRowDxfId="44" totalsRowDxfId="41" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:J43" totalsRowCount="1" headerRowDxfId="44" totalsRowDxfId="41" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="40">
   <autoFilter ref="A3:J42" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
     <sortCondition ref="D3:D42"/>
@@ -2878,14 +2941,14 @@
     <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>D4-E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>D4*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>H4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>H4-I4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2894,27 +2957,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="21">
   <autoFilter ref="A3:J23" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F846016E-C621-48F6-A4F2-8B9036CF79B0}" name="Produtos" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="20" totalsRowDxfId="19"/>
     <tableColumn id="3" xr3:uid="{EB51C660-9F00-4E83-BB4A-3464A549E0C4}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]-Tabela2[[#This Row],[Desconto 10% na uni]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]-Tabela2[[#This Row],[Desconto 10% no total]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3222,8 +3285,8 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,30 +3305,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4749,16 +4812,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="64"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="59"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
@@ -4811,10 +4874,10 @@
     <mergeCell ref="A43:J43"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4828,84 +4891,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C0E92-991A-462E-8787-E4D9C612A80E}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="18.28515625" customWidth="1"/>
+    <col min="6" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D2" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:6" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+    <row r="2" spans="1:8" s="66" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="F2" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="1:8" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="G3" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4" spans="1:6" s="50" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="54">
+      <c r="H3" s="64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="50" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="76">
         <f>COUNTIF(Produtos!G4:G42,"&gt;0")</f>
         <v>35</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="77">
         <f>SUM(Produtos!G4:G42)</f>
         <v>192</v>
       </c>
-      <c r="D4" s="52">
-        <f>COUNTIF(Int_Nome_Produtos,D2)</f>
+      <c r="D4" s="78">
+        <f>AVERAGE(Int_Quantidade)</f>
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="F4" s="76">
+        <f>COUNTIF(Int_Nome_Produtos,F2)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="52">
-        <f>SUMIF(Int_Nome_Produtos,D2,Int_Quantidade)</f>
-        <v>10</v>
-      </c>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="G4" s="77">
+        <f>SUMIF(Int_Nome_Produtos,F2,Int_Quantidade)</f>
+        <v>28</v>
+      </c>
+      <c r="H4" s="78">
+        <f>AVERAGEIF(Int_Nome_Produtos,F2,Int_Quantidade)</f>
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C8" s="74">
         <f>Produtos!G44</f>
         <v>192</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D8" s="74"/>
+      <c r="F8" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Erro de Digitação" error="Este produto não está listado na mensagem original" promptTitle="Menssagem de entrada" prompt="Teste_x000a_" sqref="D2:E2" xr:uid="{F61CB419-CDA2-4BAD-8AD4-C7E98B66AED1}">
+    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Erro de Digitação" error="Este produto não está listado na mensagem original" promptTitle="Menssagem de entrada" prompt="Teste_x000a_" sqref="F2" xr:uid="{F61CB419-CDA2-4BAD-8AD4-C7E98B66AED1}">
       <formula1>Int_Nome_Produtos</formula1>
     </dataValidation>
   </dataValidations>
@@ -5207,10 +5292,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5223,7 +5308,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,18 +5328,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -6756,31 +6841,31 @@
       <c r="B43" s="42"/>
       <c r="C43" s="43"/>
       <c r="D43" s="44">
-        <f>SUBTOTAL(109,Tabela6[Preço Unitário])</f>
+        <f>SUBTOTAL(109,TB_Produtos[Preço Unitário])</f>
         <v>5962.2999999999993</v>
       </c>
       <c r="E43" s="44">
-        <f>SUBTOTAL(109,Tabela6[Valor do Descoto])</f>
+        <f>SUBTOTAL(109,TB_Produtos[Valor do Descoto])</f>
         <v>596.23000000000013</v>
       </c>
       <c r="F43" s="44">
-        <f>SUBTOTAL(109,Tabela6[Valor p/uni já c/ desonto])</f>
+        <f>SUBTOTAL(109,TB_Produtos[Valor p/uni já c/ desonto])</f>
         <v>5366.0699999999988</v>
       </c>
-      <c r="G43" s="44">
-        <f>SUBTOTAL(109,Tabela6[Qtd])</f>
+      <c r="G43" s="79">
+        <f>SUBTOTAL(109,TB_Produtos[Qtd])</f>
         <v>192</v>
       </c>
       <c r="H43" s="44">
-        <f>SUBTOTAL(109,Tabela6[Valor Total])</f>
+        <f>SUBTOTAL(109,TB_Produtos[Valor Total])</f>
         <v>16208.599999999995</v>
       </c>
       <c r="I43" s="44">
-        <f>SUBTOTAL(109,Tabela6[Valor do Descoto total])</f>
+        <f>SUBTOTAL(109,TB_Produtos[Valor do Descoto total])</f>
         <v>1620.8600000000001</v>
       </c>
       <c r="J43" s="44">
-        <f>SUBTOTAL(109,Tabela6[Valor Total c/ desconto])</f>
+        <f>SUBTOTAL(109,TB_Produtos[Valor Total c/ desconto])</f>
         <v>14587.739999999998</v>
       </c>
     </row>
@@ -6797,6 +6882,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED25BDA5-88AD-4C07-8122-123217BA43DE}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="8" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="66" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="F2" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="1:8" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="50" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="76">
+        <f>COUNTA(TB_Produtos[Produtos])</f>
+        <v>39</v>
+      </c>
+      <c r="C4" s="77">
+        <f>SUM(TB_Produtos[Qtd])</f>
+        <v>192</v>
+      </c>
+      <c r="D4" s="78">
+        <f>AVERAGE(TB_Produtos[Qtd],TB_Produtos[Produtos])</f>
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="F4" s="76">
+        <f>COUNTIF(TB_Produtos[Produtos],F2)</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="77">
+        <f>SUMIF(TB_Produtos[Produtos],F2,TB_Produtos[Qtd])</f>
+        <v>28</v>
+      </c>
+      <c r="H4" s="78">
+        <f>AVERAGEIF(TB_Produtos[Produtos],F2,TB_Produtos[Qtd])</f>
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Erro de Digitação" error="Este produto não está listado na mensagem original" promptTitle="Menssagem de entrada" prompt="Teste_x000a_" sqref="F2" xr:uid="{9D87A1D4-9E73-48B5-A36B-EFBBF0E43357}">
+      <formula1>Int_Nome_Produtos</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB63E97-4BA3-43AE-A327-DB12941483B2}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -6818,28 +6997,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7668,7 +7847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FCF699-F2AA-44BE-9D2C-5CD3C169F985}">
   <dimension ref="A3:B13"/>
   <sheetViews>

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB10969-318C-44BF-8A84-44C1DD0B2E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986AE11D-F95D-438D-A5AF-B851EB1E7179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Lista de Indicadores" sheetId="8" r:id="rId2"/>
     <sheet name="Filtro Avançado" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Produtos Tabela" sheetId="6" r:id="rId4"/>
-    <sheet name="Lista de Indicadores (Tabela)" sheetId="9" r:id="rId5"/>
-    <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId7"/>
-    <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="PlanilGraha1" sheetId="10" r:id="rId4"/>
+    <sheet name="Produtos Tabela" sheetId="6" r:id="rId5"/>
+    <sheet name="Lista de Indicadores (Tabela)" sheetId="9" r:id="rId6"/>
+    <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$3:$J$42</definedName>
@@ -32,7 +33,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -242,9 +243,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +321,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -365,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -633,8 +642,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -643,8 +661,9 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,6 +769,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,6 +823,24 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,79 +850,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{5AB88DA2-1741-4E2D-B0E8-5223CA164138}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Título 1" xfId="4" builtinId="16"/>
     <cellStyle name="Titulo Meteora" xfId="2" xr:uid="{BEE78EB7-AC5E-4F74-92AD-4A7505DF0739}"/>
   </cellStyles>
   <dxfs count="45">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1082,6 +1083,26 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1386,9 +1407,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFFF66FF"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFDAFF01"/>
     </mruColors>
@@ -2941,14 +2962,14 @@
     <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>D4-E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>D4*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>H4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>H4-I4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2957,27 +2978,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="20">
   <autoFilter ref="A3:J23" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F846016E-C621-48F6-A4F2-8B9036CF79B0}" name="Produtos" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" xr3:uid="{EB51C660-9F00-4E83-BB4A-3464A549E0C4}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]-Tabela2[[#This Row],[Desconto 10% na uni]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]-Tabela2[[#This Row],[Desconto 10% no total]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3284,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4:G42"/>
     </sheetView>
   </sheetViews>
@@ -3305,30 +3326,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4812,16 +4833,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="59"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
@@ -4874,10 +4895,10 @@
     <mergeCell ref="A43:J43"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4909,80 +4930,80 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="1:8" s="54" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="F2" s="70" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="F2" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="63" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="50" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76">
+      <c r="B4" s="58">
         <f>COUNTIF(Produtos!G4:G42,"&gt;0")</f>
         <v>35</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="59">
         <f>SUM(Produtos!G4:G42)</f>
         <v>192</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="60">
         <f>AVERAGE(Int_Quantidade)</f>
         <v>4.9230769230769234</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="58">
         <f>COUNTIF(Int_Nome_Produtos,F2)</f>
         <v>3</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="59">
         <f>SUMIF(Int_Nome_Produtos,F2,Int_Quantidade)</f>
         <v>28</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="60">
         <f>AVERAGEIF(Int_Nome_Produtos,F2,Int_Quantidade)</f>
         <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="56">
         <f>Produtos!G44</f>
         <v>192</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="F8" s="75" t="s">
+      <c r="D8" s="56"/>
+      <c r="F8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5292,10 +5313,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5304,11 +5325,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2E386A-568A-4547-A835-CE7FDBD50539}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45CD3CF-30C5-4720-AC50-B58EC0224FEB}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5328,18 +5363,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -6852,7 +6887,7 @@
         <f>SUBTOTAL(109,TB_Produtos[Valor p/uni já c/ desonto])</f>
         <v>5366.0699999999988</v>
       </c>
-      <c r="G43" s="79">
+      <c r="G43" s="61">
         <f>SUBTOTAL(109,TB_Produtos[Qtd])</f>
         <v>192</v>
       </c>
@@ -6881,93 +6916,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED25BDA5-88AD-4C07-8122-123217BA43DE}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="B1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" s="54" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="F2" s="70" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="F3" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-    </row>
-    <row r="3" spans="1:8" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="2:8" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C4" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="63" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G4" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H4" s="52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="50" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76">
+    <row r="5" spans="2:8" s="50" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="58">
         <f>COUNTA(TB_Produtos[Produtos])</f>
         <v>39</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C5" s="59">
         <f>SUM(TB_Produtos[Qtd])</f>
         <v>192</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D5" s="60">
         <f>AVERAGE(TB_Produtos[Qtd],TB_Produtos[Produtos])</f>
         <v>4.9230769230769234</v>
       </c>
-      <c r="F4" s="76">
-        <f>COUNTIF(TB_Produtos[Produtos],F2)</f>
+      <c r="F5" s="58">
+        <f>COUNTIF(TB_Produtos[Produtos],F3)</f>
         <v>3</v>
       </c>
-      <c r="G4" s="77">
-        <f>SUMIF(TB_Produtos[Produtos],F2,TB_Produtos[Qtd])</f>
+      <c r="G5" s="59">
+        <f>SUMIF(TB_Produtos[Produtos],F3,TB_Produtos[Qtd])</f>
         <v>28</v>
       </c>
-      <c r="H4" s="78">
-        <f>AVERAGEIF(TB_Produtos[Produtos],F2,TB_Produtos[Qtd])</f>
+      <c r="H5" s="60">
+        <f>AVERAGEIF(TB_Produtos[Produtos],F3,TB_Produtos[Qtd])</f>
         <v>9.3333333333333339</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Erro de Digitação" error="Este produto não está listado na mensagem original" promptTitle="Menssagem de entrada" prompt="Teste_x000a_" sqref="F2" xr:uid="{9D87A1D4-9E73-48B5-A36B-EFBBF0E43357}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Erro de Digitação" error="Este produto não está listado na mensagem original" promptTitle="Menssagem de entrada" prompt="Teste_x000a_" sqref="F3" xr:uid="{9D87A1D4-9E73-48B5-A36B-EFBBF0E43357}">
       <formula1>Int_Nome_Produtos</formula1>
     </dataValidation>
   </dataValidations>
@@ -6975,7 +7011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB63E97-4BA3-43AE-A327-DB12941483B2}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -6997,28 +7033,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7847,7 +7883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FCF699-F2AA-44BE-9D2C-5CD3C169F985}">
   <dimension ref="A3:B13"/>
   <sheetViews>

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986AE11D-F95D-438D-A5AF-B851EB1E7179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD36AF7-1646-4FC5-9614-58C99BD041F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Lista de Indicadores" sheetId="8" r:id="rId2"/>
     <sheet name="Filtro Avançado" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="PlanilGraha1" sheetId="10" r:id="rId4"/>
-    <sheet name="Produtos Tabela" sheetId="6" r:id="rId5"/>
-    <sheet name="Lista de Indicadores (Tabela)" sheetId="9" r:id="rId6"/>
-    <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId7"/>
-    <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="Produtos Tabela" sheetId="6" r:id="rId4"/>
+    <sheet name="Lista de Indicadores (Tabela)" sheetId="9" r:id="rId5"/>
+    <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$3:$J$42</definedName>
@@ -33,7 +32,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -796,6 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,7 +850,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{5AB88DA2-1741-4E2D-B0E8-5223CA164138}"/>
@@ -3326,30 +3325,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4833,16 +4832,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="71"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
@@ -4914,33 +4913,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C0E92-991A-462E-8787-E4D9C612A80E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48"/>
+      <c r="E1" s="62" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="54" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="F2" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="51" t="s">
@@ -5325,24 +5326,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2E386A-568A-4547-A835-CE7FDBD50539}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45CD3CF-30C5-4720-AC50-B58EC0224FEB}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D19" sqref="D19:F21"/>
     </sheetView>
   </sheetViews>
@@ -5363,18 +5350,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -6916,12 +6903,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED25BDA5-88AD-4C07-8122-123217BA43DE}">
   <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6933,22 +6920,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="62" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" s="54" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="F3" s="71" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="F3" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
@@ -7011,7 +6998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB63E97-4BA3-43AE-A327-DB12941483B2}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -7033,28 +7020,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7883,7 +7870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FCF699-F2AA-44BE-9D2C-5CD3C169F985}">
   <dimension ref="A3:B13"/>
   <sheetViews>

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD36AF7-1646-4FC5-9614-58C99BD041F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2BDF7F-B972-4B67-AC0F-5EED7A8329F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Lista de Indicadores" sheetId="8" r:id="rId2"/>
     <sheet name="Filtro Avançado" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Produtos Tabela" sheetId="6" r:id="rId4"/>
-    <sheet name="Lista de Indicadores (Tabela)" sheetId="9" r:id="rId5"/>
-    <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId7"/>
-    <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="Planilha1" sheetId="10" r:id="rId4"/>
+    <sheet name="Produtos Tabela" sheetId="6" r:id="rId5"/>
+    <sheet name="Lista de Indicadores (Tabela)" sheetId="9" r:id="rId6"/>
+    <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$3:$J$42</definedName>
@@ -32,7 +33,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="20" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="61">
   <si>
     <t>Produtos</t>
   </si>
@@ -234,6 +236,9 @@
   </si>
   <si>
     <t>Média de Qtd em Estoque</t>
+  </si>
+  <si>
+    <t>Soma de Valor Total</t>
   </si>
 </sst>
 </file>
@@ -662,7 +667,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,6 +855,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{5AB88DA2-1741-4E2D-B0E8-5223CA164138}"/>
@@ -858,7 +866,139 @@
     <cellStyle name="Título 1" xfId="4" builtinId="16"/>
     <cellStyle name="Titulo Meteora" xfId="2" xr:uid="{BEE78EB7-AC5E-4F74-92AD-4A7505DF0739}"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="51">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1406,8 +1546,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FF99CCFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFDAFF01"/>
@@ -1425,6 +1565,1171 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Meteora_Ecommerce.xlsx]Planilha1!Tabela dinâmica15</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Soma de Valor Total por Tamanho</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="99CCFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="99CCFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-1.2731334408019993E-17"/>
+              <c:y val="8.4432709881858761E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="99CCFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0"/>
+              <c:y val="7.9742003777311124E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="99CCFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.0925337632079971E-17"/>
+              <c:y val="5.1597767150024849E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="99CCFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0"/>
+              <c:y val="7.9742003777311124E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="99CCFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-1.0185067526415994E-16"/>
+              <c:y val="8.2087356829584984E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="99CCFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.0185067526415994E-16"/>
+              <c:y val="7.9742003777311082E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="99CCFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.0185067526415994E-16"/>
+              <c:y val="7.9742003777311124E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3179352580927387E-2"/>
+          <c:y val="0.13572447309427596"/>
+          <c:w val="0.93876509186351709"/>
+          <c:h val="0.7658227766283906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99CCFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2731334408019993E-17"/>
+                  <c:y val="8.4432709881858761E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FB20-4C8B-816A-75199B344853}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.9742003777311124E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FB20-4C8B-816A-75199B344853}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0925337632079971E-17"/>
+                  <c:y val="5.1597767150024849E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FB20-4C8B-816A-75199B344853}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.9742003777311124E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-FB20-4C8B-816A-75199B344853}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="8.2087356829584984E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-FB20-4C8B-816A-75199B344853}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0185067526415994E-16"/>
+                  <c:y val="7.9742003777311082E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-FB20-4C8B-816A-75199B344853}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0185067526415994E-16"/>
+                  <c:y val="7.9742003777311124E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-FB20-4C8B-816A-75199B344853}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Único</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1249.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>259.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3591.7000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3748.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3108.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3236.3999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB20-4C8B-816A-75199B344853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="552713727"/>
+        <c:axId val="552710847"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="552713727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552710847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552710847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552713727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1969,12 +3274,554 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2479,6 +4326,47 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D89738-BE93-899E-5281-6C1FA57FBA9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9645063" cy="6011155"/>
@@ -2547,6 +4435,59 @@
     </cacheField>
     <cacheField name="Valor do Descoto" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="59.984999999999992"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="45391.736610416665" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="39" xr:uid="{4F4DBFB4-2E88-45E8-9620-DF7BF668EE40}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="TB_Produtos"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Produtos" numFmtId="164">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Tamanho" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="36" maxValue="38" count="7">
+        <s v="P"/>
+        <s v="M"/>
+        <s v="G"/>
+        <s v="Único"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Categoria" numFmtId="164">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Preço Unitário" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="25.9" maxValue="399.9"/>
+    </cacheField>
+    <cacheField name="Valor do Descoto" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.59" maxValue="39.99"/>
+    </cacheField>
+    <cacheField name="Valor p/uni já c/ desonto" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="23.31" maxValue="359.90999999999997"/>
+    </cacheField>
+    <cacheField name="Qtd" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="21"/>
+    </cacheField>
+    <cacheField name="Valor Total" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1249.5"/>
+    </cacheField>
+    <cacheField name="Valor do Descoto total" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="124.95"/>
+    </cacheField>
+    <cacheField name="Valor Total c/ desconto" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1124.55"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2742,7 +4683,742 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="39">
+  <r>
+    <s v="Camiseta Lisa "/>
+    <x v="0"/>
+    <s v="Vestuário"/>
+    <n v="25.9"/>
+    <n v="2.59"/>
+    <n v="23.31"/>
+    <n v="12"/>
+    <n v="310.79999999999995"/>
+    <n v="31.08"/>
+    <n v="279.71999999999997"/>
+  </r>
+  <r>
+    <s v="Camiseta Lisa "/>
+    <x v="1"/>
+    <s v="Vestuário"/>
+    <n v="29.9"/>
+    <n v="2.99"/>
+    <n v="26.909999999999997"/>
+    <n v="10"/>
+    <n v="299"/>
+    <n v="29.900000000000002"/>
+    <n v="269.10000000000002"/>
+  </r>
+  <r>
+    <s v="Camiseta Lisa"/>
+    <x v="2"/>
+    <s v="Vestuário"/>
+    <n v="32.9"/>
+    <n v="3.29"/>
+    <n v="29.61"/>
+    <n v="6"/>
+    <n v="197.39999999999998"/>
+    <n v="19.739999999999998"/>
+    <n v="177.65999999999997"/>
+  </r>
+  <r>
+    <s v="Camiseta Estampada"/>
+    <x v="0"/>
+    <s v="Vestuário"/>
+    <n v="39.9"/>
+    <n v="3.99"/>
+    <n v="35.909999999999997"/>
+    <n v="12"/>
+    <n v="478.79999999999995"/>
+    <n v="47.879999999999995"/>
+    <n v="430.91999999999996"/>
+  </r>
+  <r>
+    <s v="Camiseta Estampada"/>
+    <x v="1"/>
+    <s v="Vestuário"/>
+    <n v="39.9"/>
+    <n v="3.99"/>
+    <n v="35.909999999999997"/>
+    <n v="10"/>
+    <n v="399"/>
+    <n v="39.900000000000006"/>
+    <n v="359.1"/>
+  </r>
+  <r>
+    <s v="Boné"/>
+    <x v="3"/>
+    <s v="Acessórios"/>
+    <n v="39.9"/>
+    <n v="3.99"/>
+    <n v="35.909999999999997"/>
+    <n v="11"/>
+    <n v="438.9"/>
+    <n v="43.89"/>
+    <n v="395.01"/>
+  </r>
+  <r>
+    <s v="Camiseta Estampada"/>
+    <x v="2"/>
+    <s v="Vestuário"/>
+    <n v="42.5"/>
+    <n v="4.25"/>
+    <n v="38.25"/>
+    <n v="6"/>
+    <n v="255"/>
+    <n v="25.5"/>
+    <n v="229.5"/>
+  </r>
+  <r>
+    <s v="Calça legging"/>
+    <x v="0"/>
+    <s v="Vestuário"/>
+    <n v="44.9"/>
+    <n v="4.49"/>
+    <n v="40.409999999999997"/>
+    <n v="5"/>
+    <n v="224.5"/>
+    <n v="22.450000000000003"/>
+    <n v="202.05"/>
+  </r>
+  <r>
+    <s v="Calça legging"/>
+    <x v="1"/>
+    <s v="Vestuário"/>
+    <n v="46.9"/>
+    <n v="4.6900000000000004"/>
+    <n v="42.21"/>
+    <n v="3"/>
+    <n v="140.69999999999999"/>
+    <n v="14.07"/>
+    <n v="126.63"/>
+  </r>
+  <r>
+    <s v="Calça legging"/>
+    <x v="2"/>
+    <s v="Vestuário"/>
+    <n v="48.9"/>
+    <n v="4.8900000000000006"/>
+    <n v="44.01"/>
+    <n v="2"/>
+    <n v="97.8"/>
+    <n v="9.7800000000000011"/>
+    <n v="88.02"/>
+  </r>
+  <r>
+    <s v="Cinto"/>
+    <x v="3"/>
+    <s v="Acessórios"/>
+    <n v="49.9"/>
+    <n v="4.99"/>
+    <n v="44.91"/>
+    <n v="21"/>
+    <n v="1047.8999999999999"/>
+    <n v="104.78999999999999"/>
+    <n v="943.1099999999999"/>
+  </r>
+  <r>
+    <s v="Bermuda"/>
+    <x v="0"/>
+    <s v="Vestuário"/>
+    <n v="65.900000000000006"/>
+    <n v="6.5900000000000007"/>
+    <n v="59.31"/>
+    <n v="12"/>
+    <n v="790.80000000000007"/>
+    <n v="79.080000000000013"/>
+    <n v="711.72"/>
+  </r>
+  <r>
+    <s v="Bermuda"/>
+    <x v="1"/>
+    <s v="Vestuário"/>
+    <n v="69.900000000000006"/>
+    <n v="6.9900000000000011"/>
+    <n v="62.910000000000004"/>
+    <n v="15"/>
+    <n v="1048.5"/>
+    <n v="104.85000000000001"/>
+    <n v="943.65"/>
+  </r>
+  <r>
+    <s v="Bermuda"/>
+    <x v="2"/>
+    <s v="Vestuário"/>
+    <n v="70.900000000000006"/>
+    <n v="7.0900000000000007"/>
+    <n v="63.81"/>
+    <n v="13"/>
+    <n v="921.7"/>
+    <n v="92.170000000000016"/>
+    <n v="829.53"/>
+  </r>
+  <r>
+    <s v="Calça jeans"/>
+    <x v="0"/>
+    <s v="Vestuário"/>
+    <n v="85.9"/>
+    <n v="8.5900000000000016"/>
+    <n v="77.31"/>
+    <n v="8"/>
+    <n v="687.2"/>
+    <n v="68.720000000000013"/>
+    <n v="618.48"/>
+  </r>
+  <r>
+    <s v="Calça jeans"/>
+    <x v="1"/>
+    <s v="Vestuário"/>
+    <n v="89.9"/>
+    <n v="8.99"/>
+    <n v="80.910000000000011"/>
+    <n v="5"/>
+    <n v="449.5"/>
+    <n v="44.95"/>
+    <n v="404.55"/>
+  </r>
+  <r>
+    <s v="Vestido curto"/>
+    <x v="0"/>
+    <s v="Vestuário"/>
+    <n v="89.9"/>
+    <n v="8.99"/>
+    <n v="80.910000000000011"/>
+    <n v="3"/>
+    <n v="269.70000000000005"/>
+    <n v="26.970000000000006"/>
+    <n v="242.73000000000005"/>
+  </r>
+  <r>
+    <s v="Vestido curto"/>
+    <x v="1"/>
+    <s v="Vestuário"/>
+    <n v="91.4"/>
+    <n v="9.14"/>
+    <n v="82.26"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Calça jeans"/>
+    <x v="2"/>
+    <s v="Vestuário"/>
+    <n v="92.9"/>
+    <n v="9.2900000000000009"/>
+    <n v="83.61"/>
+    <n v="6"/>
+    <n v="557.40000000000009"/>
+    <n v="55.740000000000009"/>
+    <n v="501.66000000000008"/>
+  </r>
+  <r>
+    <s v="Vestido curto"/>
+    <x v="2"/>
+    <s v="Vestuário"/>
+    <n v="93.5"/>
+    <n v="9.35"/>
+    <n v="84.15"/>
+    <n v="2"/>
+    <n v="187"/>
+    <n v="18.7"/>
+    <n v="168.3"/>
+  </r>
+  <r>
+    <s v="Vestido longo"/>
+    <x v="0"/>
+    <s v="Vestuário"/>
+    <n v="140"/>
+    <n v="14"/>
+    <n v="126"/>
+    <n v="2"/>
+    <n v="280"/>
+    <n v="28"/>
+    <n v="252"/>
+  </r>
+  <r>
+    <s v="Vestido longo"/>
+    <x v="1"/>
+    <s v="Vestuário"/>
+    <n v="142.9"/>
+    <n v="14.290000000000001"/>
+    <n v="128.61000000000001"/>
+    <n v="2"/>
+    <n v="285.8"/>
+    <n v="28.580000000000002"/>
+    <n v="257.22000000000003"/>
+  </r>
+  <r>
+    <s v="Bolsa coringa"/>
+    <x v="3"/>
+    <s v="Acessórios"/>
+    <n v="145"/>
+    <n v="14.5"/>
+    <n v="130.5"/>
+    <n v="2"/>
+    <n v="290"/>
+    <n v="29"/>
+    <n v="261"/>
+  </r>
+  <r>
+    <s v="Vestido longo"/>
+    <x v="2"/>
+    <s v="Vestuário"/>
+    <n v="146"/>
+    <n v="14.600000000000001"/>
+    <n v="131.4"/>
+    <n v="2"/>
+    <n v="292"/>
+    <n v="29.200000000000003"/>
+    <n v="262.8"/>
+  </r>
+  <r>
+    <s v="Tênis Nika"/>
+    <x v="4"/>
+    <s v="Calçado"/>
+    <n v="199.9"/>
+    <n v="19.990000000000002"/>
+    <n v="179.91"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Jaqueta jeans"/>
+    <x v="0"/>
+    <s v="Vestuário"/>
+    <n v="249.9"/>
+    <n v="24.990000000000002"/>
+    <n v="224.91"/>
+    <n v="1"/>
+    <n v="249.9"/>
+    <n v="24.990000000000002"/>
+    <n v="224.91"/>
+  </r>
+  <r>
+    <s v="Tênis Nika"/>
+    <x v="5"/>
+    <s v="Calçado"/>
+    <n v="249.9"/>
+    <n v="24.990000000000002"/>
+    <n v="224.91"/>
+    <n v="1"/>
+    <n v="249.9"/>
+    <n v="24.990000000000002"/>
+    <n v="224.91"/>
+  </r>
+  <r>
+    <s v="Tênis Atitas"/>
+    <x v="4"/>
+    <s v="Calçado"/>
+    <n v="249.9"/>
+    <n v="24.990000000000002"/>
+    <n v="224.91"/>
+    <n v="5"/>
+    <n v="1249.5"/>
+    <n v="124.95"/>
+    <n v="1124.55"/>
+  </r>
+  <r>
+    <s v="Tênis Atitas"/>
+    <x v="5"/>
+    <s v="Calçado"/>
+    <n v="255"/>
+    <n v="25.5"/>
+    <n v="229.5"/>
+    <n v="3"/>
+    <n v="765"/>
+    <n v="76.5"/>
+    <n v="688.5"/>
+  </r>
+  <r>
+    <s v="Jaqueta jeans"/>
+    <x v="1"/>
+    <s v="Vestuário"/>
+    <n v="259.89999999999998"/>
+    <n v="25.99"/>
+    <n v="233.90999999999997"/>
+    <n v="2"/>
+    <n v="519.79999999999995"/>
+    <n v="51.98"/>
+    <n v="467.81999999999994"/>
+  </r>
+  <r>
+    <s v="Tênis Nika"/>
+    <x v="6"/>
+    <s v="Calçado"/>
+    <n v="259.89999999999998"/>
+    <n v="25.99"/>
+    <n v="233.90999999999997"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Tênis Atitas"/>
+    <x v="6"/>
+    <s v="Calçado"/>
+    <n v="259.89999999999998"/>
+    <n v="25.99"/>
+    <n v="233.90999999999997"/>
+    <n v="1"/>
+    <n v="259.89999999999998"/>
+    <n v="25.99"/>
+    <n v="233.90999999999997"/>
+  </r>
+  <r>
+    <s v="Bolsa de couro"/>
+    <x v="3"/>
+    <s v="Acessórios"/>
+    <n v="259.89999999999998"/>
+    <n v="25.99"/>
+    <n v="233.90999999999997"/>
+    <n v="1"/>
+    <n v="259.89999999999998"/>
+    <n v="25.99"/>
+    <n v="233.90999999999997"/>
+  </r>
+  <r>
+    <s v="Jaqueta jeans"/>
+    <x v="2"/>
+    <s v="Vestuário"/>
+    <n v="299.89999999999998"/>
+    <n v="29.99"/>
+    <n v="269.90999999999997"/>
+    <n v="1"/>
+    <n v="299.89999999999998"/>
+    <n v="29.99"/>
+    <n v="269.90999999999997"/>
+  </r>
+  <r>
+    <s v="Jaqueta couro"/>
+    <x v="2"/>
+    <s v="Vestuário"/>
+    <n v="299.89999999999998"/>
+    <n v="29.99"/>
+    <n v="269.90999999999997"/>
+    <n v="1"/>
+    <n v="299.89999999999998"/>
+    <n v="29.99"/>
+    <n v="269.90999999999997"/>
+  </r>
+  <r>
+    <s v="Jaqueta couro"/>
+    <x v="0"/>
+    <s v="Vestuário"/>
+    <n v="300"/>
+    <n v="30"/>
+    <n v="270"/>
+    <n v="1"/>
+    <n v="300"/>
+    <n v="30"/>
+    <n v="270"/>
+  </r>
+  <r>
+    <s v="Jaqueta couro"/>
+    <x v="1"/>
+    <s v="Vestuário"/>
+    <n v="302.89999999999998"/>
+    <n v="30.29"/>
+    <n v="272.60999999999996"/>
+    <n v="2"/>
+    <n v="605.79999999999995"/>
+    <n v="60.58"/>
+    <n v="545.21999999999991"/>
+  </r>
+  <r>
+    <s v="Óculos quadrado"/>
+    <x v="3"/>
+    <s v="Acessórios"/>
+    <n v="349.9"/>
+    <n v="34.99"/>
+    <n v="314.90999999999997"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Óculos redondo"/>
+    <x v="3"/>
+    <s v="Acessórios"/>
+    <n v="399.9"/>
+    <n v="39.99"/>
+    <n v="359.90999999999997"/>
+    <n v="3"/>
+    <n v="1199.6999999999998"/>
+    <n v="119.96999999999998"/>
+    <n v="1079.7299999999998"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C2B716C-6A29-4F60-B615-34E8E01FD770}" name="Tabela dinâmica15" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor Total" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4666A30-128C-44DA-BC62-4E86105EB672}" name="Tabela dinâmica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -2945,30 +5621,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:J43" totalsRowCount="1" headerRowDxfId="44" totalsRowDxfId="41" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:J43" totalsRowCount="1" headerRowDxfId="50" totalsRowDxfId="47" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="46">
   <autoFilter ref="A3:J42" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
     <sortCondition ref="D3:D42"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5ADC0821-BE78-4155-839C-96C06CE380CE}" name="Produtos" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{43384F10-6B22-4897-976F-3F386E831F5F}" name="Tamanho" totalsRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{ABAC2F85-979D-4665-A1E9-B6C6D01BD2E3}" name="Categoria" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{5A199DB8-DEAF-428B-B0A9-0A4B4BBB79F2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{A2AEBE90-6B04-4052-9CCA-CE496F29DD9E}" name="Valor do Descoto" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="1" xr3:uid="{5ADC0821-BE78-4155-839C-96C06CE380CE}" name="Produtos" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{43384F10-6B22-4897-976F-3F386E831F5F}" name="Tamanho" totalsRowDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{ABAC2F85-979D-4665-A1E9-B6C6D01BD2E3}" name="Categoria" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{5A199DB8-DEAF-428B-B0A9-0A4B4BBB79F2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{A2AEBE90-6B04-4052-9CCA-CE496F29DD9E}" name="Valor do Descoto" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>D4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>D4-E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>D4*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>H4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>H4-I4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2977,27 +5653,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="26">
   <autoFilter ref="A3:J23" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F846016E-C621-48F6-A4F2-8B9036CF79B0}" name="Produtos" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="3" xr3:uid="{EB51C660-9F00-4E83-BB4A-3464A549E0C4}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]-Tabela2[[#This Row],[Desconto 10% na uni]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]-Tabela2[[#This Row],[Desconto 10% no total]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3305,8 +5981,8 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G42"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4894,10 +7570,10 @@
     <mergeCell ref="A43:J43"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4913,7 +7589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C0E92-991A-462E-8787-E4D9C612A80E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5314,10 +7990,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5326,11 +8002,95 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEF7766-F695-43C5-880E-1D9A46886306}">
+  <dimension ref="A3:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="82">
+        <v>36</v>
+      </c>
+      <c r="B4" s="83">
+        <v>1249.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="82">
+        <v>37</v>
+      </c>
+      <c r="B5" s="83">
+        <v>1014.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="82">
+        <v>38</v>
+      </c>
+      <c r="B6" s="83">
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="83">
+        <v>3591.7000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="83">
+        <v>3748.1000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="83">
+        <v>3108.1000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="83">
+        <v>3236.3999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45CD3CF-30C5-4720-AC50-B58EC0224FEB}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:F21"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6903,7 +9663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED25BDA5-88AD-4C07-8122-123217BA43DE}">
   <dimension ref="B1:H5"/>
   <sheetViews>
@@ -6998,7 +9758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB63E97-4BA3-43AE-A327-DB12941483B2}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -7870,7 +10630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FCF699-F2AA-44BE-9D2C-5CD3C169F985}">
   <dimension ref="A3:B13"/>
   <sheetViews>

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2BDF7F-B972-4B67-AC0F-5EED7A8329F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B50F9-E9FF-4053-B4BB-10B7A2D2745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Lista de Indicadores" sheetId="8" r:id="rId2"/>
     <sheet name="Filtro Avançado" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="10" r:id="rId4"/>
+    <sheet name="Grafico 2" sheetId="10" r:id="rId4"/>
     <sheet name="Produtos Tabela" sheetId="6" r:id="rId5"/>
-    <sheet name="Lista de Indicadores (Tabela)" sheetId="9" r:id="rId6"/>
+    <sheet name="Lista de Indicadores (Tabela)" sheetId="9" state="hidden" r:id="rId6"/>
     <sheet name="Meu Gráfico" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="Tabela de Produtos" sheetId="3" state="hidden" r:id="rId8"/>
     <sheet name="P-Gráfico" sheetId="4" state="hidden" r:id="rId9"/>
@@ -34,7 +34,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="20" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -667,7 +667,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,6 +801,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,9 +857,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{5AB88DA2-1741-4E2D-B0E8-5223CA164138}"/>
@@ -866,139 +865,7 @@
     <cellStyle name="Título 1" xfId="4" builtinId="16"/>
     <cellStyle name="Titulo Meteora" xfId="2" xr:uid="{BEE78EB7-AC5E-4F74-92AD-4A7505DF0739}"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1542,6 +1409,116 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1578,7 +1555,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Meteora_Ecommerce.xlsx]Planilha1!Tabela dinâmica15</c:name>
+    <c:name>[Meteora_Ecommerce.xlsx]Grafico 2!Tabela dinâmica15</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1659,49 +1636,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2244,7 +2179,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$B$3</c:f>
+              <c:f>'Grafico 2'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2271,6 +2206,195 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FB20-4C8B-816A-75199B344853}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FB20-4C8B-816A-75199B344853}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-FB20-4C8B-816A-75199B344853}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FB20-4C8B-816A-75199B344853}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-FB20-4C8B-816A-75199B344853}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FB20-4C8B-816A-75199B344853}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-FB20-4C8B-816A-75199B344853}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -2485,7 +2609,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$A$4:$A$10</c:f>
+              <c:f>'Grafico 2'!$A$4:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2514,7 +2638,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$4:$B$10</c:f>
+              <c:f>'Grafico 2'!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5157,7 +5281,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C2B716C-6A29-4F60-B615-34E8E01FD770}" name="Tabela dinâmica15" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C2B716C-6A29-4F60-B615-34E8E01FD770}" name="Tabela dinâmica15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5273,23 +5397,23 @@
     <dataField name="Soma de Valor Total" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="5">
+    <format dxfId="49">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="47">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5621,30 +5745,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:J43" totalsRowCount="1" headerRowDxfId="50" totalsRowDxfId="47" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:J43" totalsRowCount="1" headerRowDxfId="44" totalsRowDxfId="41" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="40">
   <autoFilter ref="A3:J42" xr:uid="{A85F0976-5695-4669-8673-974DD9D4E6EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J42">
     <sortCondition ref="D3:D42"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5ADC0821-BE78-4155-839C-96C06CE380CE}" name="Produtos" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{43384F10-6B22-4897-976F-3F386E831F5F}" name="Tamanho" totalsRowDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{ABAC2F85-979D-4665-A1E9-B6C6D01BD2E3}" name="Categoria" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{5A199DB8-DEAF-428B-B0A9-0A4B4BBB79F2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{A2AEBE90-6B04-4052-9CCA-CE496F29DD9E}" name="Valor do Descoto" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="1" xr3:uid="{5ADC0821-BE78-4155-839C-96C06CE380CE}" name="Produtos" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{43384F10-6B22-4897-976F-3F386E831F5F}" name="Tamanho" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{ABAC2F85-979D-4665-A1E9-B6C6D01BD2E3}" name="Categoria" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{5A199DB8-DEAF-428B-B0A9-0A4B4BBB79F2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{A2AEBE90-6B04-4052-9CCA-CE496F29DD9E}" name="Valor do Descoto" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>D4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="6" xr3:uid="{CE44F581-20A2-4B35-A9DA-C1C0F55716A8}" name="Valor p/uni já c/ desonto" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>D4-E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="7" xr3:uid="{8CCC345F-9C9F-43C4-9939-85B9D76AC490}" name="Qtd" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{4B7EDBAD-C85D-4938-AA89-9DDD8717E7DE}" name="Valor Total" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>D4*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="9" xr3:uid="{1E31C523-1281-4770-A1E9-39189EAD03E5}" name="Valor do Descoto total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>H4*$L$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="10" xr3:uid="{74EE6C6B-F07C-4900-B79B-62736BAF2066}" name="Valor Total c/ desconto" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>H4-I4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5653,27 +5777,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}" name="Tabela2" displayName="Tabela2" ref="A3:J24" totalsRowCount="1" headerRowDxfId="20">
   <autoFilter ref="A3:J23" xr:uid="{B5F3F847-80DB-46E6-969C-9D94B78A46AD}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F846016E-C621-48F6-A4F2-8B9036CF79B0}" name="Produtos" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{EB758243-76C9-4991-B308-F3B0296E082A}" name="Tamanho" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" xr3:uid="{EB51C660-9F00-4E83-BB4A-3464A549E0C4}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="4" xr3:uid="{FD7A0261-9E06-4E25-BBF6-0CBB3FFA9000}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{CA507F7E-5861-47A6-A479-3C875189010F}" name="Desconto 10% na uni" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="10" xr3:uid="{82710D5F-3BBC-4B2F-AB85-CE750F9B1016}" name="Desconto p/uni" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]-Tabela2[[#This Row],[Desconto 10% na uni]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="5" xr3:uid="{510BA055-A194-42C0-B903-0306E4DBA8BA}" name="Qtd" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{FAFD4869-FAEC-4FEF-87A6-578DB2BD428A}" name="Valor Total" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="7" xr3:uid="{3F1E0D6B-CE7E-4288-BE04-C6D08B353B1D}" name="Desconto 10% no total" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="8" xr3:uid="{DB505354-1B03-4412-9380-90B56D7EB895}" name="Valor Total c/ desconto 10%" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabela2[[#This Row],[Valor Total]]-Tabela2[[#This Row],[Desconto 10% no total]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5980,7 +6104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
@@ -6001,30 +6125,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -7508,16 +7632,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="71"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
@@ -7570,10 +7694,10 @@
     <mergeCell ref="A43:J43"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7608,16 +7732,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="54" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="F2" s="72" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="F2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="51" t="s">
@@ -7990,10 +8114,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8005,8 +8129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEF7766-F695-43C5-880E-1D9A46886306}">
   <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8016,66 +8140,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="82">
+      <c r="A4" s="64">
         <v>36</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="64">
         <v>1249.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="64">
         <v>37</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="64">
         <v>1014.9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="82">
+      <c r="A6" s="64">
         <v>38</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="64">
         <v>259.89999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="64">
         <v>3591.7000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="64">
         <v>3748.1000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="64">
         <v>3108.1000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="64">
         <v>3236.3999999999996</v>
       </c>
     </row>
@@ -8110,18 +8234,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -9686,16 +9810,16 @@
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" s="54" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="F3" s="72" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="F3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" s="49" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
@@ -9780,28 +9904,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/Meteora_Ecommerce.xlsx
+++ b/Meteora_Ecommerce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B50F9-E9FF-4053-B4BB-10B7A2D2745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4260508-1630-4958-BD20-50285350A650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D21CFB7-6993-43B3-8824-1AEE6CE8FEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5281,7 +5281,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C2B716C-6A29-4F60-B615-34E8E01FD770}" name="Tabela dinâmica15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C2B716C-6A29-4F60-B615-34E8E01FD770}" name="Tabela dinâmica15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5543,7 +5543,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4666A30-128C-44DA-BC62-4E86105EB672}" name="Tabela dinâmica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4666A30-128C-44DA-BC62-4E86105EB672}" name="Tabela dinâmica9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6104,9 +6104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3286DE-7E9D-456D-801F-98E301866A56}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7713,8 +7713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C0E92-991A-462E-8787-E4D9C612A80E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
